--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
@@ -507,34 +507,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>49.00692001095219</v>
+        <v>41.02974113839863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.0004102974113839863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.999589702588616</v>
       </c>
       <c r="F2" t="n">
-        <v>64.91523560903161</v>
+        <v>71.66319036298292</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2338213.625244919</v>
+        <v>2388630.327319735</v>
       </c>
       <c r="I2" t="n">
-        <v>47591113.61750585</v>
+        <v>50650337.90630667</v>
       </c>
       <c r="J2" t="n">
-        <v>47.12203847206941</v>
+        <v>39.45167417153714</v>
       </c>
       <c r="K2" t="n">
-        <v>10068.70672134908</v>
+        <v>8129.60279539457</v>
       </c>
       <c r="L2" t="n">
-        <v>507786.1784177672</v>
+        <v>440540.4078463971</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99950.99307998904</v>
+        <v>99958.97025886161</v>
       </c>
       <c r="C3" t="n">
-        <v>51.90641278236354</v>
+        <v>43.18377188662431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0004320149734915457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9995679850265085</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94681901007349</v>
+        <v>70.69240042058567</v>
       </c>
       <c r="G3" t="n">
-        <v>96106.72411537408</v>
+        <v>96114.39447967461</v>
       </c>
       <c r="H3" t="n">
-        <v>2238213.625244919</v>
+        <v>2288630.327319735</v>
       </c>
       <c r="I3" t="n">
-        <v>45252899.99226093</v>
+        <v>48261707.57898694</v>
       </c>
       <c r="J3" t="n">
-        <v>47.99039643339823</v>
+        <v>39.9258245993198</v>
       </c>
       <c r="K3" t="n">
-        <v>10021.58468287701</v>
+        <v>8090.151121223033</v>
       </c>
       <c r="L3" t="n">
-        <v>497717.4716964181</v>
+        <v>432410.8050510027</v>
       </c>
     </row>
     <row r="4">
@@ -580,37 +580,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99899.08666720668</v>
+        <v>99915.78648697498</v>
       </c>
       <c r="C4" t="n">
-        <v>55.02050211614402</v>
+        <v>45.48688584943878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0004552522424008387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9995447477575992</v>
       </c>
       <c r="F4" t="n">
-        <v>62.97978524517268</v>
+        <v>69.72273769474938</v>
       </c>
       <c r="G4" t="n">
-        <v>92362.32125296473</v>
+        <v>92377.76117508778</v>
       </c>
       <c r="H4" t="n">
-        <v>2142106.901129545</v>
+        <v>2192515.93284006</v>
       </c>
       <c r="I4" t="n">
-        <v>43014686.36701601</v>
+        <v>45973077.25166719</v>
       </c>
       <c r="J4" t="n">
-        <v>48.91302603349738</v>
+        <v>40.43767588743063</v>
       </c>
       <c r="K4" t="n">
-        <v>9973.594286443607</v>
+        <v>8050.225296623714</v>
       </c>
       <c r="L4" t="n">
-        <v>487695.8870135411</v>
+        <v>424320.6539297796</v>
       </c>
     </row>
     <row r="5">
@@ -618,37 +618,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99844.06616509054</v>
+        <v>99870.29960112553</v>
       </c>
       <c r="C5" t="n">
-        <v>58.36485282003648</v>
+        <v>47.94928101381507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0004801155218850939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9995198844781149</v>
       </c>
       <c r="F5" t="n">
-        <v>62.01421562534783</v>
+        <v>68.75426585457552</v>
       </c>
       <c r="G5" t="n">
-        <v>88761.01125566337</v>
+        <v>88784.33268477389</v>
       </c>
       <c r="H5" t="n">
-        <v>2049744.57987658</v>
+        <v>2100138.171664973</v>
       </c>
       <c r="I5" t="n">
-        <v>40872579.46588647</v>
+        <v>43780561.31882714</v>
       </c>
       <c r="J5" t="n">
-        <v>49.89052079940027</v>
+        <v>40.98724636747117</v>
       </c>
       <c r="K5" t="n">
-        <v>9924.681260410111</v>
+        <v>8009.787620736282</v>
       </c>
       <c r="L5" t="n">
-        <v>477722.2927270975</v>
+        <v>416270.4286331558</v>
       </c>
     </row>
     <row r="6">
@@ -656,37 +656,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99785.7013122705</v>
+        <v>99822.35032011171</v>
       </c>
       <c r="C6" t="n">
-        <v>61.95624008843515</v>
+        <v>50.58183621406519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0005067185460155832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9994932814539844</v>
       </c>
       <c r="F6" t="n">
-        <v>61.05019541096939</v>
+        <v>67.78705152795786</v>
       </c>
       <c r="G6" t="n">
-        <v>85297.2356865692</v>
+        <v>85328.56341206895</v>
       </c>
       <c r="H6" t="n">
-        <v>1960983.568620917</v>
+        <v>2011353.838980199</v>
       </c>
       <c r="I6" t="n">
-        <v>38822834.88600989</v>
+        <v>41680423.14716216</v>
       </c>
       <c r="J6" t="n">
-        <v>50.92351316157525</v>
+        <v>41.57458229400199</v>
       </c>
       <c r="K6" t="n">
-        <v>9874.790739610709</v>
+        <v>7968.80037436881</v>
       </c>
       <c r="L6" t="n">
-        <v>467797.6114666874</v>
+        <v>408260.6410124195</v>
       </c>
     </row>
     <row r="7">
@@ -694,37 +694,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99723.74507218206</v>
+        <v>99771.76848389764</v>
       </c>
       <c r="C7" t="n">
-        <v>65.81262301335532</v>
+        <v>53.39615414241699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0005351829976937283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9994648170023063</v>
       </c>
       <c r="F7" t="n">
-        <v>60.08781395850356</v>
+        <v>66.82116441050402</v>
       </c>
       <c r="G7" t="n">
-        <v>81965.64926238573</v>
+        <v>82005.12100623384</v>
       </c>
       <c r="H7" t="n">
-        <v>1875686.332934348</v>
+        <v>1926025.27556813</v>
       </c>
       <c r="I7" t="n">
-        <v>36861851.31738897</v>
+        <v>39669069.30818196</v>
       </c>
       <c r="J7" t="n">
-        <v>52.01267194385677</v>
+        <v>42.19975623687802</v>
       </c>
       <c r="K7" t="n">
-        <v>9823.867226449134</v>
+        <v>7927.225792074809</v>
       </c>
       <c r="L7" t="n">
-        <v>457922.8207270767</v>
+        <v>400291.8406380507</v>
       </c>
     </row>
     <row r="8">
@@ -732,37 +732,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99657.93244916871</v>
+        <v>99718.37232975522</v>
       </c>
       <c r="C8" t="n">
-        <v>69.95322212839608</v>
+        <v>56.40460671354154</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0005656390632512442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9994343609367488</v>
       </c>
       <c r="F8" t="n">
-        <v>59.12716486856024</v>
+        <v>65.85667737601911</v>
       </c>
       <c r="G8" t="n">
-        <v>78761.11161881164</v>
+        <v>78808.87813437256</v>
       </c>
       <c r="H8" t="n">
-        <v>1793720.683671962</v>
+        <v>1844020.154561896</v>
       </c>
       <c r="I8" t="n">
-        <v>34986164.98445462</v>
+        <v>37743044.03261384</v>
       </c>
       <c r="J8" t="n">
-        <v>53.15869958624891</v>
+        <v>42.86286538827689</v>
       </c>
       <c r="K8" t="n">
-        <v>9771.854554505277</v>
+        <v>7885.026035837931</v>
       </c>
       <c r="L8" t="n">
-        <v>448098.9535006275</v>
+        <v>392364.6148459759</v>
       </c>
     </row>
     <row r="9">
@@ -770,37 +770,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99587.97922704031</v>
+        <v>99661.96772304169</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39860106511503</v>
+        <v>59.62038285531604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0005982260256088834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9994017739743911</v>
       </c>
       <c r="F9" t="n">
-        <v>58.1683461347998</v>
+        <v>64.89366658833069</v>
       </c>
       <c r="G9" t="n">
-        <v>75678.67939542494</v>
+        <v>75734.90457150842</v>
       </c>
       <c r="H9" t="n">
-        <v>1714959.57205315</v>
+        <v>1765211.276427523</v>
       </c>
       <c r="I9" t="n">
-        <v>33192444.30078267</v>
+        <v>35899023.87805194</v>
       </c>
       <c r="J9" t="n">
-        <v>54.3623290641297</v>
+        <v>43.56402977084763</v>
       </c>
       <c r="K9" t="n">
-        <v>9718.695854919028</v>
+        <v>7842.163170449653</v>
       </c>
       <c r="L9" t="n">
-        <v>438327.0989461223</v>
+        <v>384479.588810138</v>
       </c>
     </row>
     <row r="10">
@@ -808,37 +808,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99513.5806259752</v>
+        <v>99602.34734018637</v>
       </c>
       <c r="C10" t="n">
-        <v>79.17075237488798</v>
+        <v>63.05753879039505</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0006330928986545414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9993669071013455</v>
       </c>
       <c r="F10" t="n">
-        <v>57.21146029320089</v>
+        <v>63.93221161420586</v>
       </c>
       <c r="G10" t="n">
-        <v>72713.59862807524</v>
+        <v>72778.45959667956</v>
       </c>
       <c r="H10" t="n">
-        <v>1639280.892657725</v>
+        <v>1689476.371856015</v>
       </c>
       <c r="I10" t="n">
-        <v>31477484.72872952</v>
+        <v>34133812.60162441</v>
       </c>
       <c r="J10" t="n">
-        <v>55.62432046439247</v>
+        <v>44.30339033237912</v>
       </c>
       <c r="K10" t="n">
-        <v>9664.333525854898</v>
+        <v>7798.599140678805</v>
       </c>
       <c r="L10" t="n">
-        <v>428608.4030912033</v>
+        <v>376637.4256396883</v>
       </c>
     </row>
     <row r="11">
@@ -846,37 +846,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99434.40987360031</v>
+        <v>99539.28980139598</v>
       </c>
       <c r="C11" t="n">
-        <v>84.29318753489261</v>
+        <v>66.73105086317743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0006703991056830061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999152273467082</v>
+        <v>0.999329600894317</v>
       </c>
       <c r="F11" t="n">
-        <v>56.25661457113546</v>
+        <v>62.97239553708098</v>
       </c>
       <c r="G11" t="n">
-        <v>69861.29743730025</v>
+        <v>69934.98468339795</v>
       </c>
       <c r="H11" t="n">
-        <v>1566567.29402965</v>
+        <v>1616697.912259336</v>
       </c>
       <c r="I11" t="n">
-        <v>29838203.83607179</v>
+        <v>32444336.2297684</v>
       </c>
       <c r="J11" t="n">
-        <v>56.94545717468687</v>
+        <v>45.08110691125453</v>
       </c>
       <c r="K11" t="n">
-        <v>9608.709205390507</v>
+        <v>7754.295750346427</v>
       </c>
       <c r="L11" t="n">
-        <v>418944.0695653483</v>
+        <v>368838.8264990096</v>
       </c>
     </row>
     <row r="12">
@@ -884,37 +884,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99350.11668606542</v>
+        <v>99472.5587505328</v>
       </c>
       <c r="C12" t="n">
-        <v>89.79103111581155</v>
+        <v>70.65687095394316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0007103152049314776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9992896847950685</v>
       </c>
       <c r="F12" t="n">
-        <v>55.30392103563822</v>
+        <v>62.01430507129317</v>
       </c>
       <c r="G12" t="n">
-        <v>67117.37900176785</v>
+        <v>67200.09647327907</v>
       </c>
       <c r="H12" t="n">
-        <v>1496705.99659235</v>
+        <v>1546762.927575937</v>
       </c>
       <c r="I12" t="n">
-        <v>28271636.54204214</v>
+        <v>30827638.31750906</v>
       </c>
       <c r="J12" t="n">
-        <v>58.3265416382352</v>
+        <v>45.89735605560797</v>
       </c>
       <c r="K12" t="n">
-        <v>9551.763748215819</v>
+        <v>7709.214643435173</v>
       </c>
       <c r="L12" t="n">
-        <v>409335.3603599578</v>
+        <v>361084.5307486631</v>
       </c>
     </row>
     <row r="13">
@@ -922,37 +922,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99260.32565494961</v>
+        <v>99401.90187957886</v>
       </c>
       <c r="C13" t="n">
-        <v>95.69111903743399</v>
+        <v>74.85198450612164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0007530236654506028</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9992469763345494</v>
       </c>
       <c r="F13" t="n">
-        <v>54.35349674019601</v>
+        <v>61.0580306764683</v>
       </c>
       <c r="G13" t="n">
-        <v>64477.61480621547</v>
+        <v>64569.58002209734</v>
       </c>
       <c r="H13" t="n">
-        <v>1429588.617590582</v>
+        <v>1479562.831102659</v>
       </c>
       <c r="I13" t="n">
-        <v>26774930.54544979</v>
+        <v>29280875.38993312</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76839062179605</v>
+        <v>46.75232867773631</v>
       </c>
       <c r="K13" t="n">
-        <v>9493.437206577584</v>
+        <v>7663.317287379565</v>
       </c>
       <c r="L13" t="n">
-        <v>399783.596611742</v>
+        <v>353375.3161052279</v>
       </c>
     </row>
     <row r="14">
@@ -960,37 +960,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99164.63453591218</v>
+        <v>99327.04989507273</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0221007768414</v>
+        <v>79.33447117322143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0007987196967697008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9992012803032303</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40546386931685</v>
+        <v>60.10366667168516</v>
       </c>
       <c r="G14" t="n">
-        <v>61937.93815381615</v>
+        <v>62039.38230795432</v>
       </c>
       <c r="H14" t="n">
-        <v>1365111.002784366</v>
+        <v>1414993.251080561</v>
       </c>
       <c r="I14" t="n">
-        <v>25345341.92785921</v>
+        <v>27801312.55883047</v>
       </c>
       <c r="J14" t="n">
-        <v>61.27182993959153</v>
+        <v>47.64622752383539</v>
       </c>
       <c r="K14" t="n">
-        <v>9433.668815955789</v>
+        <v>7616.564958701827</v>
       </c>
       <c r="L14" t="n">
-        <v>390290.1594051645</v>
+        <v>345711.9988178483</v>
       </c>
     </row>
     <row r="15">
@@ -998,37 +998,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99062.61243513534</v>
+        <v>99247.71542389951</v>
       </c>
       <c r="C15" t="n">
-        <v>108.8145453199246</v>
+        <v>84.12356806795022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.000847612136044118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9991523878639559</v>
       </c>
       <c r="F15" t="n">
-        <v>52.45994988007146</v>
+        <v>59.15131134899774</v>
       </c>
       <c r="G15" t="n">
-        <v>59494.43793334516</v>
+        <v>59605.605991663</v>
       </c>
       <c r="H15" t="n">
-        <v>1303173.06463055</v>
+        <v>1352953.868772607</v>
       </c>
       <c r="I15" t="n">
-        <v>23980230.92507484</v>
+        <v>26386319.3077499</v>
       </c>
       <c r="J15" t="n">
-        <v>62.83768857084058</v>
+        <v>48.57926443730533</v>
       </c>
       <c r="K15" t="n">
-        <v>9372.396986016196</v>
+        <v>7568.918731177992</v>
       </c>
       <c r="L15" t="n">
-        <v>380856.4905892087</v>
+        <v>338095.4338591465</v>
       </c>
     </row>
     <row r="16">
@@ -1036,37 +1036,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98953.79788981541</v>
+        <v>99163.59185583156</v>
       </c>
       <c r="C16" t="n">
-        <v>116.1010505579682</v>
+        <v>89.23973556833595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.0008999243966281156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9991000756033719</v>
       </c>
       <c r="F16" t="n">
-        <v>51.51708763972916</v>
+        <v>58.20106708585845</v>
       </c>
       <c r="G16" t="n">
-        <v>57143.35263195334</v>
+        <v>57264.50341985404</v>
       </c>
       <c r="H16" t="n">
-        <v>1243678.626697205</v>
+        <v>1293348.262780944</v>
       </c>
       <c r="I16" t="n">
-        <v>22677057.86044429</v>
+        <v>25033365.4389773</v>
       </c>
       <c r="J16" t="n">
-        <v>64.46679210255894</v>
+        <v>49.55165739261616</v>
       </c>
       <c r="K16" t="n">
-        <v>9309.559297445356</v>
+        <v>7520.339466740687</v>
       </c>
       <c r="L16" t="n">
-        <v>371484.0936031925</v>
+        <v>330526.5151279685</v>
       </c>
     </row>
     <row r="17">
@@ -1074,37 +1074,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98837.69683925745</v>
+        <v>99074.35212026323</v>
       </c>
       <c r="C17" t="n">
-        <v>123.9163557265999</v>
+        <v>94.70472560042595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.0009558954822683763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9990441045177316</v>
       </c>
       <c r="F17" t="n">
-        <v>50.57701555853745</v>
+        <v>57.25304045594421</v>
       </c>
       <c r="G17" t="n">
-        <v>54881.06458477566</v>
+        <v>55012.47086169781</v>
       </c>
       <c r="H17" t="n">
-        <v>1186535.274065252</v>
+        <v>1236083.75936109</v>
       </c>
       <c r="I17" t="n">
-        <v>21433379.23374708</v>
+        <v>23740017.17619635</v>
       </c>
       <c r="J17" t="n">
-        <v>66.15995542362661</v>
+        <v>50.56362727415155</v>
       </c>
       <c r="K17" t="n">
-        <v>9245.092505342796</v>
+        <v>7470.787809348071</v>
       </c>
       <c r="L17" t="n">
-        <v>362174.5343057471</v>
+        <v>323006.1756612278</v>
       </c>
     </row>
     <row r="18">
@@ -1112,37 +1112,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98713.78048353085</v>
+        <v>98979.6473946628</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2974563594035</v>
+        <v>100.5416522778493</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.001015781071405097</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9989842189285949</v>
       </c>
       <c r="F18" t="n">
-        <v>49.63987771661997</v>
+        <v>56.30734233784462</v>
       </c>
       <c r="G18" t="n">
-        <v>52704.0944530145</v>
+        <v>52846.04297051219</v>
       </c>
       <c r="H18" t="n">
-        <v>1131654.209480476</v>
+        <v>1181071.288499392</v>
       </c>
       <c r="I18" t="n">
-        <v>20246843.95968183</v>
+        <v>22503933.41683526</v>
       </c>
       <c r="J18" t="n">
-        <v>67.91797458915985</v>
+        <v>51.61539437317951</v>
       </c>
       <c r="K18" t="n">
-        <v>9178.932549919173</v>
+        <v>7420.224182073919</v>
       </c>
       <c r="L18" t="n">
-        <v>352929.4418004043</v>
+        <v>315535.3878518797</v>
       </c>
     </row>
     <row r="19">
@@ -1150,37 +1150,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98581.48302717145</v>
+        <v>98879.10574238494</v>
       </c>
       <c r="C19" t="n">
-        <v>141.2837210832127</v>
+        <v>106.7750647299199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.001079854676357073</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9989201453236429</v>
       </c>
       <c r="F19" t="n">
-        <v>48.70582398389137</v>
+        <v>55.36408802102768</v>
       </c>
       <c r="G19" t="n">
-        <v>50609.09592254017</v>
+        <v>50761.88746188854</v>
       </c>
       <c r="H19" t="n">
-        <v>1078950.115027462</v>
+        <v>1128225.24552888</v>
       </c>
       <c r="I19" t="n">
-        <v>19115189.75020136</v>
+        <v>21322862.12833587</v>
       </c>
       <c r="J19" t="n">
-        <v>69.74161776779331</v>
+        <v>52.7071745734921</v>
       </c>
       <c r="K19" t="n">
-        <v>9111.014575330009</v>
+        <v>7368.60878770074</v>
       </c>
       <c r="L19" t="n">
-        <v>343750.5092504851</v>
+        <v>308115.1636698059</v>
       </c>
     </row>
     <row r="20">
@@ -1188,37 +1188,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98440.19930608824</v>
+        <v>98772.33067765502</v>
       </c>
       <c r="C20" t="n">
-        <v>150.9170094103234</v>
+        <v>113.4310218939008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.001148408882484353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9988515911175156</v>
       </c>
       <c r="F20" t="n">
-        <v>47.77501013180996</v>
+        <v>54.42339730845264</v>
       </c>
       <c r="G20" t="n">
-        <v>48592.8506154439</v>
+        <v>48756.80000031932</v>
       </c>
       <c r="H20" t="n">
-        <v>1028341.019104921</v>
+        <v>1077463.358066991</v>
       </c>
       <c r="I20" t="n">
-        <v>18036239.63517389</v>
+        <v>20194636.88280699</v>
       </c>
       <c r="J20" t="n">
-        <v>71.63161517679346</v>
+        <v>53.83917519411521</v>
       </c>
       <c r="K20" t="n">
-        <v>9041.272957562218</v>
+        <v>7315.901613127248</v>
       </c>
       <c r="L20" t="n">
-        <v>334639.4946751551</v>
+        <v>300746.5548821051</v>
       </c>
     </row>
     <row r="21">
@@ -1226,37 +1226,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98289.28229667792</v>
+        <v>98658.89965576111</v>
       </c>
       <c r="C21" t="n">
-        <v>161.2417894842527</v>
+        <v>120.5371689818844</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.00122175667276303</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.998778243327237</v>
       </c>
       <c r="F21" t="n">
-        <v>46.84759793571111</v>
+        <v>53.4853946151531</v>
       </c>
       <c r="G21" t="n">
-        <v>46652.26320736542</v>
+        <v>46827.69928665138</v>
       </c>
       <c r="H21" t="n">
-        <v>979748.1684894777</v>
+        <v>1028706.558066672</v>
       </c>
       <c r="I21" t="n">
-        <v>17007898.61606897</v>
+        <v>19117173.52474</v>
       </c>
       <c r="J21" t="n">
-        <v>73.58864790274964</v>
+        <v>55.01159045539126</v>
       </c>
       <c r="K21" t="n">
-        <v>8969.641342385425</v>
+        <v>7262.062437933133</v>
       </c>
       <c r="L21" t="n">
-        <v>325598.2217175929</v>
+        <v>293430.6532689779</v>
       </c>
     </row>
     <row r="22">
@@ -1264,37 +1264,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98128.04050719367</v>
+        <v>98538.36248677922</v>
       </c>
       <c r="C22" t="n">
-        <v>172.3052545031633</v>
+        <v>128.1228152552156</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.00130023284355274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9986997671564473</v>
       </c>
       <c r="F22" t="n">
-        <v>45.92375526638664</v>
+        <v>52.55020906206617</v>
       </c>
       <c r="G22" t="n">
-        <v>44784.35674379476</v>
+        <v>44971.62233901709</v>
       </c>
       <c r="H22" t="n">
-        <v>933095.9052821123</v>
+        <v>981878.8587800206</v>
       </c>
       <c r="I22" t="n">
-        <v>16028150.44757949</v>
+        <v>18088466.96667333</v>
       </c>
       <c r="J22" t="n">
-        <v>75.61333549724523</v>
+        <v>56.22459653176932</v>
       </c>
       <c r="K22" t="n">
-        <v>8896.052694482674</v>
+        <v>7207.050847477741</v>
       </c>
       <c r="L22" t="n">
-        <v>316628.5803752075</v>
+        <v>286168.5908310447</v>
       </c>
     </row>
     <row r="23">
@@ -1302,37 +1302,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97955.7352526905</v>
+        <v>98410.239671524</v>
       </c>
       <c r="C23" t="n">
-        <v>184.1574362774502</v>
+        <v>136.2190126516928</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.001384195517726283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9986158044822737</v>
       </c>
       <c r="F23" t="n">
-        <v>45.00365616949839</v>
+        <v>51.61797456433415</v>
       </c>
       <c r="G23" t="n">
-        <v>42986.26814892079</v>
+        <v>43185.71996021542</v>
       </c>
       <c r="H23" t="n">
-        <v>888311.5485383176</v>
+        <v>936907.2364410036</v>
       </c>
       <c r="I23" t="n">
-        <v>15095054.54229738</v>
+        <v>17106588.10789331</v>
       </c>
       <c r="J23" t="n">
-        <v>77.70622222903515</v>
+        <v>57.47834615260833</v>
       </c>
       <c r="K23" t="n">
-        <v>8820.43935898543</v>
+        <v>7150.826250945971</v>
       </c>
       <c r="L23" t="n">
-        <v>307732.5276807248</v>
+        <v>278961.539983567</v>
       </c>
     </row>
     <row r="24">
@@ -1340,37 +1340,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97771.57781641305</v>
+        <v>98274.02065887231</v>
       </c>
       <c r="C24" t="n">
-        <v>196.8513140686087</v>
+        <v>144.8586347068926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.001474027761718677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9985259722382813</v>
       </c>
       <c r="F24" t="n">
-        <v>44.08748093133803</v>
+        <v>50.68882991325774</v>
       </c>
       <c r="G24" t="n">
-        <v>41255.24392096403</v>
+        <v>41467.25238482375</v>
       </c>
       <c r="H24" t="n">
-        <v>845325.2803893967</v>
+        <v>893721.5164807881</v>
       </c>
       <c r="I24" t="n">
-        <v>14206742.99375906</v>
+        <v>16169680.87145231</v>
       </c>
       <c r="J24" t="n">
-        <v>79.86776186586435</v>
+        <v>58.77296270906271</v>
       </c>
       <c r="K24" t="n">
-        <v>8742.733136756395</v>
+        <v>7093.347904793363</v>
       </c>
       <c r="L24" t="n">
-        <v>298912.0883217394</v>
+        <v>271810.713732621</v>
       </c>
     </row>
     <row r="25">
@@ -1378,37 +1378,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97574.72650234443</v>
+        <v>98129.16202416542</v>
       </c>
       <c r="C25" t="n">
-        <v>210.442916500937</v>
+        <v>154.0764550935945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.001570139313486152</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9984298606865138</v>
       </c>
       <c r="F25" t="n">
-        <v>43.17541612937382</v>
+        <v>49.76291885102917</v>
       </c>
       <c r="G25" t="n">
-        <v>39588.63600829185</v>
+        <v>39813.58509962146</v>
       </c>
       <c r="H25" t="n">
-        <v>804070.0364684328</v>
+        <v>852254.2640959644</v>
       </c>
       <c r="I25" t="n">
-        <v>13361417.71336967</v>
+        <v>15275959.35497152</v>
       </c>
       <c r="J25" t="n">
-        <v>82.09830085062249</v>
+        <v>60.10853382282897</v>
       </c>
       <c r="K25" t="n">
-        <v>8662.865374890529</v>
+        <v>7034.5749420843</v>
       </c>
       <c r="L25" t="n">
-        <v>290169.355184983</v>
+        <v>264717.3658278277</v>
       </c>
     </row>
     <row r="26">
@@ -1416,37 +1416,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97364.2835858435</v>
+        <v>97975.08556907182</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9914139311025</v>
+        <v>163.9092249666821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.001672968428806598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9983270315711934</v>
       </c>
       <c r="F26" t="n">
-        <v>42.26765466595422</v>
+        <v>48.84039013732653</v>
       </c>
       <c r="G26" t="n">
-        <v>37983.89786096846</v>
+        <v>38222.1848311978</v>
       </c>
       <c r="H26" t="n">
-        <v>764481.4004601409</v>
+        <v>812440.6789963429</v>
       </c>
       <c r="I26" t="n">
-        <v>12557347.67690123</v>
+        <v>14423705.09087555</v>
       </c>
       <c r="J26" t="n">
-        <v>84.39805972843303</v>
+        <v>61.48510432942729</v>
       </c>
       <c r="K26" t="n">
-        <v>8580.767074039908</v>
+        <v>6974.466408261471</v>
       </c>
       <c r="L26" t="n">
-        <v>281506.4898100925</v>
+        <v>257682.7908857434</v>
       </c>
     </row>
     <row r="27">
@@ -1454,37 +1454,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97139.2921719124</v>
+        <v>97811.17634410513</v>
       </c>
       <c r="C27" t="n">
-        <v>240.5591981962598</v>
+        <v>174.3957481454433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.001782983853827802</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9982170161461722</v>
       </c>
       <c r="F27" t="n">
-        <v>41.3643957834749</v>
+        <v>47.9213976068014</v>
       </c>
       <c r="G27" t="n">
-        <v>36438.58065274124</v>
+        <v>36690.61569489923</v>
       </c>
       <c r="H27" t="n">
-        <v>726497.5025991724</v>
+        <v>774218.4941651451</v>
       </c>
       <c r="I27" t="n">
-        <v>11792866.27644109</v>
+        <v>13611264.41187921</v>
       </c>
       <c r="J27" t="n">
-        <v>86.76711267322919</v>
+        <v>62.90266862596755</v>
       </c>
       <c r="K27" t="n">
-        <v>8496.369014311473</v>
+        <v>6912.981303932044</v>
       </c>
       <c r="L27" t="n">
-        <v>272925.7227360526</v>
+        <v>250708.3244774819</v>
       </c>
     </row>
     <row r="28">
@@ -1492,37 +1492,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96898.73297371613</v>
+        <v>97636.78059595969</v>
       </c>
       <c r="C28" t="n">
-        <v>257.2119461341318</v>
+        <v>185.5769529876072</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.001900686932269524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9980993130677305</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46584505925763</v>
+        <v>47.00610021644565</v>
       </c>
       <c r="G28" t="n">
-        <v>34950.32966880873</v>
+        <v>35216.53549954636</v>
       </c>
       <c r="H28" t="n">
-        <v>690058.9219464313</v>
+        <v>737527.8784702459</v>
       </c>
       <c r="I28" t="n">
-        <v>11066368.77384192</v>
+        <v>12837045.91771407</v>
       </c>
       <c r="J28" t="n">
-        <v>89.20536495502421</v>
+        <v>64.36116233057075</v>
       </c>
       <c r="K28" t="n">
-        <v>8409.601901638245</v>
+        <v>6850.078635306078</v>
       </c>
       <c r="L28" t="n">
-        <v>264429.3537217411</v>
+        <v>243795.3431735499</v>
       </c>
     </row>
     <row r="29">
@@ -1530,37 +1530,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96641.521027582</v>
+        <v>97451.20364297208</v>
       </c>
       <c r="C29" t="n">
-        <v>275.0186626715865</v>
+        <v>197.4959596073467</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.002026613856211612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9979733861437884</v>
       </c>
       <c r="F29" t="n">
-        <v>39.57221437833791</v>
+        <v>46.09466208177801</v>
       </c>
       <c r="G29" t="n">
-        <v>33516.88085505336</v>
+        <v>33797.69220261785</v>
       </c>
       <c r="H29" t="n">
-        <v>655108.5922776225</v>
+        <v>702311.3429706995</v>
       </c>
       <c r="I29" t="n">
-        <v>10376309.85189549</v>
+        <v>12099518.03924382</v>
       </c>
       <c r="J29" t="n">
-        <v>91.71252818254203</v>
+        <v>65.86045319788509</v>
       </c>
       <c r="K29" t="n">
-        <v>8320.39653668322</v>
+        <v>6785.717472975507</v>
       </c>
       <c r="L29" t="n">
-        <v>256019.7518201028</v>
+        <v>236945.2645382438</v>
       </c>
     </row>
     <row r="30">
@@ -1568,37 +1568,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96366.50236491041</v>
+        <v>97253.70768336473</v>
       </c>
       <c r="C30" t="n">
-        <v>294.0516986056635</v>
+        <v>210.1981408599101</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.002161338069950669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9978386619300493</v>
       </c>
       <c r="F30" t="n">
-        <v>38.68372188231744</v>
+        <v>45.18725250074827</v>
       </c>
       <c r="G30" t="n">
-        <v>32136.05752475338</v>
+        <v>32431.92051085774</v>
       </c>
       <c r="H30" t="n">
-        <v>621591.7114225691</v>
+        <v>668513.6507680815</v>
       </c>
       <c r="I30" t="n">
-        <v>9721201.259617867</v>
+        <v>11397206.69627312</v>
       </c>
       <c r="J30" t="n">
-        <v>94.28809315059651</v>
+        <v>67.40033123243343</v>
       </c>
       <c r="K30" t="n">
-        <v>8228.684008500679</v>
+        <v>6719.857019777621</v>
       </c>
       <c r="L30" t="n">
-        <v>247699.3552834197</v>
+        <v>230159.5470652683</v>
       </c>
     </row>
     <row r="31">
@@ -1606,37 +1606,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96072.45066630475</v>
+        <v>97043.50954250482</v>
       </c>
       <c r="C31" t="n">
-        <v>314.3867374461265</v>
+        <v>223.7311752572228</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.002305472836998224</v>
       </c>
       <c r="E31" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9976945271630018</v>
       </c>
       <c r="F31" t="n">
-        <v>37.80059189240577</v>
+        <v>44.28404596421716</v>
       </c>
       <c r="G31" t="n">
-        <v>30805.76721911227</v>
+        <v>31117.13862151539</v>
       </c>
       <c r="H31" t="n">
-        <v>589455.6538978157</v>
+        <v>636081.7302572238</v>
       </c>
       <c r="I31" t="n">
-        <v>9099609.548195297</v>
+        <v>10728693.04550504</v>
       </c>
       <c r="J31" t="n">
-        <v>96.931300117899</v>
+        <v>68.98049793943468</v>
       </c>
       <c r="K31" t="n">
-        <v>8134.395915350082</v>
+        <v>6652.456688545188</v>
       </c>
       <c r="L31" t="n">
-        <v>239470.6712749189</v>
+        <v>223439.6900454907</v>
       </c>
     </row>
     <row r="32">
@@ -1644,37 +1644,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95758.06392885862</v>
+        <v>96819.77836724759</v>
       </c>
       <c r="C32" t="n">
-        <v>336.1027448465826</v>
+        <v>238.1450896860658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.002459673980896304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9975403260191037</v>
       </c>
       <c r="F32" t="n">
-        <v>36.9230548047572</v>
+        <v>43.38522215183383</v>
       </c>
       <c r="G32" t="n">
-        <v>29523.99871825928</v>
+        <v>29851.34509967151</v>
       </c>
       <c r="H32" t="n">
-        <v>558649.8866787036</v>
+        <v>604964.5916357085</v>
       </c>
       <c r="I32" t="n">
-        <v>8510153.894297484</v>
+        <v>10092611.31524781</v>
       </c>
       <c r="J32" t="n">
-        <v>99.64110633971977</v>
+        <v>70.60055465040232</v>
       </c>
       <c r="K32" t="n">
-        <v>8037.464615232183</v>
+        <v>6583.476190605754</v>
       </c>
       <c r="L32" t="n">
-        <v>231336.2753595689</v>
+        <v>216787.2333569455</v>
       </c>
     </row>
     <row r="33">
@@ -1682,37 +1682,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95421.96118401205</v>
+        <v>96581.63327756153</v>
       </c>
       <c r="C33" t="n">
-        <v>359.2818732151223</v>
+        <v>253.4922894734195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.002624642811174249</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9973753571888258</v>
       </c>
       <c r="F33" t="n">
-        <v>36.05134695620406</v>
+        <v>42.49096591210142</v>
       </c>
       <c r="G33" t="n">
-        <v>28288.81919967882</v>
+        <v>28632.61588734144</v>
       </c>
       <c r="H33" t="n">
-        <v>529125.8879604442</v>
+        <v>575113.246536037</v>
       </c>
       <c r="I33" t="n">
-        <v>7951504.007618779</v>
+        <v>9487646.723612104</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4161506811036</v>
+        <v>72.25998985944643</v>
       </c>
       <c r="K33" t="n">
-        <v>7937.823508892463</v>
+        <v>6512.875635955351</v>
       </c>
       <c r="L33" t="n">
-        <v>223298.8107443367</v>
+        <v>210203.7571663398</v>
       </c>
     </row>
     <row r="34">
@@ -1720,37 +1720,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95062.67931079693</v>
+        <v>96328.14098808811</v>
       </c>
       <c r="C34" t="n">
-        <v>384.0093130637121</v>
+        <v>269.8275729766773</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.002801129246437384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9971988707535626</v>
       </c>
       <c r="F34" t="n">
-        <v>35.18571045849907</v>
+        <v>41.60146722539445</v>
       </c>
       <c r="G34" t="n">
-        <v>27098.37154131776</v>
+        <v>27459.10144027655</v>
       </c>
       <c r="H34" t="n">
-        <v>500837.0687607654</v>
+        <v>546480.6306486955</v>
       </c>
       <c r="I34" t="n">
-        <v>7422378.119658334</v>
+        <v>8912533.477076069</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2547151417342</v>
+        <v>73.9581655050476</v>
       </c>
       <c r="K34" t="n">
-        <v>7835.40735821136</v>
+        <v>6440.615646095905</v>
       </c>
       <c r="L34" t="n">
-        <v>215360.9872354442</v>
+        <v>203690.8815303844</v>
       </c>
     </row>
     <row r="35">
@@ -1758,37 +1758,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94678.66999773322</v>
+        <v>96058.31341511144</v>
       </c>
       <c r="C35" t="n">
-        <v>410.3730815235289</v>
+        <v>287.2081274684362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.00298993514728163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9970100648527184</v>
       </c>
       <c r="F35" t="n">
-        <v>34.32639299920876</v>
+        <v>40.7169211486721</v>
       </c>
       <c r="G35" t="n">
-        <v>25950.87176689457</v>
+        <v>26329.02398860702</v>
       </c>
       <c r="H35" t="n">
-        <v>473738.6972194476</v>
+        <v>519021.529208419</v>
       </c>
       <c r="I35" t="n">
-        <v>6921541.050897568</v>
+        <v>8366052.846427373</v>
       </c>
       <c r="J35" t="n">
-        <v>108.1546831332174</v>
+        <v>75.69430213188201</v>
       </c>
       <c r="K35" t="n">
-        <v>7730.152643069626</v>
+        <v>6366.657480590858</v>
       </c>
       <c r="L35" t="n">
-        <v>207525.5798772329</v>
+        <v>197250.2658842885</v>
       </c>
     </row>
     <row r="36">
@@ -1796,37 +1796,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94268.29691620969</v>
+        <v>95771.105287643</v>
       </c>
       <c r="C36" t="n">
-        <v>438.4637372224547</v>
+        <v>305.6935026325128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.003191917872456207</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9968080821275438</v>
       </c>
       <c r="F36" t="n">
-        <v>33.47364760744942</v>
+        <v>39.83752774061823</v>
       </c>
       <c r="G36" t="n">
-        <v>24844.60663118848</v>
+        <v>25240.67491768255</v>
       </c>
       <c r="H36" t="n">
-        <v>447787.8254525531</v>
+        <v>492692.5052198119</v>
       </c>
       <c r="I36" t="n">
-        <v>6447802.353678122</v>
+        <v>7847031.317218955</v>
       </c>
       <c r="J36" t="n">
-        <v>111.1134943650752</v>
+        <v>77.46746286789234</v>
       </c>
       <c r="K36" t="n">
-        <v>7621.997959936408</v>
+        <v>6290.963178458975</v>
       </c>
       <c r="L36" t="n">
-        <v>199795.4272341632</v>
+        <v>190883.6084036976</v>
       </c>
     </row>
     <row r="37">
@@ -1834,37 +1834,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>93829.83317898723</v>
+        <v>95465.4117850105</v>
       </c>
       <c r="C37" t="n">
-        <v>468.3740093939981</v>
+        <v>325.3455574876707</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.003407994072453735</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9965920059275463</v>
       </c>
       <c r="F37" t="n">
-        <v>32.62773238272808</v>
+        <v>38.96349196593381</v>
       </c>
       <c r="G37" t="n">
-        <v>23777.93134331615</v>
+        <v>24192.41226567302</v>
       </c>
       <c r="H37" t="n">
-        <v>422943.2188213646</v>
+        <v>467451.8303021294</v>
       </c>
       <c r="I37" t="n">
-        <v>6000014.528225569</v>
+        <v>7354338.811999143</v>
       </c>
       <c r="J37" t="n">
-        <v>114.1280962182771</v>
+        <v>79.27653615362566</v>
       </c>
       <c r="K37" t="n">
-        <v>7510.884465571333</v>
+        <v>6213.495715591083</v>
       </c>
       <c r="L37" t="n">
-        <v>192173.4292742269</v>
+        <v>184592.6452252386</v>
       </c>
     </row>
     <row r="38">
@@ -1872,37 +1872,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93361.45916959323</v>
+        <v>95140.06622752282</v>
       </c>
       <c r="C38" t="n">
-        <v>500.1983276716088</v>
+        <v>346.2283760065334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.003639143735495676</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9963608562645043</v>
       </c>
       <c r="F38" t="n">
-        <v>31.78891018524615</v>
+        <v>38.09502357751219</v>
       </c>
       <c r="G38" t="n">
-        <v>22749.2674262011</v>
+        <v>23182.65833468582</v>
       </c>
       <c r="H38" t="n">
-        <v>399165.2874780484</v>
+        <v>443259.4180364563</v>
       </c>
       <c r="I38" t="n">
-        <v>5577071.309404204</v>
+        <v>6886886.981697014</v>
       </c>
       <c r="J38" t="n">
-        <v>117.1948915161834</v>
+        <v>81.12021716423894</v>
       </c>
       <c r="K38" t="n">
-        <v>7396.756369353056</v>
+        <v>6134.219179437458</v>
       </c>
       <c r="L38" t="n">
-        <v>184662.5448086555</v>
+        <v>178379.1495096476</v>
       </c>
     </row>
     <row r="39">
@@ -1910,37 +1910,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>92861.26084192163</v>
+        <v>94793.83785151629</v>
       </c>
       <c r="C39" t="n">
-        <v>534.0322375313879</v>
+        <v>368.4081460968807</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.003886414501688917</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9961135854983111</v>
       </c>
       <c r="F39" t="n">
-        <v>30.95744828614454</v>
+        <v>37.23233697524125</v>
       </c>
       <c r="G39" t="n">
-        <v>21757.10071060026</v>
+        <v>22209.89741234135</v>
       </c>
       <c r="H39" t="n">
-        <v>376416.0200518473</v>
+        <v>420076.7597017704</v>
       </c>
       <c r="I39" t="n">
-        <v>5177906.021926155</v>
+        <v>6443627.563660556</v>
       </c>
       <c r="J39" t="n">
-        <v>120.3096826439148</v>
+        <v>82.99698786956402</v>
       </c>
       <c r="K39" t="n">
-        <v>7279.561477836873</v>
+        <v>6053.098962273218</v>
       </c>
       <c r="L39" t="n">
-        <v>177265.7884393025</v>
+        <v>172244.9303302101</v>
       </c>
     </row>
     <row r="40">
@@ -1948,37 +1948,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92327.22860439024</v>
+        <v>94425.42970541942</v>
       </c>
       <c r="C40" t="n">
-        <v>569.9716848014124</v>
+        <v>391.952995961472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.004150926261964116</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9958490737380359</v>
       </c>
       <c r="F40" t="n">
-        <v>30.13361797631731</v>
+        <v>36.37565104020311</v>
       </c>
       <c r="G40" t="n">
-        <v>20799.97946216402</v>
+        <v>21272.6736009202</v>
       </c>
       <c r="H40" t="n">
-        <v>354658.9193412471</v>
+        <v>397866.8622894291</v>
       </c>
       <c r="I40" t="n">
-        <v>4801490.001874308</v>
+        <v>6023550.803958786</v>
       </c>
       <c r="J40" t="n">
-        <v>123.4676120207015</v>
+        <v>84.90509568485616</v>
       </c>
       <c r="K40" t="n">
-        <v>7159.251795192958</v>
+        <v>5970.101974403655</v>
       </c>
       <c r="L40" t="n">
-        <v>169986.2269614656</v>
+        <v>166191.8313679369</v>
       </c>
     </row>
     <row r="41">
@@ -1986,37 +1986,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>91757.25691958884</v>
+        <v>94033.47670945794</v>
       </c>
       <c r="C41" t="n">
-        <v>608.1121510849331</v>
+        <v>416.9327811511048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.0044338760592606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9955661239407394</v>
       </c>
       <c r="F41" t="n">
-        <v>29.31769413259914</v>
+        <v>35.52518894307917</v>
       </c>
       <c r="G41" t="n">
-        <v>19876.51264006009</v>
+        <v>20369.5887513538</v>
       </c>
       <c r="H41" t="n">
-        <v>333858.939879083</v>
+        <v>376594.1886885089</v>
       </c>
       <c r="I41" t="n">
-        <v>4446831.082533062</v>
+        <v>5625683.941669357</v>
       </c>
       <c r="J41" t="n">
-        <v>126.6630989974066</v>
+        <v>86.84253067462654</v>
       </c>
       <c r="K41" t="n">
-        <v>7035.784183172256</v>
+        <v>5885.196878718798</v>
       </c>
       <c r="L41" t="n">
-        <v>162826.9751662726</v>
+        <v>160221.7293935333</v>
       </c>
     </row>
     <row r="42">
@@ -2024,37 +2024,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91149.1447685039</v>
+        <v>93616.54392830684</v>
       </c>
       <c r="C42" t="n">
-        <v>648.5476203907152</v>
+        <v>443.4188148763046</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.004736543310292274</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9952634566897077</v>
       </c>
       <c r="F42" t="n">
-        <v>28.50995474034033</v>
+        <v>34.68117792562016</v>
       </c>
       <c r="G42" t="n">
-        <v>18985.36828567576</v>
+        <v>19499.30049947325</v>
       </c>
       <c r="H42" t="n">
-        <v>313982.4272390229</v>
+        <v>356224.5999371552</v>
       </c>
       <c r="I42" t="n">
-        <v>4112972.142653978</v>
+        <v>5249089.752980848</v>
       </c>
       <c r="J42" t="n">
-        <v>129.8897733361592</v>
+        <v>88.80700128476811</v>
       </c>
       <c r="K42" t="n">
-        <v>6909.121084174851</v>
+        <v>5798.354348044171</v>
       </c>
       <c r="L42" t="n">
-        <v>155791.1909831004</v>
+        <v>154336.5325148145</v>
       </c>
     </row>
     <row r="43">
@@ -2062,37 +2062,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90500.59714811319</v>
+        <v>93173.12511343053</v>
       </c>
       <c r="C43" t="n">
-        <v>691.3693557806649</v>
+        <v>471.4835333505548</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.005060295367108947</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9949397046328911</v>
       </c>
       <c r="F43" t="n">
-        <v>27.71068037162395</v>
+        <v>33.84384905410708</v>
       </c>
       <c r="G43" t="n">
-        <v>18125.2720398136</v>
+        <v>18660.5204020549</v>
       </c>
       <c r="H43" t="n">
-        <v>294997.0589533472</v>
+        <v>336725.2994376819</v>
       </c>
       <c r="I43" t="n">
-        <v>3798989.715414955</v>
+        <v>4892865.153043693</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1404055332724</v>
+        <v>90.79590859457727</v>
       </c>
       <c r="K43" t="n">
-        <v>6779.231310838691</v>
+        <v>5709.547346759403</v>
       </c>
       <c r="L43" t="n">
-        <v>148882.0698989255</v>
+        <v>148538.1781667703</v>
       </c>
     </row>
     <row r="44">
@@ -2100,37 +2100,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89809.22779233252</v>
+        <v>92701.64158007997</v>
       </c>
       <c r="C44" t="n">
-        <v>736.6644635049214</v>
+        <v>501.2000871101878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.00540659343855554</v>
       </c>
       <c r="E44" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9945934065614445</v>
       </c>
       <c r="F44" t="n">
-        <v>26.92015361865358</v>
+        <v>33.01343694380974</v>
       </c>
       <c r="G44" t="n">
-        <v>17295.00578659519</v>
+        <v>17852.01217030436</v>
       </c>
       <c r="H44" t="n">
-        <v>276871.7869135336</v>
+        <v>318064.779035627</v>
       </c>
       <c r="I44" t="n">
-        <v>3503992.656461608</v>
+        <v>4556139.853606012</v>
       </c>
       <c r="J44" t="n">
-        <v>136.40683437338</v>
+        <v>92.80631910094344</v>
       </c>
       <c r="K44" t="n">
-        <v>6646.090905305418</v>
+        <v>5618.751438164827</v>
       </c>
       <c r="L44" t="n">
-        <v>142102.8385880868</v>
+        <v>142828.6308200108</v>
       </c>
     </row>
     <row r="45">
@@ -2138,37 +2138,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89072.5633288276</v>
+        <v>92200.44149296978</v>
       </c>
       <c r="C45" t="n">
-        <v>784.5142209917095</v>
+        <v>532.6418484030771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.005776998892610408</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9942230011073896</v>
       </c>
       <c r="F45" t="n">
-        <v>26.13865848214731</v>
+        <v>32.1901794535485</v>
       </c>
       <c r="G45" t="n">
-        <v>16493.40642196815</v>
+        <v>17072.5899984994</v>
       </c>
       <c r="H45" t="n">
-        <v>259576.7811269384</v>
+        <v>300212.7668653227</v>
       </c>
       <c r="I45" t="n">
-        <v>3227120.869548074</v>
+        <v>4238075.074570384</v>
       </c>
       <c r="J45" t="n">
-        <v>139.6798922553973</v>
+        <v>94.83493607242552</v>
       </c>
       <c r="K45" t="n">
-        <v>6509.684070932039</v>
+        <v>5525.945119063883</v>
       </c>
       <c r="L45" t="n">
-        <v>135456.7476827814</v>
+        <v>137209.879381846</v>
       </c>
     </row>
     <row r="46">
@@ -2176,37 +2176,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88288.04910783589</v>
+        <v>91667.79964456671</v>
       </c>
       <c r="C46" t="n">
-        <v>834.9921443093529</v>
+        <v>565.8818238768519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.006173179961458719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9938268200385413</v>
       </c>
       <c r="F46" t="n">
-        <v>25.36647971491492</v>
+        <v>31.37431734957974</v>
       </c>
       <c r="G46" t="n">
-        <v>15719.36474425244</v>
+        <v>16321.11698556161</v>
       </c>
       <c r="H46" t="n">
-        <v>243083.3747049702</v>
+        <v>283140.1768668232</v>
       </c>
       <c r="I46" t="n">
-        <v>2967544.088421136</v>
+        <v>3937862.307705061</v>
       </c>
       <c r="J46" t="n">
-        <v>142.9493290125532</v>
+        <v>96.87806954220427</v>
       </c>
       <c r="K46" t="n">
-        <v>6370.004178676641</v>
+        <v>5431.110182991457</v>
       </c>
       <c r="L46" t="n">
-        <v>128947.0636118494</v>
+        <v>131683.9342627822</v>
       </c>
     </row>
     <row r="47">
@@ -2214,37 +2214,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>87453.05696352654</v>
+        <v>91101.91782068985</v>
       </c>
       <c r="C47" t="n">
-        <v>888.1617704682585</v>
+        <v>600.9919609467911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.006596918872000979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.993403081127999</v>
       </c>
       <c r="F47" t="n">
-        <v>24.6039021211693</v>
+        <v>30.56609393815958</v>
       </c>
       <c r="G47" t="n">
-        <v>14971.82446353787</v>
+        <v>15596.50364734396</v>
       </c>
       <c r="H47" t="n">
-        <v>227364.0099607178</v>
+        <v>266819.0598812617</v>
       </c>
       <c r="I47" t="n">
-        <v>2724460.713716165</v>
+        <v>3654722.130838238</v>
       </c>
       <c r="J47" t="n">
-        <v>146.2037351630657</v>
+        <v>98.93160504653407</v>
       </c>
       <c r="K47" t="n">
-        <v>6227.054849664088</v>
+        <v>5334.232113449252</v>
       </c>
       <c r="L47" t="n">
-        <v>122577.0594331727</v>
+        <v>126252.8240797907</v>
       </c>
     </row>
     <row r="48">
@@ -2252,37 +2252,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>86564.89519305828</v>
+        <v>90500.92585974306</v>
       </c>
       <c r="C48" t="n">
-        <v>944.0741303587588</v>
+        <v>638.0423354123928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.007050119425310863</v>
       </c>
       <c r="E48" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9929498805746891</v>
       </c>
       <c r="F48" t="n">
-        <v>23.85120981253063</v>
+        <v>29.765754666293</v>
       </c>
       <c r="G48" t="n">
-        <v>14249.78132593104</v>
+        <v>14897.70651739958</v>
       </c>
       <c r="H48" t="n">
-        <v>212392.1854971799</v>
+        <v>251222.5562339178</v>
       </c>
       <c r="I48" t="n">
-        <v>2497096.703755448</v>
+        <v>3387903.070956977</v>
       </c>
       <c r="J48" t="n">
-        <v>149.4304657781052</v>
+        <v>100.9909712604798</v>
       </c>
       <c r="K48" t="n">
-        <v>6080.851114501022</v>
+        <v>5235.300508402719</v>
       </c>
       <c r="L48" t="n">
-        <v>116350.0045835086</v>
+        <v>120918.5919663415</v>
       </c>
     </row>
     <row r="49">
@@ -2290,37 +2290,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85620.82106269953</v>
+        <v>89862.88352433067</v>
       </c>
       <c r="C49" t="n">
-        <v>1002.764889444088</v>
+        <v>677.1002071538452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.007534815049313637</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9924651849506864</v>
       </c>
       <c r="F49" t="n">
-        <v>23.10868542211918</v>
+        <v>28.97354669034742</v>
       </c>
       <c r="G49" t="n">
-        <v>13552.28234761712</v>
+        <v>14223.72683393142</v>
       </c>
       <c r="H49" t="n">
-        <v>198142.4041712488</v>
+        <v>236324.8497165182</v>
       </c>
       <c r="I49" t="n">
-        <v>2284704.518258268</v>
+        <v>3136680.514723059</v>
       </c>
       <c r="J49" t="n">
-        <v>152.6155664429188</v>
+        <v>103.0511067361852</v>
       </c>
       <c r="K49" t="n">
-        <v>5931.420648722917</v>
+        <v>5134.309537142238</v>
       </c>
       <c r="L49" t="n">
-        <v>110269.1534690076</v>
+        <v>115683.2914579387</v>
       </c>
     </row>
     <row r="50">
@@ -2328,37 +2328,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84618.05617325543</v>
+        <v>89185.78331717683</v>
       </c>
       <c r="C50" t="n">
-        <v>1064.251135802358</v>
+        <v>718.2289301203692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.008053177349646501</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9919468226503535</v>
       </c>
       <c r="F50" t="n">
-        <v>22.37660927859926</v>
+        <v>28.18971841240176</v>
       </c>
       <c r="G50" t="n">
-        <v>12878.42515241969</v>
+        <v>13573.60931050556</v>
       </c>
       <c r="H50" t="n">
-        <v>184590.1218236317</v>
+        <v>222101.1228825868</v>
       </c>
       <c r="I50" t="n">
-        <v>2086562.114087019</v>
+        <v>2900355.665006541</v>
       </c>
       <c r="J50" t="n">
-        <v>155.7437031177247</v>
+        <v>105.1064260118406</v>
       </c>
       <c r="K50" t="n">
-        <v>5778.805082279998</v>
+        <v>5031.258430406053</v>
       </c>
       <c r="L50" t="n">
-        <v>104337.7328202847</v>
+        <v>110548.9819207965</v>
       </c>
     </row>
     <row r="51">
@@ -2366,37 +2366,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83553.80503745307</v>
+        <v>88467.55438705646</v>
       </c>
       <c r="C51" t="n">
-        <v>1128.527799040504</v>
+        <v>761.4867023762833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.00860752518425778</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9913924748157422</v>
       </c>
       <c r="F51" t="n">
-        <v>21.65525854252947</v>
+        <v>27.41451898441331</v>
       </c>
       <c r="G51" t="n">
-        <v>12227.35740497813</v>
+        <v>12946.44098793582</v>
       </c>
       <c r="H51" t="n">
-        <v>171711.6966712121</v>
+        <v>208527.5135720812</v>
       </c>
       <c r="I51" t="n">
-        <v>1901971.992263387</v>
+        <v>2678254.542123954</v>
       </c>
       <c r="J51" t="n">
-        <v>158.7980980792534</v>
+        <v>107.1507854328507</v>
       </c>
       <c r="K51" t="n">
-        <v>5623.061379162273</v>
+        <v>4926.152004394213</v>
       </c>
       <c r="L51" t="n">
-        <v>98558.92773800468</v>
+        <v>105517.7234903904</v>
       </c>
     </row>
     <row r="52">
@@ -2404,37 +2404,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82425.27723841257</v>
+        <v>87706.06768468018</v>
       </c>
       <c r="C52" t="n">
-        <v>1195.563689335605</v>
+        <v>806.9251417656774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.009200334287779555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9907996657122204</v>
       </c>
       <c r="F52" t="n">
-        <v>20.94490630788763</v>
+        <v>26.64819778051632</v>
       </c>
       <c r="G52" t="n">
-        <v>11598.27632978434</v>
+        <v>12341.35016450543</v>
       </c>
       <c r="H52" t="n">
-        <v>159484.3392662339</v>
+        <v>195581.0725841454</v>
       </c>
       <c r="I52" t="n">
-        <v>1730260.295592175</v>
+        <v>2469727.028551873</v>
       </c>
       <c r="J52" t="n">
-        <v>161.7604745421819</v>
+        <v>109.1774491115319</v>
       </c>
       <c r="K52" t="n">
-        <v>5464.263281083019</v>
+        <v>4819.001218961363</v>
       </c>
       <c r="L52" t="n">
-        <v>92935.86635884242</v>
+        <v>100591.5714859962</v>
       </c>
     </row>
     <row r="53">
@@ -2442,37 +2442,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81229.71354907697</v>
+        <v>86899.1425429145</v>
       </c>
       <c r="C53" t="n">
-        <v>1265.29715378903</v>
+        <v>854.5876728754076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.009834247472043534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.9901657525279565</v>
       </c>
       <c r="F53" t="n">
-        <v>20.24582067217148</v>
+        <v>25.89100383801614</v>
       </c>
       <c r="G53" t="n">
-        <v>10990.4283040966</v>
+        <v>11757.50540137446</v>
       </c>
       <c r="H53" t="n">
-        <v>147886.0629364496</v>
+        <v>183239.72241964</v>
       </c>
       <c r="I53" t="n">
-        <v>1570775.956325941</v>
+        <v>2274145.955967728</v>
       </c>
       <c r="J53" t="n">
-        <v>164.6110130208562</v>
+        <v>111.1790555490433</v>
       </c>
       <c r="K53" t="n">
-        <v>5302.502806540837</v>
+        <v>4709.823769849831</v>
       </c>
       <c r="L53" t="n">
-        <v>87471.60307775941</v>
+        <v>95772.57026703484</v>
       </c>
     </row>
     <row r="54">
@@ -2480,37 +2480,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>79964.41639528795</v>
+        <v>86044.55487003909</v>
       </c>
       <c r="C54" t="n">
-        <v>1337.631357848981</v>
+        <v>904.5077115157237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.01051208542925097</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.989487914570749</v>
       </c>
       <c r="F54" t="n">
-        <v>19.55826377901818</v>
+        <v>25.14318526791225</v>
       </c>
       <c r="G54" t="n">
-        <v>10403.10851014896</v>
+        <v>11194.11459961871</v>
       </c>
       <c r="H54" t="n">
-        <v>136895.634632353</v>
+        <v>171482.2170182655</v>
       </c>
       <c r="I54" t="n">
-        <v>1422889.893389492</v>
+        <v>2090906.233548088</v>
       </c>
       <c r="J54" t="n">
-        <v>167.3283229925412</v>
+        <v>113.1475855538629</v>
       </c>
       <c r="K54" t="n">
-        <v>5137.891793519982</v>
+        <v>4598.644714300786</v>
       </c>
       <c r="L54" t="n">
-        <v>82169.10027121857</v>
+        <v>91062.74649718503</v>
       </c>
     </row>
     <row r="55">
@@ -2518,37 +2518,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78626.78503743897</v>
+        <v>85140.04715852338</v>
       </c>
       <c r="C55" t="n">
-        <v>1412.42921323922</v>
+        <v>956.706634017176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.01123685816424169</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9887631418357583</v>
       </c>
       <c r="F55" t="n">
-        <v>18.88249083783577</v>
+        <v>24.40498863606915</v>
       </c>
       <c r="G55" t="n">
-        <v>9835.66062907376</v>
+        <v>10650.42414484874</v>
       </c>
       <c r="H55" t="n">
-        <v>126492.526122204</v>
+        <v>160288.1024186468</v>
       </c>
       <c r="I55" t="n">
-        <v>1285994.258757139</v>
+        <v>1919424.016529822</v>
       </c>
       <c r="J55" t="n">
-        <v>169.8894339568365</v>
+        <v>115.0743322160388</v>
       </c>
       <c r="K55" t="n">
-        <v>4970.563470527441</v>
+        <v>4485.497128746923</v>
       </c>
       <c r="L55" t="n">
-        <v>77031.20847769859</v>
+        <v>86464.10178288425</v>
       </c>
     </row>
     <row r="56">
@@ -2556,37 +2556,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77214.35582419975</v>
+        <v>84183.3405245062</v>
       </c>
       <c r="C56" t="n">
-        <v>1489.507991126637</v>
+        <v>1011.191520394986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.01201177708195866</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9879882229180413</v>
       </c>
       <c r="F56" t="n">
-        <v>18.21874912548601</v>
+        <v>23.67665831645649</v>
       </c>
       <c r="G56" t="n">
-        <v>9287.476555537163</v>
+        <v>10125.7181147539</v>
       </c>
       <c r="H56" t="n">
-        <v>116656.8654931303</v>
+        <v>149637.6782737981</v>
       </c>
       <c r="I56" t="n">
-        <v>1159501.732634935</v>
+        <v>1759135.914111175</v>
       </c>
       <c r="J56" t="n">
-        <v>172.2698105414786</v>
+        <v>116.9498738357448</v>
       </c>
       <c r="K56" t="n">
-        <v>4800.674036570604</v>
+        <v>4370.422796530886</v>
       </c>
       <c r="L56" t="n">
-        <v>72060.64500717114</v>
+        <v>81978.60465413732</v>
       </c>
     </row>
     <row r="57">
@@ -2594,37 +2594,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75724.84783307312</v>
+        <v>83172.14900411121</v>
       </c>
       <c r="C57" t="n">
-        <v>1568.633680666736</v>
+        <v>1067.952663016599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.0128402677555417</v>
       </c>
       <c r="E57" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9871597322444583</v>
       </c>
       <c r="F57" t="n">
-        <v>17.56727697559616</v>
+        <v>22.9584358181961</v>
       </c>
       <c r="G57" t="n">
-        <v>8757.996108244255</v>
+        <v>9619.317544196852</v>
       </c>
       <c r="H57" t="n">
-        <v>107369.3889375931</v>
+        <v>139511.9601590442</v>
       </c>
       <c r="I57" t="n">
-        <v>1042844.867141804</v>
+        <v>1609498.235837377</v>
       </c>
       <c r="J57" t="n">
-        <v>174.4433968666528</v>
+        <v>118.7640508587187</v>
       </c>
       <c r="K57" t="n">
-        <v>4628.404226029125</v>
+        <v>4253.47292269514</v>
       </c>
       <c r="L57" t="n">
-        <v>67259.97097060054</v>
+        <v>77608.18185760644</v>
       </c>
     </row>
     <row r="58">
@@ -2632,37 +2632,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74156.21415240638</v>
+        <v>82104.19634109462</v>
       </c>
       <c r="C58" t="n">
-        <v>1649.515179050763</v>
+        <v>1126.960836001979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.01372598339943698</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.986274016600563</v>
       </c>
       <c r="F58" t="n">
-        <v>16.92830276159658</v>
+        <v>22.25055908848046</v>
       </c>
       <c r="G58" t="n">
-        <v>8246.70670721436</v>
+        <v>9130.579741638256</v>
       </c>
       <c r="H58" t="n">
-        <v>98611.39282934886</v>
+        <v>129892.6426148473</v>
       </c>
       <c r="I58" t="n">
-        <v>935475.4782042113</v>
+        <v>1469986.275678333</v>
       </c>
       <c r="J58" t="n">
-        <v>176.3826959258431</v>
+        <v>120.5059480393868</v>
       </c>
       <c r="K58" t="n">
-        <v>4453.960829162473</v>
+        <v>4134.708871836422</v>
       </c>
       <c r="L58" t="n">
-        <v>62631.56674457141</v>
+        <v>73354.70893491129</v>
       </c>
     </row>
     <row r="59">
@@ -2670,37 +2670,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72506.69897335561</v>
+        <v>80977.23550509264</v>
       </c>
       <c r="C59" t="n">
-        <v>1731.798430134753</v>
+        <v>1188.164325387348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.01467281907039941</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9853271809296006</v>
       </c>
       <c r="F59" t="n">
-        <v>16.30204388007246</v>
+        <v>21.55326179376512</v>
       </c>
       <c r="G59" t="n">
-        <v>7753.142984087963</v>
+        <v>8658.897649689703</v>
       </c>
       <c r="H59" t="n">
-        <v>90364.6861221345</v>
+        <v>120762.062873209</v>
       </c>
       <c r="I59" t="n">
-        <v>836864.0853748624</v>
+        <v>1340093.633063486</v>
       </c>
       <c r="J59" t="n">
-        <v>178.0588902416696</v>
+        <v>122.1638832336574</v>
       </c>
       <c r="K59" t="n">
-        <v>4277.57813323663</v>
+        <v>4014.202923797036</v>
       </c>
       <c r="L59" t="n">
-        <v>58177.60591540895</v>
+        <v>69220.00006307487</v>
       </c>
     </row>
     <row r="60">
@@ -2708,37 +2708,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70774.90054322087</v>
+        <v>79789.07117970529</v>
       </c>
       <c r="C60" t="n">
-        <v>1815.060664914417</v>
+        <v>1251.485726310962</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.01568492661723431</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9843150733827657</v>
       </c>
       <c r="F60" t="n">
-        <v>15.68870574147229</v>
+        <v>20.86677258197887</v>
       </c>
       <c r="G60" t="n">
-        <v>7276.886286765987</v>
+        <v>8203.699241467979</v>
       </c>
       <c r="H60" t="n">
-        <v>82611.54313804652</v>
+        <v>112103.1652235193</v>
       </c>
       <c r="I60" t="n">
-        <v>746499.3992527281</v>
+        <v>1219331.570190276</v>
       </c>
       <c r="J60" t="n">
-        <v>179.4420104713943</v>
+        <v>123.7254044156596</v>
       </c>
       <c r="K60" t="n">
-        <v>4099.51924299496</v>
+        <v>3892.039040563379</v>
       </c>
       <c r="L60" t="n">
-        <v>53900.02778217231</v>
+        <v>65205.79713927782</v>
       </c>
     </row>
     <row r="61">
@@ -2746,37 +2746,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68959.83987830645</v>
+        <v>78537.58545339433</v>
       </c>
       <c r="C61" t="n">
-        <v>1898.804938560688</v>
+        <v>1316.81852136393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.01676673039745225</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9832332696025478</v>
       </c>
       <c r="F61" t="n">
-        <v>15.08848077562196</v>
+        <v>20.19131432884086</v>
       </c>
       <c r="G61" t="n">
-        <v>6817.5640344959</v>
+        <v>7764.446943149705</v>
       </c>
       <c r="H61" t="n">
-        <v>75334.65685128054</v>
+        <v>103899.4659820514</v>
       </c>
       <c r="I61" t="n">
-        <v>663887.8561146815</v>
+        <v>1107228.404966757</v>
       </c>
       <c r="J61" t="n">
-        <v>180.5011589200519</v>
+        <v>125.1772967126089</v>
       </c>
       <c r="K61" t="n">
-        <v>3920.077232523566</v>
+        <v>3768.313636147719</v>
       </c>
       <c r="L61" t="n">
-        <v>49800.50853917735</v>
+        <v>61313.75809871444</v>
       </c>
     </row>
     <row r="62">
@@ -2784,37 +2784,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67061.03493974576</v>
+        <v>77220.7669320304</v>
       </c>
       <c r="C62" t="n">
-        <v>1982.45520517446</v>
+        <v>1384.023464032941</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.01792294377561876</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9820770562243812</v>
       </c>
       <c r="F62" t="n">
-        <v>14.50154745984086</v>
+        <v>19.52710337171634</v>
       </c>
       <c r="G62" t="n">
-        <v>6374.848874249083</v>
+        <v>7340.637071700568</v>
       </c>
       <c r="H62" t="n">
-        <v>68517.09281678464</v>
+        <v>96135.01903890166</v>
       </c>
       <c r="I62" t="n">
-        <v>588553.1992634009</v>
+        <v>1003328.938984706</v>
       </c>
       <c r="J62" t="n">
-        <v>181.2047950094832</v>
+        <v>126.5056014551077</v>
       </c>
       <c r="K62" t="n">
-        <v>3739.576073603514</v>
+        <v>3643.136339435111</v>
       </c>
       <c r="L62" t="n">
-        <v>45880.43130665379</v>
+        <v>57545.44446256671</v>
       </c>
     </row>
     <row r="63">
@@ -2822,37 +2822,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65078.5797345713</v>
+        <v>75836.74346799745</v>
       </c>
       <c r="C63" t="n">
-        <v>2065.3522221443</v>
+        <v>1452.924803082551</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.01915858641392842</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9808414135860716</v>
       </c>
       <c r="F63" t="n">
-        <v>13.92806937773566</v>
+        <v>18.87434873477902</v>
       </c>
       <c r="G63" t="n">
-        <v>5948.457584076173</v>
+        <v>6931.799275180052</v>
       </c>
       <c r="H63" t="n">
-        <v>62142.24394253557</v>
+        <v>88794.3819672011</v>
       </c>
       <c r="I63" t="n">
-        <v>520036.1064466163</v>
+        <v>907193.9199458043</v>
       </c>
       <c r="J63" t="n">
-        <v>181.5210895769714</v>
+        <v>127.6956494399456</v>
       </c>
       <c r="K63" t="n">
-        <v>3558.371278594031</v>
+        <v>3516.630737980003</v>
       </c>
       <c r="L63" t="n">
-        <v>42140.85523305027</v>
+        <v>53902.3081231316</v>
       </c>
     </row>
     <row r="64">
@@ -2860,37 +2860,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>63013.227512427</v>
+        <v>74383.8186649149</v>
       </c>
       <c r="C64" t="n">
-        <v>2146.750629705523</v>
+        <v>1523.306398007207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.02047900236030387</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9795209976396961</v>
       </c>
       <c r="F64" t="n">
-        <v>13.36819431694695</v>
+        <v>18.23325134957367</v>
       </c>
       <c r="G64" t="n">
-        <v>5538.149664342425</v>
+        <v>6537.495961310105</v>
       </c>
       <c r="H64" t="n">
-        <v>56193.78635845939</v>
+        <v>81862.58269202105</v>
       </c>
       <c r="I64" t="n">
-        <v>457893.8625040808</v>
+        <v>818399.5379786033</v>
       </c>
       <c r="J64" t="n">
-        <v>181.4183543536685</v>
+        <v>128.7321107905256</v>
       </c>
       <c r="K64" t="n">
-        <v>3376.850189017059</v>
+        <v>3388.935088540057</v>
       </c>
       <c r="L64" t="n">
-        <v>38582.48395445625</v>
+        <v>50385.6773851516</v>
       </c>
     </row>
     <row r="65">
@@ -2898,37 +2898,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>60866.47688272148</v>
+        <v>72860.5122669077</v>
       </c>
       <c r="C65" t="n">
-        <v>2225.817605968951</v>
+        <v>1594.907792515265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.02188987893294914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.9781101210670509</v>
       </c>
       <c r="F65" t="n">
-        <v>12.82205341423472</v>
+        <v>17.60400327538114</v>
       </c>
       <c r="G65" t="n">
-        <v>5143.725553667894</v>
+        <v>6157.321698161498</v>
       </c>
       <c r="H65" t="n">
-        <v>50655.63669411696</v>
+        <v>75325.08673071094</v>
       </c>
       <c r="I65" t="n">
-        <v>401700.0761456214</v>
+        <v>736536.9552865821</v>
       </c>
       <c r="J65" t="n">
-        <v>180.865552005532</v>
+        <v>129.5990639653615</v>
       </c>
       <c r="K65" t="n">
-        <v>3195.431834663391</v>
+        <v>3260.202977749531</v>
       </c>
       <c r="L65" t="n">
-        <v>35205.63376543918</v>
+        <v>46996.74229661154</v>
       </c>
     </row>
     <row r="66">
@@ -2936,37 +2936,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58640.65927675253</v>
+        <v>71265.60447439243</v>
       </c>
       <c r="C66" t="n">
-        <v>2301.633550360719</v>
+        <v>1667.420332517737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.02339726639260997</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.97660273360739</v>
       </c>
       <c r="F66" t="n">
-        <v>12.28976035630122</v>
+        <v>16.98678692407543</v>
       </c>
       <c r="G66" t="n">
-        <v>4765.024403444365</v>
+        <v>5790.902568882231</v>
       </c>
       <c r="H66" t="n">
-        <v>45511.91114044907</v>
+        <v>69167.76503254943</v>
       </c>
       <c r="I66" t="n">
-        <v>351044.4394515044</v>
+        <v>661211.8685558712</v>
       </c>
       <c r="J66" t="n">
-        <v>179.8328906040973</v>
+        <v>130.2800865940259</v>
       </c>
       <c r="K66" t="n">
-        <v>3014.566282657859</v>
+        <v>3130.603913784169</v>
       </c>
       <c r="L66" t="n">
-        <v>32010.20193077579</v>
+        <v>43736.53931886201</v>
       </c>
     </row>
     <row r="67">
@@ -2974,37 +2974,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56339.02572639181</v>
+        <v>69598.18414187469</v>
       </c>
       <c r="C67" t="n">
-        <v>2373.195295045887</v>
+        <v>1740.48343731896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.02500759838462185</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9749924016153781</v>
       </c>
       <c r="F67" t="n">
-        <v>11.77141064465656</v>
+        <v>16.38177429442193</v>
       </c>
       <c r="G67" t="n">
-        <v>4401.921343477023</v>
+        <v>5437.895460408119</v>
       </c>
       <c r="H67" t="n">
-        <v>40746.88673700471</v>
+        <v>63376.8624636672</v>
       </c>
       <c r="I67" t="n">
-        <v>305532.5283110553</v>
+        <v>592044.1035233218</v>
       </c>
       <c r="J67" t="n">
-        <v>178.2925042224816</v>
+        <v>130.7583708956198</v>
       </c>
       <c r="K67" t="n">
-        <v>2834.733392053762</v>
+        <v>3000.323827190144</v>
       </c>
       <c r="L67" t="n">
-        <v>28995.63564811793</v>
+        <v>40605.93540507785</v>
       </c>
     </row>
     <row r="68">
@@ -3012,37 +3012,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53965.83043134592</v>
+        <v>67857.70070455573</v>
       </c>
       <c r="C68" t="n">
-        <v>2439.42237920786</v>
+        <v>1813.68115754562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.02672771312193689</v>
       </c>
       <c r="E68" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9732722868780631</v>
       </c>
       <c r="F68" t="n">
-        <v>11.26708093262626</v>
+        <v>15.78912622099292</v>
       </c>
       <c r="G68" t="n">
-        <v>4054.324172197732</v>
+        <v>5097.987264112186</v>
       </c>
       <c r="H68" t="n">
-        <v>36344.96539352768</v>
+        <v>57938.96700325909</v>
       </c>
       <c r="I68" t="n">
-        <v>264785.6415740506</v>
+        <v>528667.2410596545</v>
       </c>
       <c r="J68" t="n">
-        <v>176.2192184168744</v>
+        <v>131.0168664369985</v>
       </c>
       <c r="K68" t="n">
-        <v>2656.44088783128</v>
+        <v>2869.565456294524</v>
       </c>
       <c r="L68" t="n">
-        <v>26160.90225606418</v>
+        <v>37605.61157788771</v>
       </c>
     </row>
     <row r="69">
@@ -3050,37 +3050,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51526.40805213806</v>
+        <v>66044.0195470101</v>
       </c>
       <c r="C69" t="n">
-        <v>2499.166938374758</v>
+        <v>1886.539180523756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.02856487526748608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9714351247325139</v>
       </c>
       <c r="F69" t="n">
-        <v>10.77682844227633</v>
+        <v>15.20899164306364</v>
       </c>
       <c r="G69" t="n">
-        <v>3722.169408696329</v>
+        <v>4770.893964440103</v>
       </c>
       <c r="H69" t="n">
-        <v>32290.64122132995</v>
+        <v>52840.9797391469</v>
       </c>
       <c r="I69" t="n">
-        <v>228440.6761805229</v>
+        <v>470728.2740563955</v>
       </c>
       <c r="J69" t="n">
-        <v>173.59139556001</v>
+        <v>131.038452892917</v>
       </c>
       <c r="K69" t="n">
-        <v>2480.221669414405</v>
+        <v>2738.548589857525</v>
       </c>
       <c r="L69" t="n">
-        <v>23504.46136823289</v>
+        <v>34736.04612159319</v>
       </c>
     </row>
     <row r="70">
@@ -3088,37 +3088,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49027.2411137633</v>
+        <v>64157.48036648634</v>
       </c>
       <c r="C70" t="n">
-        <v>2551.227752302508</v>
+        <v>1958.522472796522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.03052679845917994</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9694732015408201</v>
       </c>
       <c r="F70" t="n">
-        <v>10.30069046858717</v>
+        <v>14.64150689899521</v>
       </c>
       <c r="G70" t="n">
-        <v>3405.417651263384</v>
+        <v>4456.359589837951</v>
       </c>
       <c r="H70" t="n">
-        <v>28568.47181263362</v>
+        <v>48070.08577470679</v>
       </c>
       <c r="I70" t="n">
-        <v>196150.034959193</v>
+        <v>417887.2943172486</v>
       </c>
       <c r="J70" t="n">
-        <v>170.3918502699239</v>
+        <v>130.8061452505931</v>
       </c>
       <c r="K70" t="n">
-        <v>2306.630273854395</v>
+        <v>2607.510136964609</v>
       </c>
       <c r="L70" t="n">
-        <v>21024.23969881849</v>
+        <v>31997.49753173566</v>
       </c>
     </row>
     <row r="71">
@@ -3126,37 +3126,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>46476.0133614608</v>
+        <v>62198.95789368982</v>
       </c>
       <c r="C71" t="n">
-        <v>2594.368950962243</v>
+        <v>2029.033779438385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.03262166840329384</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9673783315967062</v>
       </c>
       <c r="F71" t="n">
-        <v>9.838683977641454</v>
+        <v>14.08679505170394</v>
       </c>
       <c r="G71" t="n">
-        <v>3104.04819902179</v>
+        <v>4154.154998824359</v>
       </c>
       <c r="H71" t="n">
-        <v>25163.05416137024</v>
+        <v>43613.72618486884</v>
       </c>
       <c r="I71" t="n">
-        <v>167581.5631465593</v>
+        <v>369817.2085425417</v>
       </c>
       <c r="J71" t="n">
-        <v>166.6088194951262</v>
+        <v>130.3033335264747</v>
       </c>
       <c r="K71" t="n">
-        <v>2136.238423584472</v>
+        <v>2476.703991714016</v>
       </c>
       <c r="L71" t="n">
-        <v>18717.60942496409</v>
+        <v>29389.98739477105</v>
       </c>
     </row>
     <row r="72">
@@ -3164,37 +3164,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43881.64441049856</v>
+        <v>60169.92411425144</v>
       </c>
       <c r="C72" t="n">
-        <v>2627.343788714626</v>
+        <v>2097.413229552878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.03485816644159767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9651418335584023</v>
       </c>
       <c r="F72" t="n">
-        <v>9.39080530490523</v>
+        <v>13.54496525085306</v>
       </c>
       <c r="G72" t="n">
-        <v>2818.052910333519</v>
+        <v>3864.076473035409</v>
       </c>
       <c r="H72" t="n">
-        <v>22059.00596234844</v>
+        <v>39459.57118604448</v>
       </c>
       <c r="I72" t="n">
-        <v>142418.5089851891</v>
+        <v>326203.4823576729</v>
       </c>
       <c r="J72" t="n">
-        <v>162.2369652088376</v>
+        <v>129.5140585001249</v>
       </c>
       <c r="K72" t="n">
-        <v>1969.629604089346</v>
+        <v>2346.400658187541</v>
       </c>
       <c r="L72" t="n">
-        <v>16581.37100137962</v>
+        <v>26913.28340305704</v>
       </c>
     </row>
     <row r="73">
@@ -3202,37 +3202,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41254.30062178393</v>
+        <v>58072.51088469856</v>
       </c>
       <c r="C73" t="n">
-        <v>2648.923751209511</v>
+        <v>2162.939325176322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.03724549347402561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9627545065259744</v>
       </c>
       <c r="F73" t="n">
-        <v>8.957029958879351</v>
+        <v>13.01611213738119</v>
       </c>
       <c r="G73" t="n">
-        <v>2547.429294727237</v>
+        <v>3585.944088649306</v>
       </c>
       <c r="H73" t="n">
-        <v>19240.95305201493</v>
+        <v>35595.49471300907</v>
       </c>
       <c r="I73" t="n">
-        <v>120359.5030228407</v>
+        <v>286743.9111716285</v>
       </c>
       <c r="J73" t="n">
-        <v>157.2783802496154</v>
+        <v>128.4233241846235</v>
       </c>
       <c r="K73" t="n">
-        <v>1807.392638880508</v>
+        <v>2216.886599687416</v>
       </c>
       <c r="L73" t="n">
-        <v>14611.74139729028</v>
+        <v>24566.88274486949</v>
       </c>
     </row>
     <row r="74">
@@ -3240,37 +3240,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38605.37687057442</v>
+        <v>55909.57155952224</v>
       </c>
       <c r="C74" t="n">
-        <v>2657.933047918729</v>
+        <v>2224.831614558189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.03979339409155724</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9602066059084428</v>
       </c>
       <c r="F74" t="n">
-        <v>8.537312534487128</v>
+        <v>12.50031529589471</v>
       </c>
       <c r="G74" t="n">
-        <v>2292.17286468042</v>
+        <v>3319.59983797817</v>
       </c>
       <c r="H74" t="n">
-        <v>16693.52375728769</v>
+        <v>32009.55062435977</v>
       </c>
       <c r="I74" t="n">
-        <v>101118.5499708257</v>
+        <v>251148.4164586194</v>
       </c>
       <c r="J74" t="n">
-        <v>151.7435598564047</v>
+        <v>127.0174467105143</v>
       </c>
       <c r="K74" t="n">
-        <v>1650.114258630892</v>
+        <v>2088.463275502792</v>
       </c>
       <c r="L74" t="n">
-        <v>12804.34875840977</v>
+        <v>22349.99614518208</v>
       </c>
     </row>
     <row r="75">
@@ -3278,37 +3278,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35947.44382265569</v>
+        <v>53684.73994496404</v>
       </c>
       <c r="C75" t="n">
-        <v>2653.288257396984</v>
+        <v>2282.255367674975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.04251218074288288</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.9574878192571171</v>
       </c>
       <c r="F75" t="n">
-        <v>8.131586739553166</v>
+        <v>11.99763876029714</v>
       </c>
       <c r="G75" t="n">
-        <v>2052.268810028615</v>
+        <v>3064.905474422341</v>
       </c>
       <c r="H75" t="n">
-        <v>14401.35089260727</v>
+        <v>28689.9507863816</v>
       </c>
       <c r="I75" t="n">
-        <v>84425.02621353805</v>
+        <v>219138.8658342596</v>
       </c>
       <c r="J75" t="n">
-        <v>145.6522932568434</v>
+        <v>125.2844379697055</v>
       </c>
       <c r="K75" t="n">
-        <v>1498.370698774488</v>
+        <v>1961.445828792278</v>
       </c>
       <c r="L75" t="n">
-        <v>11154.23449977888</v>
+        <v>20261.53286967929</v>
       </c>
     </row>
     <row r="76">
@@ -3316,37 +3316,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33294.1555652587</v>
+        <v>51402.48457728907</v>
       </c>
       <c r="C76" t="n">
-        <v>2634.042527960034</v>
+        <v>2334.328578464405</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.04541275772291697</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.954587242277083</v>
       </c>
       <c r="F76" t="n">
-        <v>7.739765536629853</v>
+        <v>11.50813057780491</v>
       </c>
       <c r="G76" t="n">
-        <v>1827.68310100144</v>
+        <v>2821.740056667161</v>
       </c>
       <c r="H76" t="n">
-        <v>12349.08208257865</v>
+        <v>25625.04531195926</v>
       </c>
       <c r="I76" t="n">
-        <v>70023.67532093078</v>
+        <v>190448.915047878</v>
       </c>
       <c r="J76" t="n">
-        <v>139.0344218174225</v>
+        <v>123.2144207216113</v>
       </c>
       <c r="K76" t="n">
-        <v>1352.718405517644</v>
+        <v>1836.161390822572</v>
       </c>
       <c r="L76" t="n">
-        <v>9655.863801004389</v>
+        <v>18300.08704088701</v>
       </c>
     </row>
     <row r="77">
@@ -3354,37 +3354,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30660.11303729867</v>
+        <v>49068.15599882467</v>
       </c>
       <c r="C77" t="n">
-        <v>2599.433294974037</v>
+        <v>2380.131610631949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.04850664473083033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9514933552691697</v>
       </c>
       <c r="F77" t="n">
-        <v>7.361741401257083</v>
+        <v>11.03182243620395</v>
       </c>
       <c r="G77" t="n">
-        <v>1618.353175299346</v>
+        <v>2589.997172227582</v>
       </c>
       <c r="H77" t="n">
-        <v>10521.39898157721</v>
+        <v>22803.3052552921</v>
       </c>
       <c r="I77" t="n">
-        <v>57674.59323835212</v>
+        <v>164823.8697359188</v>
       </c>
       <c r="J77" t="n">
-        <v>131.930403473625</v>
+        <v>120.8000698914408</v>
       </c>
       <c r="K77" t="n">
-        <v>1213.683983700222</v>
+        <v>1712.946970100961</v>
       </c>
       <c r="L77" t="n">
-        <v>8303.145395486743</v>
+        <v>16463.92565006444</v>
       </c>
     </row>
     <row r="78">
@@ -3392,37 +3392,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28060.67974232463</v>
+        <v>46688.02438819272</v>
       </c>
       <c r="C78" t="n">
-        <v>2548.931967348487</v>
+        <v>2418.719777425104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.05180599969950306</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9481940003004969</v>
       </c>
       <c r="F78" t="n">
-        <v>6.997386696514347</v>
+        <v>10.56872935883465</v>
       </c>
       <c r="G78" t="n">
-        <v>1424.178418929592</v>
+        <v>2369.581826481234</v>
       </c>
       <c r="H78" t="n">
-        <v>8903.045806277867</v>
+        <v>20213.30808306452</v>
       </c>
       <c r="I78" t="n">
-        <v>47153.19425677492</v>
+        <v>142020.5644806267</v>
       </c>
       <c r="J78" t="n">
-        <v>124.3916183315883</v>
+        <v>118.0370724909949</v>
       </c>
       <c r="K78" t="n">
-        <v>1081.753580226597</v>
+        <v>1592.14690020952</v>
       </c>
       <c r="L78" t="n">
-        <v>7089.461411786522</v>
+        <v>14750.97867996348</v>
       </c>
     </row>
     <row r="79">
@@ -3430,37 +3430,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25511.74777497615</v>
+        <v>44269.30461076761</v>
       </c>
       <c r="C79" t="n">
-        <v>2482.293481309826</v>
+        <v>2449.13909553661</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.05532364054665784</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9446763594533422</v>
       </c>
       <c r="F79" t="n">
-        <v>6.646554162461735</v>
+        <v>10.11884947135683</v>
       </c>
       <c r="G79" t="n">
-        <v>1245.01070756225</v>
+        <v>2160.406991433268</v>
       </c>
       <c r="H79" t="n">
-        <v>7478.867387348276</v>
+        <v>17843.72625658329</v>
       </c>
       <c r="I79" t="n">
-        <v>38250.14845049704</v>
+        <v>121807.2563975622</v>
       </c>
       <c r="J79" t="n">
-        <v>116.4803485377825</v>
+        <v>114.9245959889814</v>
       </c>
       <c r="K79" t="n">
-        <v>957.3619618950086</v>
+        <v>1474.109827718525</v>
       </c>
       <c r="L79" t="n">
-        <v>6007.707831559925</v>
+        <v>13158.83177975396</v>
       </c>
     </row>
     <row r="80">
@@ -3468,37 +3468,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23029.45429366632</v>
+        <v>41820.165515231</v>
       </c>
       <c r="C80" t="n">
-        <v>2399.60305403108</v>
+        <v>2470.445374187933</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.05907306543988189</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9409269345601181</v>
       </c>
       <c r="F80" t="n">
-        <v>6.309077517789036</v>
+        <v>9.68216384384065</v>
       </c>
       <c r="G80" t="n">
-        <v>1080.645331810535</v>
+        <v>1962.389818850699</v>
       </c>
       <c r="H80" t="n">
-        <v>6233.856679786025</v>
+        <v>15683.31926515001</v>
       </c>
       <c r="I80" t="n">
-        <v>30771.28106314877</v>
+        <v>103963.5301409789</v>
       </c>
       <c r="J80" t="n">
-        <v>108.2693679292898</v>
+        <v>111.4657521033897</v>
       </c>
       <c r="K80" t="n">
-        <v>840.8816133572259</v>
+        <v>1359.185231729543</v>
       </c>
       <c r="L80" t="n">
-        <v>5050.345869664916</v>
+        <v>11684.72195203543</v>
       </c>
     </row>
     <row r="81">
@@ -3506,37 +3506,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20629.85123963524</v>
+        <v>39349.72014104307</v>
       </c>
       <c r="C81" t="n">
-        <v>2301.316943676923</v>
+        <v>2481.726687618262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111552764823408</v>
+        <v>0.06306847110279035</v>
       </c>
       <c r="E81" t="n">
-        <v>0.888447235176592</v>
+        <v>0.9369315288972097</v>
       </c>
       <c r="F81" t="n">
-        <v>5.984772169721794</v>
+        <v>9.258636411161191</v>
       </c>
       <c r="G81" t="n">
-        <v>930.8126818885323</v>
+        <v>1775.447535253052</v>
       </c>
       <c r="H81" t="n">
-        <v>5153.21134797549</v>
+        <v>13720.92944629931</v>
       </c>
       <c r="I81" t="n">
-        <v>24537.42438336274</v>
+        <v>88280.21087582884</v>
       </c>
       <c r="J81" t="n">
-        <v>99.84108480515111</v>
+        <v>107.6680399727187</v>
       </c>
       <c r="K81" t="n">
-        <v>732.6122454279362</v>
+        <v>1247.719479626154</v>
       </c>
       <c r="L81" t="n">
-        <v>4209.46425630769</v>
+        <v>10325.53672030589</v>
       </c>
     </row>
     <row r="82">
@@ -3544,37 +3544,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18328.53429595831</v>
+        <v>36867.99345342481</v>
       </c>
       <c r="C82" t="n">
-        <v>2188.293602293479</v>
+        <v>2482.129128633119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.06732476861722303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.932675231382777</v>
       </c>
       <c r="F82" t="n">
-        <v>5.673436026993337</v>
+        <v>8.848213974046013</v>
       </c>
       <c r="G82" t="n">
-        <v>795.1711093184375</v>
+        <v>1599.493051616754</v>
       </c>
       <c r="H82" t="n">
-        <v>4222.398666086958</v>
+        <v>11945.48191104626</v>
       </c>
       <c r="I82" t="n">
-        <v>19384.21303538726</v>
+        <v>74559.28142952954</v>
       </c>
       <c r="J82" t="n">
-        <v>91.28619548332085</v>
+        <v>103.543749620148</v>
       </c>
       <c r="K82" t="n">
-        <v>632.771160622785</v>
+        <v>1140.051439653435</v>
       </c>
       <c r="L82" t="n">
-        <v>3476.852010879754</v>
+        <v>9077.817240679735</v>
       </c>
     </row>
     <row r="83">
@@ -3582,37 +3582,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16140.24069366483</v>
+        <v>34385.86432479169</v>
       </c>
       <c r="C83" t="n">
-        <v>2061.811374165065</v>
+        <v>2470.885550067378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.07185759609613496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.928142403903865</v>
       </c>
       <c r="F83" t="n">
-        <v>5.374850409505471</v>
+        <v>8.450826282444552</v>
       </c>
       <c r="G83" t="n">
-        <v>673.3014096305612</v>
+        <v>1434.430338472885</v>
       </c>
       <c r="H83" t="n">
-        <v>3427.22755676852</v>
+        <v>10345.98885942951</v>
       </c>
       <c r="I83" t="n">
-        <v>15161.8143693003</v>
+        <v>62613.79951848328</v>
       </c>
       <c r="J83" t="n">
-        <v>82.70182791079094</v>
+        <v>99.11030374041027</v>
       </c>
       <c r="K83" t="n">
-        <v>541.4849651394642</v>
+        <v>1036.507690033287</v>
       </c>
       <c r="L83" t="n">
-        <v>2844.080850256969</v>
+        <v>7937.765801026301</v>
       </c>
     </row>
     <row r="84">
@@ -3620,37 +3620,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14078.42931949977</v>
+        <v>31914.97877472431</v>
       </c>
       <c r="C84" t="n">
-        <v>1923.568934174754</v>
+        <v>2447.346769964409</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.07668332751336915</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9233166724866309</v>
       </c>
       <c r="F84" t="n">
-        <v>5.088781047190323</v>
+        <v>8.066386202163097</v>
       </c>
       <c r="G84" t="n">
-        <v>564.7033736570564</v>
+        <v>1280.149637098902</v>
       </c>
       <c r="H84" t="n">
-        <v>2753.926147137959</v>
+        <v>8911.558520956625</v>
       </c>
       <c r="I84" t="n">
-        <v>11734.58681253178</v>
+        <v>52267.81065905377</v>
       </c>
       <c r="J84" t="n">
-        <v>74.1891837299752</v>
+        <v>94.39051335363051</v>
       </c>
       <c r="K84" t="n">
-        <v>458.7831372286732</v>
+        <v>937.3973862928767</v>
       </c>
       <c r="L84" t="n">
-        <v>2302.595885117505</v>
+        <v>6901.258110993013</v>
       </c>
     </row>
     <row r="85">
@@ -3658,37 +3658,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12154.86038532502</v>
+        <v>29467.6320047599</v>
       </c>
       <c r="C85" t="n">
-        <v>1775.665067657601</v>
+        <v>2411.014448453616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.08181907687947798</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.918180923120522</v>
       </c>
       <c r="F85" t="n">
-        <v>4.814979159573591</v>
+        <v>7.694789964948515</v>
       </c>
       <c r="G85" t="n">
-        <v>468.7948294018098</v>
+        <v>1136.522599241467</v>
       </c>
       <c r="H85" t="n">
-        <v>2189.222773480902</v>
+        <v>7631.408883857723</v>
       </c>
       <c r="I85" t="n">
-        <v>8980.660665393822</v>
+        <v>43356.25213809714</v>
       </c>
       <c r="J85" t="n">
-        <v>65.85072334459772</v>
+        <v>89.41272107942473</v>
       </c>
       <c r="K85" t="n">
-        <v>384.5939534986981</v>
+        <v>843.0068729392463</v>
       </c>
       <c r="L85" t="n">
-        <v>1843.812747888831</v>
+        <v>5963.860724700137</v>
       </c>
     </row>
     <row r="86">
@@ -3696,37 +3696,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10379.19531766742</v>
+        <v>27056.61755630629</v>
       </c>
       <c r="C86" t="n">
-        <v>1620.555241030652</v>
+        <v>2361.574547873419</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.08728269684704137</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.9127173031529586</v>
       </c>
       <c r="F86" t="n">
-        <v>4.553182606644601</v>
+        <v>7.335917501418305</v>
       </c>
       <c r="G86" t="n">
-        <v>384.9135356956039</v>
+        <v>1003.397470498909</v>
       </c>
       <c r="H86" t="n">
-        <v>1720.427944079092</v>
+        <v>6494.886284616255</v>
       </c>
       <c r="I86" t="n">
-        <v>6791.437891912921</v>
+        <v>35724.84325423942</v>
       </c>
       <c r="J86" t="n">
-        <v>57.78698011927372</v>
+        <v>84.21080503331191</v>
       </c>
       <c r="K86" t="n">
-        <v>318.7432301541003</v>
+        <v>753.5941518598214</v>
       </c>
       <c r="L86" t="n">
-        <v>1459.218794390134</v>
+        <v>5120.853851760892</v>
       </c>
     </row>
     <row r="87">
@@ -3734,37 +3734,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8758.640076636764</v>
+        <v>24695.04300843287</v>
       </c>
       <c r="C87" t="n">
-        <v>1460.983745923804</v>
+        <v>2298.929976570143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.09309277071455613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.9069072292854439</v>
       </c>
       <c r="F87" t="n">
-        <v>4.303117100878824</v>
+        <v>6.989632855434868</v>
       </c>
       <c r="G87" t="n">
-        <v>312.322188818807</v>
+        <v>880.5944550617927</v>
       </c>
       <c r="H87" t="n">
-        <v>1335.514408383488</v>
+        <v>5491.488814117346</v>
       </c>
       <c r="I87" t="n">
-        <v>5071.009947833829</v>
+        <v>29229.95696962317</v>
       </c>
       <c r="J87" t="n">
-        <v>50.09313412056417</v>
+        <v>78.82401701690091</v>
       </c>
       <c r="K87" t="n">
-        <v>260.9562500348266</v>
+        <v>669.3833468265096</v>
       </c>
       <c r="L87" t="n">
-        <v>1140.475564236033</v>
+        <v>4367.259699901071</v>
       </c>
     </row>
     <row r="88">
@@ -3772,37 +3772,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7297.65633071296</v>
+        <v>22396.11303186272</v>
       </c>
       <c r="C88" t="n">
-        <v>1299.892012264842</v>
+        <v>2223.230711652836</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.09926859667522969</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.9007314033247703</v>
       </c>
       <c r="F88" t="n">
-        <v>4.064497469647982</v>
+        <v>6.655784677720651</v>
       </c>
       <c r="G88" t="n">
-        <v>250.2166628205964</v>
+        <v>767.901420542515</v>
       </c>
       <c r="H88" t="n">
-        <v>1023.192219564682</v>
+        <v>4610.894359055554</v>
       </c>
       <c r="I88" t="n">
-        <v>3735.49553945034</v>
+        <v>23738.46815550582</v>
       </c>
       <c r="J88" t="n">
-        <v>42.85551871253487</v>
+        <v>73.29663115593351</v>
       </c>
       <c r="K88" t="n">
-        <v>210.8631159142624</v>
+        <v>590.5593298096087</v>
       </c>
       <c r="L88" t="n">
-        <v>879.5193142012067</v>
+        <v>3697.87635307456</v>
       </c>
     </row>
     <row r="89">
@@ -3810,37 +3810,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5997.764318448118</v>
+        <v>20172.88232020989</v>
       </c>
       <c r="C89" t="n">
-        <v>1140.305900309057</v>
+        <v>2134.899424662352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.1058301630265069</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.8941698369734931</v>
       </c>
       <c r="F89" t="n">
-        <v>3.837028956802605</v>
+        <v>6.3342067957201</v>
       </c>
       <c r="G89" t="n">
-        <v>197.7374263072693</v>
+        <v>665.0701193657154</v>
       </c>
       <c r="H89" t="n">
-        <v>772.9755567440852</v>
+        <v>3842.99293851304</v>
       </c>
       <c r="I89" t="n">
-        <v>2712.303319885658</v>
+        <v>19127.57379645027</v>
       </c>
       <c r="J89" t="n">
-        <v>36.1482696459086</v>
+        <v>67.67738380435779</v>
       </c>
       <c r="K89" t="n">
-        <v>168.0075972017275</v>
+        <v>517.2626986536753</v>
       </c>
       <c r="L89" t="n">
-        <v>668.6561982869443</v>
+        <v>3107.317023264951</v>
       </c>
     </row>
     <row r="90">
@@ -3848,37 +3848,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4857.45841813906</v>
+        <v>18037.98289554754</v>
       </c>
       <c r="C90" t="n">
-        <v>985.2072339483085</v>
+        <v>2034.650431481878</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.1127981129189399</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.8872018870810601</v>
       </c>
       <c r="F90" t="n">
-        <v>3.620408551928819</v>
+        <v>6.024718855947106</v>
       </c>
       <c r="G90" t="n">
-        <v>153.9838710341581</v>
+        <v>571.8131155857533</v>
       </c>
       <c r="H90" t="n">
-        <v>575.2381304368159</v>
+        <v>3177.922819147324</v>
       </c>
       <c r="I90" t="n">
-        <v>1939.327763141573</v>
+        <v>15284.58085793723</v>
       </c>
       <c r="J90" t="n">
-        <v>30.03035003776252</v>
+        <v>62.01869267343523</v>
       </c>
       <c r="K90" t="n">
-        <v>131.8593275558189</v>
+        <v>449.5853148493175</v>
       </c>
       <c r="L90" t="n">
-        <v>500.6486010852168</v>
+        <v>2590.054324611276</v>
       </c>
     </row>
     <row r="91">
@@ -3886,37 +3886,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3872.251184190752</v>
+        <v>16003.33246406566</v>
       </c>
       <c r="C91" t="n">
-        <v>837.3972721569245</v>
+        <v>1923.49969446613</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1201936970806057</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8798063029193943</v>
       </c>
       <c r="F91" t="n">
-        <v>3.414326335668077</v>
+        <v>5.727127034325541</v>
       </c>
       <c r="G91" t="n">
-        <v>118.0310644181587</v>
+        <v>487.8016107744044</v>
       </c>
       <c r="H91" t="n">
-        <v>421.2542594026579</v>
+        <v>2606.109703561571</v>
       </c>
       <c r="I91" t="n">
-        <v>1364.089632704757</v>
+        <v>12106.6580387899</v>
       </c>
       <c r="J91" t="n">
-        <v>24.54318974437771</v>
+        <v>56.37565292389449</v>
       </c>
       <c r="K91" t="n">
-        <v>101.8289775180564</v>
+        <v>387.5666221758823</v>
       </c>
       <c r="L91" t="n">
-        <v>368.7892735293979</v>
+        <v>2140.469009761958</v>
       </c>
     </row>
     <row r="92">
@@ -3924,37 +3924,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3034.853912033827</v>
+        <v>14079.83276959953</v>
       </c>
       <c r="C92" t="n">
-        <v>699.3618962305118</v>
+        <v>1802.763664369774</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.128038712807883</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.871961287192117</v>
       </c>
       <c r="F92" t="n">
-        <v>3.218466829543793</v>
+        <v>5.441224809348106</v>
       </c>
       <c r="G92" t="n">
-        <v>88.94821835000562</v>
+        <v>412.6643574361096</v>
       </c>
       <c r="H92" t="n">
-        <v>303.2231949844992</v>
+        <v>2118.308092787167</v>
       </c>
       <c r="I92" t="n">
-        <v>942.8353733020995</v>
+        <v>9500.54833522833</v>
       </c>
       <c r="J92" t="n">
-        <v>19.70915888143421</v>
+        <v>50.80482033443427</v>
       </c>
       <c r="K92" t="n">
-        <v>77.28578777367871</v>
+        <v>331.1909692519877</v>
       </c>
       <c r="L92" t="n">
-        <v>266.9602960113415</v>
+        <v>1752.902387586076</v>
       </c>
     </row>
     <row r="93">
@@ -3962,37 +3962,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2335.492015803316</v>
+        <v>12277.06910522975</v>
       </c>
       <c r="C93" t="n">
-        <v>573.149634367979</v>
+        <v>1674.045004669849</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1363554273679818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8636445726320182</v>
       </c>
       <c r="F93" t="n">
-        <v>3.032510338956331</v>
+        <v>5.166793792256307</v>
       </c>
       <c r="G93" t="n">
-        <v>65.81797414741735</v>
+        <v>345.9878310464404</v>
       </c>
       <c r="H93" t="n">
-        <v>214.2749766344936</v>
+        <v>1705.643735351057</v>
       </c>
       <c r="I93" t="n">
-        <v>639.6121783176001</v>
+        <v>7382.240242441165</v>
       </c>
       <c r="J93" t="n">
-        <v>15.53104951192527</v>
+        <v>45.36280631390236</v>
       </c>
       <c r="K93" t="n">
-        <v>57.5766288922445</v>
+        <v>280.3861489175535</v>
       </c>
       <c r="L93" t="n">
-        <v>189.6745082376628</v>
+        <v>1421.711418334088</v>
       </c>
     </row>
     <row r="94">
@@ -4000,37 +4000,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1762.342381435336</v>
+        <v>10603.02410055991</v>
       </c>
       <c r="C94" t="n">
-        <v>460.2738783163605</v>
+        <v>1539.203726505986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.145166483817075</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.854833516182925</v>
       </c>
       <c r="F94" t="n">
-        <v>2.856134278377099</v>
+        <v>4.903604607893176</v>
       </c>
       <c r="G94" t="n">
-        <v>47.75546409136063</v>
+        <v>287.3178004615211</v>
       </c>
       <c r="H94" t="n">
-        <v>148.4570024870763</v>
+        <v>1359.655904304616</v>
       </c>
       <c r="I94" t="n">
-        <v>425.3372016831066</v>
+        <v>5676.596507090108</v>
       </c>
       <c r="J94" t="n">
-        <v>11.99266696440796</v>
+        <v>40.10472579909133</v>
       </c>
       <c r="K94" t="n">
-        <v>42.04557938031922</v>
+        <v>235.0233426036511</v>
       </c>
       <c r="L94" t="n">
-        <v>132.0978793454183</v>
+        <v>1141.325269416534</v>
       </c>
     </row>
     <row r="95">
@@ -4038,37 +4038,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1302.068503118976</v>
+        <v>9063.820374053919</v>
       </c>
       <c r="C95" t="n">
-        <v>361.6494815299076</v>
+        <v>1400.312999049603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1544947871052407</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8455052128947593</v>
       </c>
       <c r="F95" t="n">
-        <v>2.689014468278793</v>
+        <v>4.651417819409474</v>
       </c>
       <c r="G95" t="n">
-        <v>33.92604850805418</v>
+        <v>236.1623900292943</v>
       </c>
       <c r="H95" t="n">
-        <v>100.7015383957157</v>
+        <v>1072.338103843095</v>
       </c>
       <c r="I95" t="n">
-        <v>276.8801991960303</v>
+        <v>4316.940602785493</v>
       </c>
       <c r="J95" t="n">
-        <v>9.06053730298715</v>
+        <v>35.08255593253907</v>
       </c>
       <c r="K95" t="n">
-        <v>30.05291241591125</v>
+        <v>194.9186168045598</v>
       </c>
       <c r="L95" t="n">
-        <v>90.05229996509908</v>
+        <v>906.3019268128836</v>
       </c>
     </row>
     <row r="96">
@@ -4076,37 +4076,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>940.4190215890683</v>
+        <v>7663.507375004317</v>
       </c>
       <c r="C96" t="n">
-        <v>277.5712488175009</v>
+        <v>1259.599884549784</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1643633682219917</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8356366317780083</v>
       </c>
       <c r="F96" t="n">
-        <v>2.530826393963575</v>
+        <v>4.409984889621496</v>
       </c>
       <c r="G96" t="n">
-        <v>23.56066318552648</v>
+        <v>191.9966652494747</v>
       </c>
       <c r="H96" t="n">
-        <v>66.77548988766148</v>
+        <v>836.1757138138008</v>
       </c>
       <c r="I96" t="n">
-        <v>176.1786608003146</v>
+        <v>3244.602498942397</v>
       </c>
       <c r="J96" t="n">
-        <v>6.686629283619119</v>
+        <v>30.34347941134027</v>
       </c>
       <c r="K96" t="n">
-        <v>20.9923751129241</v>
+        <v>159.8360608720207</v>
       </c>
       <c r="L96" t="n">
-        <v>59.99938754918782</v>
+        <v>711.3833100083239</v>
       </c>
     </row>
     <row r="97">
@@ -4114,37 +4114,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>662.8477727715674</v>
+        <v>6403.907490454533</v>
       </c>
       <c r="C97" t="n">
-        <v>207.7377659439198</v>
+        <v>1119.372444536985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.1747952240418037</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.8252047759581963</v>
       </c>
       <c r="F97" t="n">
-        <v>2.381246417171943</v>
+        <v>4.179049171530583</v>
       </c>
       <c r="G97" t="n">
-        <v>15.96785454861787</v>
+        <v>154.2686987131546</v>
       </c>
       <c r="H97" t="n">
-        <v>43.21482670213501</v>
+        <v>644.1790485643262</v>
       </c>
       <c r="I97" t="n">
-        <v>109.4031709126532</v>
+        <v>2408.426785128595</v>
       </c>
       <c r="J97" t="n">
-        <v>4.811881062387916</v>
+        <v>25.92829976365709</v>
       </c>
       <c r="K97" t="n">
-        <v>14.30574582930499</v>
+        <v>129.4925814606805</v>
       </c>
       <c r="L97" t="n">
-        <v>39.00701243626371</v>
+        <v>551.5472491363031</v>
       </c>
     </row>
     <row r="98">
@@ -4152,37 +4152,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>455.1100068276476</v>
+        <v>5284.535045917548</v>
       </c>
       <c r="C98" t="n">
-        <v>151.3189958809839</v>
+        <v>981.9359999460876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.1858131304672983</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.8141868695327017</v>
       </c>
       <c r="F98" t="n">
-        <v>2.239952932147128</v>
+        <v>3.958346920324851</v>
       </c>
       <c r="G98" t="n">
-        <v>10.54182523436004</v>
+        <v>122.40698746053</v>
       </c>
       <c r="H98" t="n">
-        <v>27.24697215351713</v>
+        <v>489.9103498511716</v>
       </c>
       <c r="I98" t="n">
-        <v>66.18834421051815</v>
+        <v>1764.247736564269</v>
       </c>
       <c r="J98" t="n">
-        <v>3.370229989379167</v>
+        <v>21.87002454914655</v>
       </c>
       <c r="K98" t="n">
-        <v>9.493864766917069</v>
+        <v>103.5642816970234</v>
       </c>
       <c r="L98" t="n">
-        <v>24.70126660695873</v>
+        <v>422.0546676756227</v>
       </c>
     </row>
     <row r="99">
@@ -4190,37 +4190,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>303.7910109466637</v>
+        <v>4302.59904597146</v>
       </c>
       <c r="C99" t="n">
-        <v>107.0607804587832</v>
+        <v>849.5026878814019</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.1974394264501115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.8025605735498885</v>
       </c>
       <c r="F99" t="n">
-        <v>2.106627458665303</v>
+        <v>3.747608319094793</v>
       </c>
       <c r="G99" t="n">
-        <v>6.766140428274715</v>
+        <v>95.82900185520921</v>
       </c>
       <c r="H99" t="n">
-        <v>16.70514691915709</v>
+        <v>367.5033623906417</v>
       </c>
       <c r="I99" t="n">
-        <v>38.94137205700102</v>
+        <v>1274.337386713098</v>
       </c>
       <c r="J99" t="n">
-        <v>2.29278405992476</v>
+        <v>18.19271458036459</v>
       </c>
       <c r="K99" t="n">
-        <v>6.123634777537902</v>
+        <v>81.69425714787681</v>
       </c>
       <c r="L99" t="n">
-        <v>15.20740184004166</v>
+        <v>318.4903859785993</v>
       </c>
     </row>
     <row r="100">
@@ -4228,37 +4228,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>196.7302304878805</v>
+        <v>3453.096358090058</v>
       </c>
       <c r="C100" t="n">
-        <v>73.41470632952579</v>
+        <v>724.0996876412266</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2096957665096069</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7903042334903931</v>
       </c>
       <c r="F100" t="n">
-        <v>1.980955665391087</v>
+        <v>3.546558510505894</v>
       </c>
       <c r="G100" t="n">
-        <v>4.213120198031696</v>
+        <v>73.95055643425965</v>
       </c>
       <c r="H100" t="n">
-        <v>9.939006490882376</v>
+        <v>271.6743605354324</v>
       </c>
       <c r="I100" t="n">
-        <v>22.23622513784393</v>
+        <v>906.8340243224561</v>
       </c>
       <c r="J100" t="n">
-        <v>1.511758695487327</v>
+        <v>14.91069097624425</v>
       </c>
       <c r="K100" t="n">
-        <v>3.830850717613143</v>
+        <v>63.50154256751222</v>
       </c>
       <c r="L100" t="n">
-        <v>9.08376706250376</v>
+        <v>236.7961288307225</v>
       </c>
     </row>
     <row r="101">
@@ -4266,37 +4266,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>123.3155241583547</v>
+        <v>2728.996670448832</v>
       </c>
       <c r="C101" t="n">
-        <v>48.67861231106543</v>
+        <v>607.4824077827107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2226028394834206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7773971605165794</v>
       </c>
       <c r="F101" t="n">
-        <v>1.862628317750065</v>
+        <v>3.354918626780868</v>
       </c>
       <c r="G101" t="n">
-        <v>2.539318418004689</v>
+        <v>56.19561328746695</v>
       </c>
       <c r="H101" t="n">
-        <v>5.725886292850679</v>
+        <v>197.7238041011728</v>
       </c>
       <c r="I101" t="n">
-        <v>12.29721864696155</v>
+        <v>635.1596637870236</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9638384764490608</v>
+        <v>12.02817604259845</v>
       </c>
       <c r="K101" t="n">
-        <v>2.319092022125816</v>
+        <v>48.59085159126798</v>
       </c>
       <c r="L101" t="n">
-        <v>5.252916344890618</v>
+        <v>173.2945862632103</v>
       </c>
     </row>
     <row r="102">
@@ -4304,37 +4304,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>74.6369118472893</v>
+        <v>2121.514262666121</v>
       </c>
       <c r="C102" t="n">
-        <v>31.13202726009181</v>
+        <v>501.0593477077775</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2361800514497098</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7638199485502902</v>
       </c>
       <c r="F102" t="n">
-        <v>1.75134214529361</v>
+        <v>3.172406810546849</v>
       </c>
       <c r="G102" t="n">
-        <v>1.477813848555447</v>
+        <v>42.00606750304284</v>
       </c>
       <c r="H102" t="n">
-        <v>3.18656787484599</v>
+        <v>141.5281908137058</v>
       </c>
       <c r="I102" t="n">
-        <v>6.571332354110874</v>
+        <v>437.435859685851</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5927071044014157</v>
+        <v>9.539418446219846</v>
       </c>
       <c r="K102" t="n">
-        <v>1.355253545676755</v>
+        <v>36.56267554866953</v>
       </c>
       <c r="L102" t="n">
-        <v>2.933824322764802</v>
+        <v>124.7037346719423</v>
       </c>
     </row>
     <row r="103">
@@ -4342,37 +4342,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43.50488458719749</v>
+        <v>1620.454914958343</v>
       </c>
       <c r="C103" t="n">
-        <v>19.15233344984342</v>
+        <v>405.835108403661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440234093977565</v>
+        <v>0.2504451710796864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.559765906022435</v>
+        <v>0.7495548289203136</v>
       </c>
       <c r="F103" t="n">
-        <v>1.646800624235226</v>
+        <v>2.998739219391961</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8282677499788221</v>
+        <v>30.85103107593673</v>
       </c>
       <c r="H103" t="n">
-        <v>1.708754026290543</v>
+        <v>99.52212331066299</v>
       </c>
       <c r="I103" t="n">
-        <v>3.384764479264884</v>
+        <v>295.9076688721452</v>
       </c>
       <c r="J103" t="n">
-        <v>0.350607406233426</v>
+        <v>7.429318995959322</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7625464412753395</v>
+        <v>27.02325710244968</v>
       </c>
       <c r="L103" t="n">
-        <v>1.578570777088047</v>
+        <v>88.14105912327274</v>
       </c>
     </row>
     <row r="104">
@@ -4380,37 +4380,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.35255113735407</v>
+        <v>1214.619806554682</v>
       </c>
       <c r="C104" t="n">
-        <v>11.30122484292638</v>
+        <v>322.3770237636083</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.2654139361336809</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.7345860638663191</v>
       </c>
       <c r="F104" t="n">
-        <v>1.548714671431352</v>
+        <v>2.833631007342368</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4458038918231336</v>
+        <v>22.23513396167214</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8804862763117208</v>
+        <v>68.67109223472625</v>
       </c>
       <c r="I104" t="n">
-        <v>1.676010452974342</v>
+        <v>196.3855455614822</v>
       </c>
       <c r="J104" t="n">
-        <v>0.198926008145316</v>
+        <v>5.674533101179895</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4119390350419135</v>
+        <v>19.59393810649036</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8160243358127075</v>
+        <v>61.11780202082309</v>
       </c>
     </row>
     <row r="105">
@@ -4418,37 +4418,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.05132629442769</v>
+        <v>892.242782791074</v>
       </c>
       <c r="C105" t="n">
-        <v>6.376325033478565</v>
+        <v>250.8091075737486</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.2810996204297431</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.7189003795702569</v>
       </c>
       <c r="F105" t="n">
-        <v>1.456803246535135</v>
+        <v>2.676797276904296</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2297315801461586</v>
+        <v>15.70540340042794</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4346823844885872</v>
+        <v>46.43595827305411</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7955241766626211</v>
+        <v>127.7144533267559</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1079203040086047</v>
+        <v>4.244983590919508</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2130130268965975</v>
+        <v>13.91940500531046</v>
       </c>
       <c r="L105" t="n">
-        <v>0.4040853007707941</v>
+        <v>41.52386391433273</v>
       </c>
     </row>
     <row r="106">
@@ -4456,37 +4456,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.675001260949127</v>
+        <v>641.4336752173253</v>
       </c>
       <c r="C106" t="n">
-        <v>3.428533707867818</v>
+        <v>190.8345756932468</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.2975125614173434</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.7024874385826566</v>
       </c>
       <c r="F106" t="n">
-        <v>1.370793859344105</v>
+        <v>2.527953995803338</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1129754461319324</v>
+        <v>10.85636583256889</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2049508043424286</v>
+        <v>30.73055487262619</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3608417921740338</v>
+        <v>81.27849505370179</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05579660790172626</v>
+        <v>3.105678083203173</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1050927228879928</v>
+        <v>9.674421414390956</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1910722738741965</v>
+        <v>27.60445890902226</v>
       </c>
     </row>
     <row r="107">
@@ -4494,37 +4494,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.246467553081309</v>
+        <v>450.5990995240786</v>
       </c>
       <c r="C107" t="n">
-        <v>1.750590097204365</v>
+        <v>141.7853547246312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3146596495074768</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6853403504925232</v>
       </c>
       <c r="F107" t="n">
-        <v>1.290422979472508</v>
+        <v>2.386818873081847</v>
       </c>
       <c r="G107" t="n">
-        <v>0.05283362876359334</v>
+        <v>7.333135217343836</v>
       </c>
       <c r="H107" t="n">
-        <v>0.09197535821049618</v>
+        <v>19.87418904005729</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1558909878316053</v>
+        <v>50.54794018107561</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02739368779019684</v>
+        <v>2.218693997384948</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04929611498626656</v>
+        <v>6.568743331187783</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08597955098620366</v>
+        <v>17.9300374946313</v>
       </c>
     </row>
     <row r="108">
@@ -4532,37 +4532,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.495877455876944</v>
+        <v>308.8137447994473</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8455297749699037</v>
+        <v>102.694090496799</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.3325437815712885</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.6674562184287115</v>
       </c>
       <c r="F108" t="n">
-        <v>1.215436345394354</v>
+        <v>2.253112189769471</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02340787832864291</v>
+        <v>4.832397557753355</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03914172944690286</v>
+        <v>12.54105382271346</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06391562962110907</v>
+        <v>30.67375114101833</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01272218189885171</v>
+        <v>1.545176690299192</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02190242719606972</v>
+        <v>4.350049333802836</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0366834359999371</v>
+        <v>11.36129416344352</v>
       </c>
     </row>
     <row r="109">
@@ -4570,37 +4570,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6503476809070404</v>
+        <v>206.1196543026483</v>
       </c>
       <c r="C109" t="n">
-        <v>0.384723779978961</v>
+        <v>72.38165440235987</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.3511632825469467</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.6488367174530533</v>
       </c>
       <c r="F109" t="n">
-        <v>1.14558916962353</v>
+        <v>2.126557579906215</v>
       </c>
       <c r="G109" t="n">
-        <v>0.00978539341715109</v>
+        <v>3.101359422925187</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01573385111825993</v>
+        <v>7.708656264960101</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02477390017420622</v>
+        <v>18.13269731830487</v>
       </c>
       <c r="J109" t="n">
-        <v>0.00556606645028734</v>
+        <v>1.04719572626184</v>
       </c>
       <c r="K109" t="n">
-        <v>0.009180245297218014</v>
+        <v>2.804872643503644</v>
       </c>
       <c r="L109" t="n">
-        <v>0.01478100880386738</v>
+        <v>7.011244829640681</v>
       </c>
     </row>
     <row r="110">
@@ -4608,37 +4608,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2656239009280795</v>
+        <v>133.7379999002884</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1641799678883173</v>
+        <v>49.55144032404993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.370511300909197</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.629488699090803</v>
       </c>
       <c r="F110" t="n">
-        <v>1.080646236337918</v>
+        <v>2.006882758255593</v>
       </c>
       <c r="G110" t="n">
-        <v>0.003842965681588707</v>
+        <v>1.934880641935456</v>
       </c>
       <c r="H110" t="n">
-        <v>0.005948457701108843</v>
+        <v>4.607296842034915</v>
       </c>
       <c r="I110" t="n">
-        <v>0.009040049055946285</v>
+        <v>10.42404105334477</v>
       </c>
       <c r="J110" t="n">
-        <v>0.002283947847352051</v>
+        <v>0.6893222536033922</v>
       </c>
       <c r="K110" t="n">
-        <v>0.003614178846930674</v>
+        <v>1.757676917241805</v>
       </c>
       <c r="L110" t="n">
-        <v>0.005600763506649369</v>
+        <v>4.206372186137037</v>
       </c>
     </row>
     <row r="111">
@@ -4646,37 +4646,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1014439330397622</v>
+        <v>84.18655957623849</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0653997502177954</v>
+        <v>32.88118115431447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.3905751858708231</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.6094248141291769</v>
       </c>
       <c r="F111" t="n">
-        <v>1.020381887153683</v>
+        <v>1.893820191580956</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001411211461867859</v>
+        <v>1.171139902103776</v>
       </c>
       <c r="H111" t="n">
-        <v>0.002105492019520135</v>
+        <v>2.672416200099458</v>
       </c>
       <c r="I111" t="n">
-        <v>0.003091591354837442</v>
+        <v>5.816744211309853</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0008747999846688387</v>
+        <v>0.4398251778316538</v>
       </c>
       <c r="K111" t="n">
-        <v>0.001330230999578623</v>
+        <v>1.068354663638412</v>
       </c>
       <c r="L111" t="n">
-        <v>0.001986584659718695</v>
+        <v>2.448695268895232</v>
       </c>
     </row>
     <row r="112">
@@ -4684,37 +4684,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03604418282196675</v>
+        <v>51.30537842192403</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02419350397125737</v>
+        <v>21.10374178148575</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.4113358566022702</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.5886641433977298</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9645798900828808</v>
+        <v>1.787107710854574</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0004821341132810254</v>
+        <v>0.6862708818835158</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0006942805576522764</v>
+        <v>1.501276297995682</v>
       </c>
       <c r="I112" t="n">
-        <v>0.000986099335317307</v>
+        <v>3.144328011210395</v>
       </c>
       <c r="J112" t="n">
-        <v>0.000311170279594975</v>
+        <v>0.2714305971737994</v>
       </c>
       <c r="K112" t="n">
-        <v>0.000455431014909784</v>
+        <v>0.6285294858067586</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0006563536601400723</v>
+        <v>1.38034060525682</v>
       </c>
     </row>
     <row r="113">
@@ -4722,37 +4722,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01185067885070938</v>
+        <v>30.20163664043827</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008266227958171697</v>
+        <v>13.07027701340797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.4327671764618085</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.5672328235381915</v>
       </c>
       <c r="F113" t="n">
-        <v>0.91303318607391</v>
+        <v>1.686489062210372</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001524202139444725</v>
+        <v>0.3884452507911196</v>
       </c>
       <c r="H113" t="n">
-        <v>0.000212146444371251</v>
+        <v>0.8150054161121661</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0002918187776650308</v>
+        <v>1.643051713214713</v>
       </c>
       <c r="J113" t="n">
-        <v>0.00010222882666848</v>
+        <v>0.1616407253796845</v>
       </c>
       <c r="K113" t="n">
-        <v>0.000144260735314809</v>
+        <v>0.3570988886329594</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0002009226452302883</v>
+        <v>0.7518111194500617</v>
       </c>
     </row>
     <row r="114">
@@ -4760,37 +4760,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.003584450892537683</v>
+        <v>17.1313596270303</v>
       </c>
       <c r="C114" t="n">
-        <v>0.002593262395458929</v>
+        <v>7.791947920935902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.4548353481904358</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.5451646518095642</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8655435071065745</v>
+        <v>1.591714394822016</v>
       </c>
       <c r="G114" t="n">
-        <v>4.432907135505129e-05</v>
+        <v>0.2118643234579305</v>
       </c>
       <c r="H114" t="n">
-        <v>5.972623042677853e-05</v>
+        <v>0.4265601653210466</v>
       </c>
       <c r="I114" t="n">
-        <v>7.967233329377972e-05</v>
+        <v>0.8280462971025466</v>
       </c>
       <c r="J114" t="n">
-        <v>3.083749710182357e-05</v>
+        <v>0.09265709935492203</v>
       </c>
       <c r="K114" t="n">
-        <v>4.203190864632904e-05</v>
+        <v>0.1954581632532748</v>
       </c>
       <c r="L114" t="n">
-        <v>5.666190991547931e-05</v>
+        <v>0.3947122308171024</v>
       </c>
     </row>
     <row r="115">
@@ -4798,37 +4798,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0009911884970787532</v>
+        <v>9.339411706094401</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0007422894978600364</v>
+        <v>4.459553672007787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.4774983491837843</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.5225016508162157</v>
       </c>
       <c r="F115" t="n">
-        <v>0.821920859827543</v>
+        <v>1.502540684173653</v>
       </c>
       <c r="G115" t="n">
-        <v>1.178660997034112e-05</v>
+        <v>0.1110585962777034</v>
       </c>
       <c r="H115" t="n">
-        <v>1.539715907172724e-05</v>
+        <v>0.2146958418631161</v>
       </c>
       <c r="I115" t="n">
-        <v>1.994610286700119e-05</v>
+        <v>0.4014861317815001</v>
       </c>
       <c r="J115" t="n">
-        <v>8.487360242218568e-06</v>
+        <v>0.05099066960122282</v>
       </c>
       <c r="K115" t="n">
-        <v>1.119441154450546e-05</v>
+        <v>0.1028010638983528</v>
       </c>
       <c r="L115" t="n">
-        <v>1.463000126915027e-05</v>
+        <v>0.1992540675638276</v>
       </c>
     </row>
     <row r="116">
@@ -4836,37 +4836,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0002488989992187168</v>
+        <v>4.879858034086614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.000192550374358279</v>
+        <v>2.44337141147017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.5007054292159356</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.4992945707840644</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7819828694866351</v>
+        <v>1.418732089377237</v>
       </c>
       <c r="G116" t="n">
-        <v>2.845918575417125e-06</v>
+        <v>0.0557964422042612</v>
       </c>
       <c r="H116" t="n">
-        <v>3.610549101386115e-06</v>
+        <v>0.1036372455854127</v>
       </c>
       <c r="I116" t="n">
-        <v>4.548943795273955e-06</v>
+        <v>0.1867902899183839</v>
       </c>
       <c r="J116" t="n">
-        <v>2.116948768568473e-06</v>
+        <v>0.02686305917558341</v>
       </c>
       <c r="K116" t="n">
-        <v>2.707051302286889e-06</v>
+        <v>0.05181039429712994</v>
       </c>
       <c r="L116" t="n">
-        <v>3.435589724644809e-06</v>
+        <v>0.09645300366547487</v>
       </c>
     </row>
     <row r="117">
@@ -4874,37 +4874,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.634862486043781e-05</v>
+        <v>2.436486622616444</v>
       </c>
       <c r="C117" t="n">
-        <v>4.493663798422546e-05</v>
+        <v>1.277685535301723</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.5243966962271553</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.4756033037728447</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7455539808802392</v>
+        <v>1.340060243263834</v>
       </c>
       <c r="G117" t="n">
-        <v>6.19511400101839e-07</v>
+        <v>0.02678736602082158</v>
       </c>
       <c r="H117" t="n">
-        <v>7.646305259689905e-07</v>
+        <v>0.04784080338115151</v>
       </c>
       <c r="I117" t="n">
-        <v>9.383946938878388e-07</v>
+        <v>0.0831530443329712</v>
       </c>
       <c r="J117" t="n">
-        <v>4.750433228854469e-07</v>
+        <v>0.01350692907879462</v>
       </c>
       <c r="K117" t="n">
-        <v>5.901025337184162e-07</v>
+        <v>0.02494733512154652</v>
       </c>
       <c r="L117" t="n">
-        <v>7.285384223579197e-07</v>
+        <v>0.04464260936834492</v>
       </c>
     </row>
     <row r="118">
@@ -4912,37 +4912,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.141198687621234e-05</v>
+        <v>1.158801087314721</v>
       </c>
       <c r="C118" t="n">
-        <v>9.361635434251816e-06</v>
+        <v>0.6356056628492537</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.5485028188247016</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.4514971811752984</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7124645166258825</v>
+        <v>1.26630447391732</v>
       </c>
       <c r="G118" t="n">
-        <v>1.206407156740136e-07</v>
+        <v>0.01225015363353383</v>
       </c>
       <c r="H118" t="n">
-        <v>1.451191258671515e-07</v>
+        <v>0.02105343736032993</v>
       </c>
       <c r="I118" t="n">
-        <v>1.737641679188482e-07</v>
+        <v>0.0353122409518197</v>
       </c>
       <c r="J118" t="n">
-        <v>9.515925354141172e-08</v>
+        <v>0.00646081134522016</v>
       </c>
       <c r="K118" t="n">
-        <v>1.150592108329693e-07</v>
+        <v>0.01144040604275191</v>
       </c>
       <c r="L118" t="n">
-        <v>1.384358886395034e-07</v>
+        <v>0.01969527424679839</v>
       </c>
     </row>
     <row r="119">
@@ -4950,37 +4950,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.050351441960529e-06</v>
+        <v>0.5231954244654673</v>
       </c>
       <c r="C119" t="n">
-        <v>1.7264718093382e-06</v>
+        <v>0.2997621379916046</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.5729448767596972</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.4270551232403028</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6825495989492163</v>
+        <v>1.197251956086509</v>
       </c>
       <c r="G119" t="n">
-        <v>2.084143460667824e-08</v>
+        <v>0.005318182533177752</v>
       </c>
       <c r="H119" t="n">
-        <v>2.447841019313784e-08</v>
+        <v>0.008803283726796094</v>
       </c>
       <c r="I119" t="n">
-        <v>2.864504205169679e-08</v>
+        <v>0.01425880359148977</v>
       </c>
       <c r="J119" t="n">
-        <v>1.687428788389609e-08</v>
+        <v>0.002929832150054905</v>
       </c>
       <c r="K119" t="n">
-        <v>1.989995729155755e-08</v>
+        <v>0.004979594697531749</v>
       </c>
       <c r="L119" t="n">
-        <v>2.337667780653411e-08</v>
+        <v>0.008254868204046488</v>
       </c>
     </row>
     <row r="120">
@@ -4988,37 +4988,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.238796326223284e-07</v>
+        <v>0.2234332864738627</v>
       </c>
       <c r="C120" t="n">
-        <v>2.7933105163661e-07</v>
+        <v>0.1335314164392539</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.5976343925589369</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.4023656074410631</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6556479498397396</v>
+        <v>1.132697790383766</v>
       </c>
       <c r="G120" t="n">
-        <v>3.165553084063756e-09</v>
+        <v>0.002183804901077549</v>
       </c>
       <c r="H120" t="n">
-        <v>3.636975586459596e-09</v>
+        <v>0.003485101193618342</v>
       </c>
       <c r="I120" t="n">
-        <v>4.166631858558938e-09</v>
+        <v>0.00545551986469368</v>
       </c>
       <c r="J120" t="n">
-        <v>2.625136194127343e-09</v>
+        <v>0.001254920111079529</v>
       </c>
       <c r="K120" t="n">
-        <v>3.025669407661464e-09</v>
+        <v>0.002049762547476843</v>
       </c>
       <c r="L120" t="n">
-        <v>3.47672051497656e-09</v>
+        <v>0.003275273506514738</v>
       </c>
     </row>
     <row r="121">
@@ -5026,37 +5026,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.454858098571844e-08</v>
+        <v>0.08990187003460882</v>
       </c>
       <c r="C121" t="n">
-        <v>3.926812852764933e-08</v>
+        <v>0.05596153874382179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.6224735783836166</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.3775264216163834</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6316005964067513</v>
+        <v>1.072445006936736</v>
       </c>
       <c r="G121" t="n">
-        <v>4.186648482416529e-10</v>
+        <v>0.0008448922938027294</v>
       </c>
       <c r="H121" t="n">
-        <v>4.714225023958401e-10</v>
+        <v>0.001301296292540793</v>
       </c>
       <c r="I121" t="n">
-        <v>5.296562720993432e-10</v>
+        <v>0.00197041867107534</v>
       </c>
       <c r="J121" t="n">
-        <v>3.548456518831846e-10</v>
+        <v>0.000505695316800122</v>
       </c>
       <c r="K121" t="n">
-        <v>4.005332135341205e-10</v>
+        <v>0.0007948424363973141</v>
       </c>
       <c r="L121" t="n">
-        <v>4.510511073150961e-10</v>
+        <v>0.001225510959037895</v>
       </c>
     </row>
     <row r="122">
@@ -5064,37 +5064,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.280452458069111e-09</v>
+        <v>0.03394033129078704</v>
       </c>
       <c r="C122" t="n">
-        <v>4.74705683132055e-09</v>
+        <v>0.02197147139053067</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.6473558316885001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.3526441683114999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6102495237574349</v>
+        <v>1.016304486678857</v>
       </c>
       <c r="G122" t="n">
-        <v>4.771670219532778e-11</v>
+        <v>0.0003067011195486562</v>
       </c>
       <c r="H122" t="n">
-        <v>5.275765415418718e-11</v>
+        <v>0.0004564039987380636</v>
       </c>
       <c r="I122" t="n">
-        <v>5.8233769703503e-11</v>
+        <v>0.000669122378534546</v>
       </c>
       <c r="J122" t="n">
-        <v>4.124681092910326e-11</v>
+        <v>0.0001909084214665524</v>
       </c>
       <c r="K122" t="n">
-        <v>4.568756165093596e-11</v>
+        <v>0.0002891471195971922</v>
       </c>
       <c r="L122" t="n">
-        <v>5.051789378097551e-11</v>
+        <v>0.000430668522640581</v>
       </c>
     </row>
     <row r="123">
@@ -5102,37 +5102,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.333956267485613e-10</v>
+        <v>0.01196885990025637</v>
       </c>
       <c r="C123" t="n">
-        <v>4.880266070796312e-10</v>
+        <v>0.008045066799387993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.672166510965315</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.327833489034685</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5914363364293672</v>
+        <v>0.9640947818617868</v>
       </c>
       <c r="G123" t="n">
-        <v>4.63463348948114e-12</v>
+        <v>0.0001039965011763863</v>
       </c>
       <c r="H123" t="n">
-        <v>5.040951958859398e-12</v>
+        <v>0.0001497028791894074</v>
       </c>
       <c r="I123" t="n">
-        <v>5.476115549315808e-12</v>
+        <v>0.0002127183797964825</v>
       </c>
       <c r="J123" t="n">
-        <v>4.077332283061413e-12</v>
+        <v>6.721438975801141e-05</v>
       </c>
       <c r="K123" t="n">
-        <v>4.440750721832701e-12</v>
+        <v>9.823869813063988e-05</v>
       </c>
       <c r="L123" t="n">
-        <v>4.83033213003956e-12</v>
+        <v>0.0001415214030433888</v>
       </c>
     </row>
     <row r="124">
@@ -5140,37 +5140,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.536901966893003e-11</v>
+        <v>0.003923793100868378</v>
       </c>
       <c r="C124" t="n">
-        <v>4.216126723831108e-11</v>
+        <v>0.00273403632405266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.929296412970199</v>
+        <v>0.696784018364166</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.303215981635834</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5750010102319858</v>
+        <v>0.9156417735977097</v>
       </c>
       <c r="G124" t="n">
-        <v>3.790460722089129e-13</v>
+        <v>3.278224598851389e-05</v>
       </c>
       <c r="H124" t="n">
-        <v>4.063184693782585e-13</v>
+        <v>4.570637801302106e-05</v>
       </c>
       <c r="I124" t="n">
-        <v>4.351635904564095e-13</v>
+        <v>6.301550060707506e-05</v>
       </c>
       <c r="J124" t="n">
-        <v>3.386982262059478e-13</v>
+        <v>2.196360104892237e-05</v>
       </c>
       <c r="K124" t="n">
-        <v>3.634184387712875e-13</v>
+        <v>3.102430837262845e-05</v>
       </c>
       <c r="L124" t="n">
-        <v>3.895814082068581e-13</v>
+        <v>4.328270491274892e-05</v>
       </c>
     </row>
     <row r="125">
@@ -5178,37 +5178,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.207752430618946e-12</v>
+        <v>0.001189756776815718</v>
       </c>
       <c r="C125" t="n">
-        <v>3.021820638167958e-12</v>
+        <v>0.000857911254935346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.7210812089101706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.2789187910898294</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5607808370510761</v>
+        <v>0.870777923232623</v>
       </c>
       <c r="G125" t="n">
-        <v>2.576915091800681e-14</v>
+        <v>9.557789324648672e-06</v>
       </c>
       <c r="H125" t="n">
-        <v>2.727239716934563e-14</v>
+        <v>1.292413202450717e-05</v>
       </c>
       <c r="I125" t="n">
-        <v>2.884512107815102e-14</v>
+        <v>1.7309122594054e-05</v>
       </c>
       <c r="J125" t="n">
-        <v>2.334181431618118e-14</v>
+        <v>6.626867577621525e-06</v>
       </c>
       <c r="K125" t="n">
-        <v>2.472021256533967e-14</v>
+        <v>9.060707323706087e-06</v>
       </c>
       <c r="L125" t="n">
-        <v>2.616296943557058e-14</v>
+        <v>1.225839654012047e-05</v>
       </c>
     </row>
     <row r="126">
@@ -5216,37 +5216,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.859317924509878e-13</v>
+        <v>0.0003318455218803721</v>
       </c>
       <c r="C126" t="n">
-        <v>1.772272451896336e-13</v>
+        <v>0.0002472007342250149</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9531841911132612</v>
+        <v>0.7449271360489503</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04681580888673875</v>
+        <v>0.2550728639510497</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5486096821609361</v>
+        <v>0.8293400626894629</v>
       </c>
       <c r="G126" t="n">
-        <v>1.436215412671516e-15</v>
+        <v>2.563314465309889e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>1.503246251338816e-15</v>
+        <v>3.366342699858495e-06</v>
       </c>
       <c r="I126" t="n">
-        <v>1.572723908805395e-15</v>
+        <v>4.384990569546831e-06</v>
       </c>
       <c r="J126" t="n">
-        <v>1.31632483306894e-15</v>
+        <v>1.836040868688598e-06</v>
       </c>
       <c r="K126" t="n">
-        <v>1.378398249158484e-15</v>
+        <v>2.433839746084562e-06</v>
       </c>
       <c r="L126" t="n">
-        <v>1.442756870230916e-15</v>
+        <v>3.197689216414385e-06</v>
       </c>
     </row>
     <row r="127">
@@ -5254,37 +5254,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.704547261354222e-15</v>
+        <v>8.464478765535722e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>8.380639453962839e-15</v>
+        <v>6.502320580192157e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.962788666927062</v>
+        <v>0.7681891301644279</v>
       </c>
       <c r="E127" t="n">
-        <v>0.037211333072938</v>
+        <v>0.2318108698355721</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5383176819295636</v>
+        <v>0.7911607200704253</v>
       </c>
       <c r="G127" t="n">
-        <v>6.465152526905607e-17</v>
+        <v>6.286845787247565e-07</v>
       </c>
       <c r="H127" t="n">
-        <v>6.703083866730038e-17</v>
+        <v>8.030282345486061e-07</v>
       </c>
       <c r="I127" t="n">
-        <v>6.947765746657895e-17</v>
+        <v>1.018647869688337e-06</v>
       </c>
       <c r="J127" t="n">
-        <v>5.985168829672668e-17</v>
+        <v>4.643737112291928e-07</v>
       </c>
       <c r="K127" t="n">
-        <v>6.20734160895445e-17</v>
+        <v>5.977988773959639e-07</v>
       </c>
       <c r="L127" t="n">
-        <v>6.435862107243194e-17</v>
+        <v>7.638494703298238e-07</v>
       </c>
     </row>
     <row r="128">
@@ -5292,37 +5292,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.239078073913823e-16</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>3.144910681566172e-16</v>
+        <v>1.551547526482338e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9709277176410056</v>
+        <v>0.790735190501814</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02907228235899439</v>
+        <v>0.209264809498186</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5297315028853449</v>
+        <v>0.7560270373729719</v>
       </c>
       <c r="G128" t="n">
-        <v>2.313239846596455e-18</v>
+        <v>1.401306913907654e-07</v>
       </c>
       <c r="H128" t="n">
-        <v>2.379313398244302e-18</v>
+        <v>1.743436558238495e-07</v>
       </c>
       <c r="I128" t="n">
-        <v>2.446818799278563e-18</v>
+        <v>2.156196351397307e-07</v>
       </c>
       <c r="J128" t="n">
-        <v>2.159604504434736e-18</v>
+        <v>1.065444893769498e-07</v>
       </c>
       <c r="K128" t="n">
-        <v>2.221727792817827e-18</v>
+        <v>1.334251661667712e-07</v>
       </c>
       <c r="L128" t="n">
-        <v>2.285204982887432e-18</v>
+        <v>1.660505929338599e-07</v>
       </c>
     </row>
     <row r="129">
@@ -5330,37 +5330,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.416739234765037e-18</v>
+        <v>4.106106588612276e-06</v>
       </c>
       <c r="C129" t="n">
-        <v>9.206775705571375e-18</v>
+        <v>3.33595148895662e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9777031598774116</v>
+        <v>0.8124366518415339</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02229684012258837</v>
+        <v>0.1875633481584661</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5226752244013781</v>
+        <v>0.7234595868599265</v>
       </c>
       <c r="G129" t="n">
-        <v>6.466457883108558e-20</v>
+        <v>2.819656003724771e-08</v>
       </c>
       <c r="H129" t="n">
-        <v>6.607355164784701e-20</v>
+        <v>3.421296443308413e-08</v>
       </c>
       <c r="I129" t="n">
-        <v>6.750540103426043e-20</v>
+        <v>4.127597931588113e-08</v>
       </c>
       <c r="J129" t="n">
-        <v>6.079111832239842e-20</v>
+        <v>2.202684502895224e-08</v>
       </c>
       <c r="K129" t="n">
-        <v>6.212328838309147e-20</v>
+        <v>2.68806767898214e-08</v>
       </c>
       <c r="L129" t="n">
-        <v>6.347719006960623e-20</v>
+        <v>3.26254267670887e-08</v>
       </c>
     </row>
     <row r="130">
@@ -5368,37 +5368,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.099635291936612e-19</v>
+        <v>7.701550996556558e-07</v>
       </c>
       <c r="C130" t="n">
-        <v>2.064438045410808e-19</v>
+        <v>6.416709452728503e-07</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9832364950898975</v>
+        <v>0.8331710658797791</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01676350491010248</v>
+        <v>0.1668289341202209</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5169703095465288</v>
+        <v>0.6913819467070551</v>
       </c>
       <c r="G130" t="n">
-        <v>1.38636132287618e-21</v>
+        <v>5.085231929939792e-09</v>
       </c>
       <c r="H130" t="n">
-        <v>1.408972816761417e-21</v>
+        <v>6.016404395836418e-09</v>
       </c>
       <c r="I130" t="n">
-        <v>1.431849386413419e-21</v>
+        <v>7.063014882797007e-09</v>
       </c>
       <c r="J130" t="n">
-        <v>1.310693315416316e-21</v>
+        <v>4.073911641647906e-09</v>
       </c>
       <c r="K130" t="n">
-        <v>1.332170060693048e-21</v>
+        <v>4.85383176086916e-09</v>
       </c>
       <c r="L130" t="n">
-        <v>1.353901686514747e-21</v>
+        <v>5.744749977267303e-09</v>
       </c>
     </row>
     <row r="131">
@@ -5406,37 +5406,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.519724652580384e-21</v>
+        <v>1.284841543828056e-07</v>
       </c>
       <c r="C131" t="n">
-        <v>3.476303221262699e-21</v>
+        <v>1.095745265271457e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9876634010885337</v>
+        <v>0.8528252145449737</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01233659891146632</v>
+        <v>0.1471747854550263</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5123365989114663</v>
+        <v>0.6471747854550263</v>
       </c>
       <c r="G131" t="n">
-        <v>2.234641811847213e-23</v>
+        <v>8.157344448326628e-10</v>
       </c>
       <c r="H131" t="n">
-        <v>2.261149388523704e-23</v>
+        <v>9.311724658966264e-10</v>
       </c>
       <c r="I131" t="n">
-        <v>2.287656965200196e-23</v>
+        <v>1.04661048696059e-09</v>
       </c>
       <c r="J131" t="n">
-        <v>2.122186473176597e-23</v>
+        <v>6.689220220443659e-10</v>
       </c>
       <c r="K131" t="n">
-        <v>2.147674527673224e-23</v>
+        <v>7.79920119221254e-10</v>
       </c>
       <c r="L131" t="n">
-        <v>2.17316258216985e-23</v>
+        <v>8.90918216398142e-10</v>
       </c>
     </row>
     <row r="132">
@@ -5444,10 +5444,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.342143131768435e-23</v>
+        <v>1.890962785565988e-08</v>
       </c>
       <c r="C132" t="n">
-        <v>4.342143131768435e-23</v>
+        <v>1.890962785565988e-08</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -5459,22 +5459,22 @@
         <v>0.5</v>
       </c>
       <c r="G132" t="n">
-        <v>2.650757667649178e-25</v>
+        <v>1.154380210639635e-10</v>
       </c>
       <c r="H132" t="n">
-        <v>2.650757667649178e-25</v>
+        <v>1.154380210639635e-10</v>
       </c>
       <c r="I132" t="n">
-        <v>2.650757667649178e-25</v>
+        <v>1.154380210639635e-10</v>
       </c>
       <c r="J132" t="n">
-        <v>2.548805449662671e-25</v>
+        <v>1.10998097176888e-10</v>
       </c>
       <c r="K132" t="n">
-        <v>2.548805449662671e-25</v>
+        <v>1.10998097176888e-10</v>
       </c>
       <c r="L132" t="n">
-        <v>2.548805449662671e-25</v>
+        <v>1.10998097176888e-10</v>
       </c>
     </row>
   </sheetData>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
@@ -507,34 +507,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>41.02974113839863</v>
+        <v>46.28596597436862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004102974113839863</v>
+        <v>0.0004628596597436863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999589702588616</v>
+        <v>0.9995371403402563</v>
       </c>
       <c r="F2" t="n">
-        <v>71.66319036298292</v>
+        <v>65.88495753533554</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2388630.327319735</v>
+        <v>2347241.692771086</v>
       </c>
       <c r="I2" t="n">
-        <v>50650337.90630667</v>
+        <v>48086747.08781919</v>
       </c>
       <c r="J2" t="n">
-        <v>39.45167417153714</v>
+        <v>44.50573651381598</v>
       </c>
       <c r="K2" t="n">
-        <v>8129.60279539457</v>
+        <v>9721.473354958018</v>
       </c>
       <c r="L2" t="n">
-        <v>440540.4078463971</v>
+        <v>497751.4201626523</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99958.97025886161</v>
+        <v>99953.71403402563</v>
       </c>
       <c r="C3" t="n">
-        <v>43.18377188662431</v>
+        <v>48.98423668463084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004320149734915457</v>
+        <v>0.0004900692001095219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995679850265085</v>
+        <v>0.9995099307998905</v>
       </c>
       <c r="F3" t="n">
-        <v>70.69240042058567</v>
+        <v>64.9152356090316</v>
       </c>
       <c r="G3" t="n">
-        <v>96114.39447967461</v>
+        <v>96109.34041733232</v>
       </c>
       <c r="H3" t="n">
-        <v>2288630.327319735</v>
+        <v>2247241.692771087</v>
       </c>
       <c r="I3" t="n">
-        <v>48261707.57898694</v>
+        <v>45739505.3950481</v>
       </c>
       <c r="J3" t="n">
-        <v>39.9258245993198</v>
+        <v>45.2886803667075</v>
       </c>
       <c r="K3" t="n">
-        <v>8090.151121223033</v>
+        <v>9676.967618444203</v>
       </c>
       <c r="L3" t="n">
-        <v>432410.8050510027</v>
+        <v>488029.9468076944</v>
       </c>
     </row>
     <row r="4">
@@ -580,37 +580,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99915.78648697498</v>
+        <v>99904.729797341</v>
       </c>
       <c r="C4" t="n">
-        <v>45.48688584943878</v>
+        <v>51.88238739780459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004552522424008387</v>
+        <v>0.0005193186298891872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995447477575992</v>
+        <v>0.9994806813701108</v>
       </c>
       <c r="F4" t="n">
-        <v>69.72273769474938</v>
+        <v>63.94681901007346</v>
       </c>
       <c r="G4" t="n">
-        <v>92377.76117508778</v>
+        <v>92367.53864399128</v>
       </c>
       <c r="H4" t="n">
-        <v>2192515.93284006</v>
+        <v>2151132.352353754</v>
       </c>
       <c r="I4" t="n">
-        <v>45973077.25166719</v>
+        <v>43492263.70227701</v>
       </c>
       <c r="J4" t="n">
-        <v>40.43767588743063</v>
+        <v>46.12325347580202</v>
       </c>
       <c r="K4" t="n">
-        <v>8050.225296623714</v>
+        <v>9631.678938077495</v>
       </c>
       <c r="L4" t="n">
-        <v>424320.6539297796</v>
+        <v>478352.9791892501</v>
       </c>
     </row>
     <row r="5">
@@ -618,37 +618,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99870.29960112553</v>
+        <v>99852.84740994319</v>
       </c>
       <c r="C5" t="n">
-        <v>47.94928101381507</v>
+        <v>54.99503534525562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004801155218850939</v>
+        <v>0.000550760812252804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995198844781149</v>
+        <v>0.9994492391877472</v>
       </c>
       <c r="F5" t="n">
-        <v>68.75426585457552</v>
+        <v>62.97978524517265</v>
       </c>
       <c r="G5" t="n">
-        <v>88784.33268477389</v>
+        <v>88768.81775036197</v>
       </c>
       <c r="H5" t="n">
-        <v>2100138.171664973</v>
+        <v>2058764.813709763</v>
       </c>
       <c r="I5" t="n">
-        <v>43780561.31882714</v>
+        <v>41341131.34992326</v>
       </c>
       <c r="J5" t="n">
-        <v>40.98724636747117</v>
+        <v>47.00998669895239</v>
       </c>
       <c r="K5" t="n">
-        <v>8009.787620736282</v>
+        <v>9585.555684601692</v>
       </c>
       <c r="L5" t="n">
-        <v>416270.4286331558</v>
+        <v>468721.3002511726</v>
       </c>
     </row>
     <row r="6">
@@ -656,37 +656,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99822.35032011171</v>
+        <v>99797.85237459793</v>
       </c>
       <c r="C6" t="n">
-        <v>50.58183621406519</v>
+        <v>58.3378380841192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005067185460155832</v>
+        <v>0.0005845600551116492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994932814539844</v>
+        <v>0.9994154399448884</v>
       </c>
       <c r="F6" t="n">
-        <v>67.78705152795786</v>
+        <v>62.01421562534781</v>
       </c>
       <c r="G6" t="n">
-        <v>85328.56341206895</v>
+        <v>85307.62246557216</v>
       </c>
       <c r="H6" t="n">
-        <v>2011353.838980199</v>
+        <v>1969995.995959401</v>
       </c>
       <c r="I6" t="n">
-        <v>41680423.14716216</v>
+        <v>39282366.53621349</v>
       </c>
       <c r="J6" t="n">
-        <v>41.57458229400199</v>
+        <v>47.9494504710756</v>
       </c>
       <c r="K6" t="n">
-        <v>7968.80037436881</v>
+        <v>9538.54569790274</v>
       </c>
       <c r="L6" t="n">
-        <v>408260.6410124195</v>
+        <v>459135.744566571</v>
       </c>
     </row>
     <row r="7">
@@ -694,37 +694,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99771.76848389764</v>
+        <v>99739.51453651382</v>
       </c>
       <c r="C7" t="n">
-        <v>53.39615414241699</v>
+        <v>61.92756304422883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005351829976937283</v>
+        <v>0.0006208929663634732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994648170023063</v>
+        <v>0.9993791070336365</v>
       </c>
       <c r="F7" t="n">
-        <v>66.82116441050402</v>
+        <v>61.05019541096938</v>
       </c>
       <c r="G7" t="n">
-        <v>82005.12100623384</v>
+        <v>81978.61061257907</v>
       </c>
       <c r="H7" t="n">
-        <v>1926025.27556813</v>
+        <v>1884688.373493829</v>
       </c>
       <c r="I7" t="n">
-        <v>39669069.30818196</v>
+        <v>37312370.5402541</v>
       </c>
       <c r="J7" t="n">
-        <v>42.19975623687802</v>
+        <v>48.94225261692339</v>
       </c>
       <c r="K7" t="n">
-        <v>7927.225792074809</v>
+        <v>9490.596247431664</v>
       </c>
       <c r="L7" t="n">
-        <v>400291.8406380507</v>
+        <v>449597.1988686682</v>
       </c>
     </row>
     <row r="8">
@@ -732,37 +732,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99718.37232975522</v>
+        <v>99677.58697346959</v>
       </c>
       <c r="C8" t="n">
-        <v>56.40460671354154</v>
+        <v>65.78216100506052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005656390632512442</v>
+        <v>0.0006599493727970085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994343609367488</v>
+        <v>0.999340050627203</v>
       </c>
       <c r="F8" t="n">
-        <v>65.85667737601911</v>
+        <v>60.08781395850355</v>
       </c>
       <c r="G8" t="n">
-        <v>78808.87813437256</v>
+        <v>78776.64487486295</v>
       </c>
       <c r="H8" t="n">
-        <v>1844020.154561896</v>
+        <v>1802709.76288125</v>
       </c>
       <c r="I8" t="n">
-        <v>37743044.03261384</v>
+        <v>35427682.16676027</v>
       </c>
       <c r="J8" t="n">
-        <v>42.86286538827689</v>
+        <v>49.98903593867161</v>
       </c>
       <c r="K8" t="n">
-        <v>7885.026035837931</v>
+        <v>9441.65399481474</v>
       </c>
       <c r="L8" t="n">
-        <v>392364.6148459759</v>
+        <v>440106.6026212365</v>
       </c>
     </row>
     <row r="9">
@@ -770,37 +770,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99661.96772304169</v>
+        <v>99611.80481246453</v>
       </c>
       <c r="C9" t="n">
-        <v>59.62038285531604</v>
+        <v>69.92084360380376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0005982260256088834</v>
+        <v>0.0007019333073569056</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994017739743911</v>
+        <v>0.9992980666926431</v>
       </c>
       <c r="F9" t="n">
-        <v>64.89366658833069</v>
+        <v>59.12716486856021</v>
       </c>
       <c r="G9" t="n">
-        <v>75734.90457150842</v>
+        <v>75696.78488219877</v>
       </c>
       <c r="H9" t="n">
-        <v>1765211.276427523</v>
+        <v>1723933.118006387</v>
       </c>
       <c r="I9" t="n">
-        <v>35899023.87805194</v>
+        <v>33624972.40387902</v>
       </c>
       <c r="J9" t="n">
-        <v>43.56402977084763</v>
+        <v>51.090475546775</v>
       </c>
       <c r="K9" t="n">
-        <v>7842.163170449653</v>
+        <v>9391.66495887607</v>
       </c>
       <c r="L9" t="n">
-        <v>384479.588810138</v>
+        <v>430664.9486264217</v>
       </c>
     </row>
     <row r="10">
@@ -808,37 +808,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99602.34734018637</v>
+        <v>99541.88396886073</v>
       </c>
       <c r="C10" t="n">
-        <v>63.05753879039505</v>
+        <v>74.36416495394062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006330928986545414</v>
+        <v>0.0007470640698060693</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993669071013455</v>
+        <v>0.9992529359301939</v>
       </c>
       <c r="F10" t="n">
-        <v>63.93221161420586</v>
+        <v>58.16834613479978</v>
       </c>
       <c r="G10" t="n">
-        <v>72778.45959667956</v>
+        <v>72734.2796034905</v>
       </c>
       <c r="H10" t="n">
-        <v>1689476.371856015</v>
+        <v>1648236.333124188</v>
       </c>
       <c r="I10" t="n">
-        <v>34133812.60162441</v>
+        <v>31901039.28587263</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30339033237912</v>
+        <v>52.24727589903479</v>
       </c>
       <c r="K10" t="n">
-        <v>7798.599140678805</v>
+        <v>9340.574483329294</v>
       </c>
       <c r="L10" t="n">
-        <v>376637.4256396883</v>
+        <v>421273.2836675458</v>
       </c>
     </row>
     <row r="11">
@@ -846,37 +846,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99539.28980139598</v>
+        <v>99467.51980390679</v>
       </c>
       <c r="C11" t="n">
-        <v>66.73105086317743</v>
+        <v>79.13410742738209</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0006703991056830061</v>
+        <v>0.0007955773661934007</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999329600894317</v>
+        <v>0.9992044226338066</v>
       </c>
       <c r="F11" t="n">
-        <v>62.97239553708098</v>
+        <v>57.21146029320087</v>
       </c>
       <c r="G11" t="n">
-        <v>69934.98468339795</v>
+        <v>69884.56003514952</v>
       </c>
       <c r="H11" t="n">
-        <v>1616697.912259336</v>
+        <v>1575502.053520698</v>
       </c>
       <c r="I11" t="n">
-        <v>32444336.2297684</v>
+        <v>30252802.95274844</v>
       </c>
       <c r="J11" t="n">
-        <v>45.08110691125453</v>
+        <v>53.46016750995081</v>
       </c>
       <c r="K11" t="n">
-        <v>7754.295750346427</v>
+        <v>9288.327207430259</v>
       </c>
       <c r="L11" t="n">
-        <v>368838.8264990096</v>
+        <v>411932.7091842164</v>
       </c>
     </row>
     <row r="12">
@@ -884,37 +884,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99472.5587505328</v>
+        <v>99388.38569647941</v>
       </c>
       <c r="C12" t="n">
-        <v>70.65687095394316</v>
+        <v>84.2541716187915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007103152049314776</v>
+        <v>0.0008477265329179806</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9992896847950685</v>
+        <v>0.999152273467082</v>
       </c>
       <c r="F12" t="n">
-        <v>62.01430507129317</v>
+        <v>56.25661457113542</v>
       </c>
       <c r="G12" t="n">
-        <v>67200.09647327907</v>
+        <v>67143.23217397997</v>
       </c>
       <c r="H12" t="n">
-        <v>1546762.927575937</v>
+        <v>1505617.493485548</v>
       </c>
       <c r="I12" t="n">
-        <v>30827638.31750906</v>
+        <v>28677300.89922775</v>
       </c>
       <c r="J12" t="n">
-        <v>45.89735605560797</v>
+        <v>54.729903288226</v>
       </c>
       <c r="K12" t="n">
-        <v>7709.214643435173</v>
+        <v>9234.867039920307</v>
       </c>
       <c r="L12" t="n">
-        <v>361084.5307486631</v>
+        <v>402644.3819767862</v>
       </c>
     </row>
     <row r="13">
@@ -922,37 +922,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99401.90187957886</v>
+        <v>99304.13152486063</v>
       </c>
       <c r="C13" t="n">
-        <v>74.85198450612164</v>
+        <v>89.74947046970127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007530236654506028</v>
+        <v>0.0009037838516037233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9992469763345494</v>
+        <v>0.9990962161483963</v>
       </c>
       <c r="F13" t="n">
-        <v>61.0580306764683</v>
+        <v>55.30392103563819</v>
       </c>
       <c r="G13" t="n">
-        <v>64569.58002209734</v>
+        <v>64506.0702640002</v>
       </c>
       <c r="H13" t="n">
-        <v>1479562.831102659</v>
+        <v>1438474.261311568</v>
       </c>
       <c r="I13" t="n">
-        <v>29280875.38993312</v>
+        <v>27171683.4057422</v>
       </c>
       <c r="J13" t="n">
-        <v>46.75232867773631</v>
+        <v>56.05725445674857</v>
       </c>
       <c r="K13" t="n">
-        <v>7663.317287379565</v>
+        <v>9180.137136632084</v>
       </c>
       <c r="L13" t="n">
-        <v>353375.3161052279</v>
+        <v>393409.5149368659</v>
       </c>
     </row>
     <row r="14">
@@ -960,37 +960,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99327.04989507273</v>
+        <v>99214.38205439092</v>
       </c>
       <c r="C14" t="n">
-        <v>79.33447117322143</v>
+        <v>95.64682747863584</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007987196967697008</v>
+        <v>0.000964041961438622</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9992012803032303</v>
+        <v>0.9990359580385614</v>
       </c>
       <c r="F14" t="n">
-        <v>60.10366667168516</v>
+        <v>54.35349674019598</v>
       </c>
       <c r="G14" t="n">
-        <v>62039.38230795432</v>
+        <v>61969.01030708191</v>
       </c>
       <c r="H14" t="n">
-        <v>1414993.251080561</v>
+        <v>1373968.191047568</v>
       </c>
       <c r="I14" t="n">
-        <v>27801312.55883047</v>
+        <v>25733209.14443063</v>
       </c>
       <c r="J14" t="n">
-        <v>47.64622752383539</v>
+        <v>57.4430060046629</v>
       </c>
       <c r="K14" t="n">
-        <v>7616.564958701827</v>
+        <v>9124.079882175334</v>
       </c>
       <c r="L14" t="n">
-        <v>345711.9988178483</v>
+        <v>384229.3778002338</v>
       </c>
     </row>
     <row r="15">
@@ -998,37 +998,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99247.71542389951</v>
+        <v>99118.73522691229</v>
       </c>
       <c r="C15" t="n">
-        <v>84.12356806795022</v>
+        <v>101.9748788619895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000847612136044118</v>
+        <v>0.00102881537610966</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991523878639559</v>
+        <v>0.9989711846238903</v>
       </c>
       <c r="F15" t="n">
-        <v>59.15131134899774</v>
+        <v>53.4054638693168</v>
       </c>
       <c r="G15" t="n">
-        <v>59605.605991663</v>
+        <v>59528.14382772793</v>
       </c>
       <c r="H15" t="n">
-        <v>1352953.868772607</v>
+        <v>1311999.180740486</v>
       </c>
       <c r="I15" t="n">
-        <v>26386319.3077499</v>
+        <v>24359240.95338306</v>
       </c>
       <c r="J15" t="n">
-        <v>48.57926443730533</v>
+        <v>58.88795161657098</v>
       </c>
       <c r="K15" t="n">
-        <v>7568.918731177992</v>
+        <v>9066.636876170673</v>
       </c>
       <c r="L15" t="n">
-        <v>338095.4338591465</v>
+        <v>375105.2979180584</v>
       </c>
     </row>
     <row r="16">
@@ -1036,37 +1036,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99163.59185583156</v>
+        <v>99016.7603480503</v>
       </c>
       <c r="C16" t="n">
-        <v>89.23973556833595</v>
+        <v>108.7641794565027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008999243966281156</v>
+        <v>0.001098442112973497</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9991000756033719</v>
+        <v>0.9989015578870265</v>
       </c>
       <c r="F16" t="n">
-        <v>58.20106708585845</v>
+        <v>52.45994988007141</v>
       </c>
       <c r="G16" t="n">
-        <v>57264.50341985404</v>
+        <v>57179.7118827372</v>
       </c>
       <c r="H16" t="n">
-        <v>1293348.262780944</v>
+        <v>1252471.036912758</v>
       </c>
       <c r="I16" t="n">
-        <v>25033365.4389773</v>
+        <v>23047241.77264258</v>
       </c>
       <c r="J16" t="n">
-        <v>49.55165739261616</v>
+        <v>60.39288801893232</v>
       </c>
       <c r="K16" t="n">
-        <v>7520.339466740687</v>
+        <v>9007.7489245541</v>
       </c>
       <c r="L16" t="n">
-        <v>330526.5151279685</v>
+        <v>366038.6610418877</v>
       </c>
     </row>
     <row r="17">
@@ -1074,37 +1074,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99074.35212026323</v>
+        <v>98907.9961685938</v>
       </c>
       <c r="C17" t="n">
-        <v>94.70472560042595</v>
+        <v>116.0473120652111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009558954822683763</v>
+        <v>0.00117328544263906</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990441045177316</v>
+        <v>0.9988267145573609</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25304045594421</v>
+        <v>51.51708763972911</v>
       </c>
       <c r="G17" t="n">
-        <v>55012.47086169781</v>
+        <v>54920.09930692069</v>
       </c>
       <c r="H17" t="n">
-        <v>1236083.75936109</v>
+        <v>1195291.325030021</v>
       </c>
       <c r="I17" t="n">
-        <v>23740017.17619635</v>
+        <v>21794770.73572982</v>
       </c>
       <c r="J17" t="n">
-        <v>50.56362727415155</v>
+        <v>61.9586086779823</v>
       </c>
       <c r="K17" t="n">
-        <v>7470.787809348071</v>
+        <v>8947.356036535168</v>
       </c>
       <c r="L17" t="n">
-        <v>323006.1756612278</v>
+        <v>357030.9121173337</v>
       </c>
     </row>
     <row r="18">
@@ -1112,37 +1112,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98979.6473946628</v>
+        <v>98791.94885652859</v>
       </c>
       <c r="C18" t="n">
-        <v>100.5416522778493</v>
+        <v>123.8589998443516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001015781071405097</v>
+        <v>0.001253735767721587</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9989842189285949</v>
+        <v>0.9987462642322784</v>
       </c>
       <c r="F18" t="n">
-        <v>56.30734233784462</v>
+        <v>50.5770155585374</v>
       </c>
       <c r="G18" t="n">
-        <v>52846.04297051219</v>
+        <v>52745.82918643805</v>
       </c>
       <c r="H18" t="n">
-        <v>1181071.288499392</v>
+        <v>1140371.2257231</v>
       </c>
       <c r="I18" t="n">
-        <v>22503933.41683526</v>
+        <v>20599479.4106998</v>
       </c>
       <c r="J18" t="n">
-        <v>51.61539437317951</v>
+        <v>63.58589677804864</v>
       </c>
       <c r="K18" t="n">
-        <v>7420.224182073919</v>
+        <v>8885.397427857184</v>
       </c>
       <c r="L18" t="n">
-        <v>315535.3878518797</v>
+        <v>348083.5560807985</v>
       </c>
     </row>
     <row r="19">
@@ -1150,37 +1150,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98879.10574238494</v>
+        <v>98668.08985668424</v>
       </c>
       <c r="C19" t="n">
-        <v>106.7750647299199</v>
+        <v>132.2362212037681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001079854676357073</v>
+        <v>0.00134021264013362</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9989201453236429</v>
+        <v>0.9986597873598664</v>
       </c>
       <c r="F19" t="n">
-        <v>55.36408802102768</v>
+        <v>49.63987771661991</v>
       </c>
       <c r="G19" t="n">
-        <v>50761.88746188854</v>
+        <v>50653.55755172009</v>
       </c>
       <c r="H19" t="n">
-        <v>1128225.24552888</v>
+        <v>1087625.396536662</v>
       </c>
       <c r="I19" t="n">
-        <v>21322862.12833587</v>
+        <v>19459108.1849767</v>
       </c>
       <c r="J19" t="n">
-        <v>52.7071745734921</v>
+        <v>65.27551740245292</v>
       </c>
       <c r="K19" t="n">
-        <v>7368.60878770074</v>
+        <v>8821.811531079136</v>
       </c>
       <c r="L19" t="n">
-        <v>308115.1636698059</v>
+        <v>339198.1586529413</v>
       </c>
     </row>
     <row r="20">
@@ -1188,37 +1188,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98772.33067765502</v>
+        <v>98535.85363548047</v>
       </c>
       <c r="C20" t="n">
-        <v>113.4310218939008</v>
+        <v>141.2183265481449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001148408882484353</v>
+        <v>0.001433166926939733</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9988515911175156</v>
+        <v>0.9985668330730603</v>
       </c>
       <c r="F20" t="n">
-        <v>54.42339730845264</v>
+        <v>48.70582398389132</v>
       </c>
       <c r="G20" t="n">
-        <v>48756.80000031932</v>
+        <v>48640.06828232839</v>
       </c>
       <c r="H20" t="n">
-        <v>1077463.358066991</v>
+        <v>1036971.838984942</v>
       </c>
       <c r="I20" t="n">
-        <v>20194636.88280699</v>
+        <v>18371482.78844003</v>
       </c>
       <c r="J20" t="n">
-        <v>53.83917519411521</v>
+        <v>67.02820883300322</v>
       </c>
       <c r="K20" t="n">
-        <v>7315.901613127248</v>
+        <v>8756.536013676683</v>
       </c>
       <c r="L20" t="n">
-        <v>300746.5548821051</v>
+        <v>330376.3471218622</v>
       </c>
     </row>
     <row r="21">
@@ -1226,37 +1226,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98658.89965576111</v>
+        <v>98394.63530893232</v>
       </c>
       <c r="C21" t="n">
-        <v>120.5371689818844</v>
+        <v>150.8471560146982</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00122175667276303</v>
+        <v>0.001533083135488833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.998778243327237</v>
+        <v>0.9984669168645112</v>
       </c>
       <c r="F21" t="n">
-        <v>53.4853946151531</v>
+        <v>47.77501013180991</v>
       </c>
       <c r="G21" t="n">
-        <v>46827.69928665138</v>
+        <v>46702.26821648275</v>
       </c>
       <c r="H21" t="n">
-        <v>1028706.558066672</v>
+        <v>988331.7707026136</v>
       </c>
       <c r="I21" t="n">
-        <v>19117173.52474</v>
+        <v>17334510.94945509</v>
       </c>
       <c r="J21" t="n">
-        <v>55.01159045539126</v>
+        <v>68.84467287669793</v>
       </c>
       <c r="K21" t="n">
-        <v>7262.062437933133</v>
+        <v>8689.507804843681</v>
       </c>
       <c r="L21" t="n">
-        <v>293430.6532689779</v>
+        <v>321619.8111081855</v>
       </c>
     </row>
     <row r="22">
@@ -1264,37 +1264,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98538.36248677922</v>
+        <v>98243.78815291762</v>
       </c>
       <c r="C22" t="n">
-        <v>128.1228152552156</v>
+        <v>161.1671571644356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00130023284355274</v>
+        <v>0.001640481909284452</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986997671564473</v>
+        <v>0.9983595180907155</v>
       </c>
       <c r="F22" t="n">
-        <v>52.55020906206617</v>
+        <v>46.84759793571106</v>
       </c>
       <c r="G22" t="n">
-        <v>44971.62233901709</v>
+        <v>44837.18245835671</v>
       </c>
       <c r="H22" t="n">
-        <v>981878.8587800206</v>
+        <v>941629.5024861309</v>
       </c>
       <c r="I22" t="n">
-        <v>18088466.96667333</v>
+        <v>16346179.17875248</v>
       </c>
       <c r="J22" t="n">
-        <v>56.22459653176932</v>
+        <v>70.72556412136574</v>
       </c>
       <c r="K22" t="n">
-        <v>7207.050847477741</v>
+        <v>8620.663131966983</v>
       </c>
       <c r="L22" t="n">
-        <v>286168.5908310447</v>
+        <v>312930.3033033418</v>
       </c>
     </row>
     <row r="23">
@@ -1302,37 +1302,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98410.239671524</v>
+        <v>98082.62099575318</v>
       </c>
       <c r="C23" t="n">
-        <v>136.2190126516928</v>
+        <v>172.2255013516919</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001384195517726283</v>
+        <v>0.00175592270682845</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986158044822737</v>
+        <v>0.9982440772931716</v>
       </c>
       <c r="F23" t="n">
-        <v>51.61797456433415</v>
+        <v>45.92375526638661</v>
       </c>
       <c r="G23" t="n">
-        <v>43185.71996021542</v>
+        <v>43041.94987660623</v>
       </c>
       <c r="H23" t="n">
-        <v>936907.2364410036</v>
+        <v>896792.3200277742</v>
       </c>
       <c r="I23" t="n">
-        <v>17106588.10789331</v>
+        <v>15404549.67626635</v>
       </c>
       <c r="J23" t="n">
-        <v>57.47834615260833</v>
+        <v>72.671478013947</v>
       </c>
       <c r="K23" t="n">
-        <v>7150.826250945971</v>
+        <v>8549.937567845616</v>
       </c>
       <c r="L23" t="n">
-        <v>278961.539983567</v>
+        <v>304309.6401713748</v>
       </c>
     </row>
     <row r="24">
@@ -1340,37 +1340,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>98274.02065887231</v>
+        <v>97910.39549440148</v>
       </c>
       <c r="C24" t="n">
-        <v>144.8586347068926</v>
+        <v>184.0721972291555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001474027761718677</v>
+        <v>0.001880006676509449</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985259722382813</v>
+        <v>0.9981199933234906</v>
       </c>
       <c r="F24" t="n">
-        <v>50.68882991325774</v>
+        <v>45.00365616949835</v>
       </c>
       <c r="G24" t="n">
-        <v>41467.25238482375</v>
+        <v>41313.81878795358</v>
       </c>
       <c r="H24" t="n">
-        <v>893721.5164807881</v>
+        <v>853750.3701511679</v>
       </c>
       <c r="I24" t="n">
-        <v>16169680.87145231</v>
+        <v>14507757.35623857</v>
       </c>
       <c r="J24" t="n">
-        <v>58.77296270906271</v>
+        <v>74.68293764755215</v>
       </c>
       <c r="K24" t="n">
-        <v>7093.347904793363</v>
+        <v>8477.26608983167</v>
       </c>
       <c r="L24" t="n">
-        <v>271810.713732621</v>
+        <v>295759.7026035292</v>
       </c>
     </row>
     <row r="25">
@@ -1378,37 +1378,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>98129.16202416542</v>
+        <v>97726.32329717233</v>
       </c>
       <c r="C25" t="n">
-        <v>154.0764550935945</v>
+        <v>196.7601995363588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001570139313486152</v>
+        <v>0.002013379741485188</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9984298606865138</v>
+        <v>0.9979866202585148</v>
       </c>
       <c r="F25" t="n">
-        <v>49.76291885102917</v>
+        <v>44.08748093133801</v>
       </c>
       <c r="G25" t="n">
-        <v>39813.58509962146</v>
+        <v>39650.14282000012</v>
       </c>
       <c r="H25" t="n">
-        <v>852254.2640959644</v>
+        <v>812436.5513632144</v>
       </c>
       <c r="I25" t="n">
-        <v>15275959.35497152</v>
+        <v>13654006.98608741</v>
       </c>
       <c r="J25" t="n">
-        <v>60.10853382282897</v>
+        <v>76.76037913536791</v>
       </c>
       <c r="K25" t="n">
-        <v>7034.5749420843</v>
+        <v>8402.583152184119</v>
       </c>
       <c r="L25" t="n">
-        <v>264717.3658278277</v>
+        <v>287282.4365136976</v>
       </c>
     </row>
     <row r="26">
@@ -1416,37 +1416,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97975.08556907182</v>
+        <v>97529.56309763597</v>
       </c>
       <c r="C26" t="n">
-        <v>163.9092249666821</v>
+        <v>210.3455109642099</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001672968428806598</v>
+        <v>0.002156735909435326</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9983270315711934</v>
+        <v>0.9978432640905647</v>
       </c>
       <c r="F26" t="n">
-        <v>48.84039013732653</v>
+        <v>43.17541612937381</v>
       </c>
       <c r="G26" t="n">
-        <v>38222.1848311978</v>
+        <v>38048.37694778782</v>
       </c>
       <c r="H26" t="n">
-        <v>812440.6789963429</v>
+        <v>772786.4085432142</v>
       </c>
       <c r="I26" t="n">
-        <v>14423705.09087555</v>
+        <v>12841570.43472419</v>
       </c>
       <c r="J26" t="n">
-        <v>61.48510432942729</v>
+        <v>78.90413544137041</v>
       </c>
       <c r="K26" t="n">
-        <v>6974.466408261471</v>
+        <v>8325.822773048751</v>
       </c>
       <c r="L26" t="n">
-        <v>257682.7908857434</v>
+        <v>278879.8533615135</v>
       </c>
     </row>
     <row r="27">
@@ -1454,37 +1454,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97811.17634410513</v>
+        <v>97319.21758667176</v>
       </c>
       <c r="C27" t="n">
-        <v>174.3957481454433</v>
+        <v>224.8872744818051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001782983853827802</v>
+        <v>0.002310820823045789</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9982170161461722</v>
+        <v>0.9976891791769542</v>
       </c>
       <c r="F27" t="n">
-        <v>47.9213976068014</v>
+        <v>42.2676546659542</v>
       </c>
       <c r="G27" t="n">
-        <v>36690.61569489923</v>
+        <v>36506.07369896999</v>
       </c>
       <c r="H27" t="n">
-        <v>774218.4941651451</v>
+        <v>734738.0315954264</v>
       </c>
       <c r="I27" t="n">
-        <v>13611264.41187921</v>
+        <v>12068784.02618098</v>
       </c>
       <c r="J27" t="n">
-        <v>62.90266862596755</v>
+        <v>81.11441853002313</v>
       </c>
       <c r="K27" t="n">
-        <v>6912.981303932044</v>
+        <v>8246.918637607381</v>
       </c>
       <c r="L27" t="n">
-        <v>250708.3244774819</v>
+        <v>270554.0305884647</v>
       </c>
     </row>
     <row r="28">
@@ -1492,37 +1492,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97636.78059595969</v>
+        <v>97094.33031218995</v>
       </c>
       <c r="C28" t="n">
-        <v>185.5769529876072</v>
+        <v>240.4478530476344</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001900686932269524</v>
+        <v>0.002476435568117274</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9980993130677305</v>
+        <v>0.9975235644318827</v>
       </c>
       <c r="F28" t="n">
-        <v>47.00610021644565</v>
+        <v>41.36439578347488</v>
       </c>
       <c r="G28" t="n">
-        <v>35216.53549954636</v>
+        <v>35020.87952278727</v>
       </c>
       <c r="H28" t="n">
-        <v>737527.8784702459</v>
+        <v>698231.9578964564</v>
       </c>
       <c r="I28" t="n">
-        <v>12837045.91771407</v>
+        <v>11334045.99458555</v>
       </c>
       <c r="J28" t="n">
-        <v>64.36116233057075</v>
+        <v>83.39129968940415</v>
       </c>
       <c r="K28" t="n">
-        <v>6850.078635306078</v>
+        <v>8165.804219077357</v>
       </c>
       <c r="L28" t="n">
-        <v>243795.3431735499</v>
+        <v>262307.1119508573</v>
       </c>
     </row>
     <row r="29">
@@ -1530,37 +1530,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>97451.20364297208</v>
+        <v>96853.88245914232</v>
       </c>
       <c r="C29" t="n">
-        <v>197.4959596073467</v>
+        <v>257.0928931002621</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002026613856211612</v>
+        <v>0.002654440757279053</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9979733861437884</v>
+        <v>0.9973455592427209</v>
       </c>
       <c r="F29" t="n">
-        <v>46.09466208177801</v>
+        <v>40.46584505925761</v>
       </c>
       <c r="G29" t="n">
-        <v>33797.69220261785</v>
+        <v>33590.53131837528</v>
       </c>
       <c r="H29" t="n">
-        <v>702311.3429706995</v>
+        <v>663211.0783736692</v>
       </c>
       <c r="I29" t="n">
-        <v>12099518.03924382</v>
+        <v>10635814.0366891</v>
       </c>
       <c r="J29" t="n">
-        <v>65.86045319788509</v>
+        <v>85.73468787514788</v>
       </c>
       <c r="K29" t="n">
-        <v>6785.717472975507</v>
+        <v>8082.412919387953</v>
       </c>
       <c r="L29" t="n">
-        <v>236945.2645382438</v>
+        <v>254141.30773178</v>
       </c>
     </row>
     <row r="30">
@@ -1568,37 +1568,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97253.70768336473</v>
+        <v>96596.78956604206</v>
       </c>
       <c r="C30" t="n">
-        <v>210.1981408599101</v>
+        <v>274.8913676269592</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002161338069950669</v>
+        <v>0.002845760908430806</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9978386619300493</v>
+        <v>0.9971542390915692</v>
       </c>
       <c r="F30" t="n">
-        <v>45.18725250074827</v>
+        <v>39.57221437833789</v>
       </c>
       <c r="G30" t="n">
-        <v>32431.92051085774</v>
+        <v>32212.85311825492</v>
       </c>
       <c r="H30" t="n">
-        <v>668513.6507680815</v>
+        <v>629620.5470552939</v>
       </c>
       <c r="I30" t="n">
-        <v>11397206.69627312</v>
+        <v>9972602.958315426</v>
       </c>
       <c r="J30" t="n">
-        <v>67.40033123243343</v>
+        <v>88.14430591630118</v>
       </c>
       <c r="K30" t="n">
-        <v>6719.857019777621</v>
+        <v>7996.678231512806</v>
       </c>
       <c r="L30" t="n">
-        <v>230159.5470652683</v>
+        <v>246058.894812392</v>
       </c>
     </row>
     <row r="31">
@@ -1606,37 +1606,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97043.50954250482</v>
+        <v>96321.8981984151</v>
       </c>
       <c r="C31" t="n">
-        <v>223.7311752572228</v>
+        <v>293.9155939364999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002305472836998224</v>
+        <v>0.003051389138231664</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9976945271630018</v>
+        <v>0.9969486108617683</v>
       </c>
       <c r="F31" t="n">
-        <v>44.28404596421716</v>
+        <v>38.68372188231741</v>
       </c>
       <c r="G31" t="n">
-        <v>31117.13862151539</v>
+        <v>30885.75292317496</v>
       </c>
       <c r="H31" t="n">
-        <v>636081.7302572238</v>
+        <v>597407.6939370389</v>
       </c>
       <c r="I31" t="n">
-        <v>10728693.04550504</v>
+        <v>9342982.411260132</v>
       </c>
       <c r="J31" t="n">
-        <v>68.98049793943468</v>
+        <v>90.61966441911822</v>
       </c>
       <c r="K31" t="n">
-        <v>6652.456688545188</v>
+        <v>7908.533925596505</v>
       </c>
       <c r="L31" t="n">
-        <v>223439.6900454907</v>
+        <v>238062.2165808792</v>
       </c>
     </row>
     <row r="32">
@@ -1644,37 +1644,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96819.77836724759</v>
+        <v>96027.9826044786</v>
       </c>
       <c r="C32" t="n">
-        <v>238.1450896860658</v>
+        <v>314.2412205078043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002459673980896304</v>
+        <v>0.003272392192201989</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9975403260191037</v>
+        <v>0.996727607807798</v>
       </c>
       <c r="F32" t="n">
-        <v>43.38522215183383</v>
+        <v>37.80059189240575</v>
       </c>
       <c r="G32" t="n">
-        <v>29851.34509967151</v>
+        <v>29607.21968478758</v>
       </c>
       <c r="H32" t="n">
-        <v>604964.5916357085</v>
+        <v>566521.941013864</v>
       </c>
       <c r="I32" t="n">
-        <v>10092611.31524781</v>
+        <v>8745574.717323095</v>
       </c>
       <c r="J32" t="n">
-        <v>70.60055465040232</v>
+        <v>93.16003320125762</v>
       </c>
       <c r="K32" t="n">
-        <v>6583.476190605754</v>
+        <v>7817.914261177386</v>
       </c>
       <c r="L32" t="n">
-        <v>216787.2333569455</v>
+        <v>230153.6826552827</v>
       </c>
     </row>
     <row r="33">
@@ -1682,37 +1682,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>96581.63327756153</v>
+        <v>95713.7413839708</v>
       </c>
       <c r="C33" t="n">
-        <v>253.4922894734195</v>
+        <v>335.947176444464</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002624642811174249</v>
+        <v>0.003509915834308042</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9973753571888258</v>
+        <v>0.996490084165692</v>
       </c>
       <c r="F33" t="n">
-        <v>42.49096591210142</v>
+        <v>36.92305480475717</v>
       </c>
       <c r="G33" t="n">
-        <v>28632.61588734144</v>
+        <v>28375.32043294065</v>
       </c>
       <c r="H33" t="n">
-        <v>575113.246536037</v>
+        <v>536914.7213290763</v>
       </c>
       <c r="I33" t="n">
-        <v>9487646.723612104</v>
+        <v>8179052.776309229</v>
       </c>
       <c r="J33" t="n">
-        <v>72.25998985944643</v>
+        <v>95.76441008763737</v>
       </c>
       <c r="K33" t="n">
-        <v>6512.875635955351</v>
+        <v>7724.754227976128</v>
       </c>
       <c r="L33" t="n">
-        <v>210203.7571663398</v>
+        <v>222335.7683941053</v>
       </c>
     </row>
     <row r="34">
@@ -1720,37 +1720,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>96328.14098808811</v>
+        <v>95377.79420752634</v>
       </c>
       <c r="C34" t="n">
-        <v>269.8275729766773</v>
+        <v>359.1155761295339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002801129246437384</v>
+        <v>0.003765190620241832</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9971988707535626</v>
+        <v>0.9962348093797582</v>
       </c>
       <c r="F34" t="n">
-        <v>41.60146722539445</v>
+        <v>36.05134695620404</v>
       </c>
       <c r="G34" t="n">
-        <v>27459.10144027655</v>
+        <v>27188.19754466298</v>
       </c>
       <c r="H34" t="n">
-        <v>546480.6306486955</v>
+        <v>508539.4008961358</v>
       </c>
       <c r="I34" t="n">
-        <v>8912533.477076069</v>
+        <v>7642138.054980153</v>
       </c>
       <c r="J34" t="n">
-        <v>73.9581655050476</v>
+        <v>98.43148690042986</v>
       </c>
       <c r="K34" t="n">
-        <v>6440.615646095905</v>
+        <v>7628.989817888491</v>
       </c>
       <c r="L34" t="n">
-        <v>203690.8815303844</v>
+        <v>214611.0141661292</v>
       </c>
     </row>
     <row r="35">
@@ -1758,37 +1758,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96058.31341511144</v>
+        <v>95018.6786313968</v>
       </c>
       <c r="C35" t="n">
-        <v>287.2081274684362</v>
+        <v>383.831570643729</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00298993514728163</v>
+        <v>0.004039538080009675</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9970100648527184</v>
+        <v>0.9959604619199903</v>
       </c>
       <c r="F35" t="n">
-        <v>40.7169211486721</v>
+        <v>35.18571045849905</v>
       </c>
       <c r="G35" t="n">
-        <v>26329.02398860702</v>
+        <v>26044.06615219859</v>
       </c>
       <c r="H35" t="n">
-        <v>519021.529208419</v>
+        <v>481351.2033514727</v>
       </c>
       <c r="I35" t="n">
-        <v>8366052.846427373</v>
+        <v>7133598.654084018</v>
       </c>
       <c r="J35" t="n">
-        <v>75.69430213188201</v>
+        <v>101.1596124808627</v>
       </c>
       <c r="K35" t="n">
-        <v>6366.657480590858</v>
+        <v>7530.558330988061</v>
       </c>
       <c r="L35" t="n">
-        <v>197250.2658842885</v>
+        <v>206982.0243482407</v>
       </c>
     </row>
     <row r="36">
@@ -1796,37 +1796,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95771.105287643</v>
+        <v>94634.84706075308</v>
       </c>
       <c r="C36" t="n">
-        <v>305.6935026325128</v>
+        <v>410.183136378647</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003191917872456207</v>
+        <v>0.004334377336873807</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9968080821275438</v>
+        <v>0.9956656226631262</v>
       </c>
       <c r="F36" t="n">
-        <v>39.83752774061823</v>
+        <v>34.32639299920874</v>
       </c>
       <c r="G36" t="n">
-        <v>25240.67491768255</v>
+        <v>24941.21168771009</v>
       </c>
       <c r="H36" t="n">
-        <v>492692.5052198119</v>
+        <v>455307.1371992741</v>
       </c>
       <c r="I36" t="n">
-        <v>7847031.317218955</v>
+        <v>6652247.450732546</v>
       </c>
       <c r="J36" t="n">
-        <v>77.46746286789234</v>
+        <v>103.946752589791</v>
       </c>
       <c r="K36" t="n">
-        <v>6290.963178458975</v>
+        <v>7429.398718507198</v>
       </c>
       <c r="L36" t="n">
-        <v>190883.6084036976</v>
+        <v>199451.4660172526</v>
       </c>
     </row>
     <row r="37">
@@ -1834,37 +1834,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>95465.4117850105</v>
+        <v>94224.66392437443</v>
       </c>
       <c r="C37" t="n">
-        <v>325.3455574876707</v>
+        <v>438.2607900462339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003407994072453735</v>
+        <v>0.004651232191159482</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9965920059275463</v>
+        <v>0.9953487678088405</v>
       </c>
       <c r="F37" t="n">
-        <v>38.96349196593381</v>
+        <v>33.47364760744941</v>
       </c>
       <c r="G37" t="n">
-        <v>24192.41226567302</v>
+        <v>23877.98756251606</v>
       </c>
       <c r="H37" t="n">
-        <v>467451.8303021294</v>
+        <v>430365.925511564</v>
       </c>
       <c r="I37" t="n">
-        <v>7354338.811999143</v>
+        <v>6196940.313533271</v>
       </c>
       <c r="J37" t="n">
-        <v>79.27653615362566</v>
+        <v>106.7904465489235</v>
       </c>
       <c r="K37" t="n">
-        <v>6213.495715591083</v>
+        <v>7325.451965917408</v>
       </c>
       <c r="L37" t="n">
-        <v>184592.6452252386</v>
+        <v>192022.0672987454</v>
       </c>
     </row>
     <row r="38">
@@ -1872,37 +1872,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>95140.06622752282</v>
+        <v>93786.4031343282</v>
       </c>
       <c r="C38" t="n">
-        <v>346.2283760065334</v>
+        <v>468.1572179593772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003639143735495676</v>
+        <v>0.004991738698933212</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9963608562645043</v>
+        <v>0.9950082613010668</v>
       </c>
       <c r="F38" t="n">
-        <v>38.09502357751219</v>
+        <v>32.62773238272807</v>
       </c>
       <c r="G38" t="n">
-        <v>23182.65833468582</v>
+        <v>22852.81297894728</v>
       </c>
       <c r="H38" t="n">
-        <v>443259.4180364563</v>
+        <v>406487.9379490479</v>
       </c>
       <c r="I38" t="n">
-        <v>6886886.981697014</v>
+        <v>5766574.388021707</v>
       </c>
       <c r="J38" t="n">
-        <v>81.12021716423894</v>
+        <v>109.6877605062445</v>
       </c>
       <c r="K38" t="n">
-        <v>6134.219179437458</v>
+        <v>7218.661519368484</v>
       </c>
       <c r="L38" t="n">
-        <v>178379.1495096476</v>
+        <v>184696.615332828</v>
       </c>
     </row>
     <row r="39">
@@ -1910,37 +1910,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94793.83785151629</v>
+        <v>93318.24591636882</v>
       </c>
       <c r="C39" t="n">
-        <v>368.4081460968807</v>
+        <v>499.9668060438583</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003886414501688917</v>
+        <v>0.005357653277065721</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9961135854983111</v>
+        <v>0.9946423467229343</v>
       </c>
       <c r="F39" t="n">
-        <v>37.23233697524125</v>
+        <v>31.78891018524613</v>
       </c>
       <c r="G39" t="n">
-        <v>22209.89741234135</v>
+        <v>21864.17087309691</v>
       </c>
       <c r="H39" t="n">
-        <v>420076.7597017704</v>
+        <v>383635.1249701007</v>
       </c>
       <c r="I39" t="n">
-        <v>6443627.563660556</v>
+        <v>5360086.450072659</v>
       </c>
       <c r="J39" t="n">
-        <v>82.99698786956402</v>
+        <v>112.6352372390121</v>
       </c>
       <c r="K39" t="n">
-        <v>6053.098962273218</v>
+        <v>7108.973758862239</v>
       </c>
       <c r="L39" t="n">
-        <v>172244.9303302101</v>
+        <v>177477.9538134595</v>
       </c>
     </row>
     <row r="40">
@@ -1948,37 +1948,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>94425.42970541942</v>
+        <v>92818.27911032496</v>
       </c>
       <c r="C40" t="n">
-        <v>391.952995961472</v>
+        <v>533.7850555516319</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004150926261964116</v>
+        <v>0.005750861367696425</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9958490737380359</v>
+        <v>0.9942491386323036</v>
       </c>
       <c r="F40" t="n">
-        <v>36.37565104020311</v>
+        <v>30.95744828614452</v>
       </c>
       <c r="G40" t="n">
-        <v>21272.6736009202</v>
+        <v>20910.60598689263</v>
       </c>
       <c r="H40" t="n">
-        <v>397866.8622894291</v>
+        <v>361770.9540970038</v>
       </c>
       <c r="I40" t="n">
-        <v>6023550.803958786</v>
+        <v>4976451.325102558</v>
       </c>
       <c r="J40" t="n">
-        <v>84.90509568485616</v>
+        <v>115.6288424472523</v>
       </c>
       <c r="K40" t="n">
-        <v>5970.101974403655</v>
+        <v>6996.338521623227</v>
       </c>
       <c r="L40" t="n">
-        <v>166191.8313679369</v>
+        <v>170368.9800545973</v>
       </c>
     </row>
     <row r="41">
@@ -1986,37 +1986,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94033.47670945794</v>
+        <v>92284.49405477333</v>
       </c>
       <c r="C41" t="n">
-        <v>416.9327811511048</v>
+        <v>569.7078679013216</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0044338760592606</v>
+        <v>0.00617338669661216</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9955661239407394</v>
+        <v>0.9938266133033878</v>
       </c>
       <c r="F41" t="n">
-        <v>35.52518894307917</v>
+        <v>30.1336179763173</v>
       </c>
       <c r="G41" t="n">
-        <v>20369.5887513538</v>
+        <v>19990.72306802643</v>
       </c>
       <c r="H41" t="n">
-        <v>376594.1886885089</v>
+        <v>340860.3481101111</v>
       </c>
       <c r="I41" t="n">
-        <v>5625683.941669357</v>
+        <v>4614680.371005554</v>
       </c>
       <c r="J41" t="n">
-        <v>86.84253067462654</v>
+        <v>118.6639075421271</v>
       </c>
       <c r="K41" t="n">
-        <v>5885.196878718798</v>
+        <v>6880.709679175975</v>
       </c>
       <c r="L41" t="n">
-        <v>160221.7293935333</v>
+        <v>163372.6415329741</v>
       </c>
     </row>
     <row r="42">
@@ -2024,37 +2024,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93616.54392830684</v>
+        <v>91714.78618687201</v>
       </c>
       <c r="C42" t="n">
-        <v>443.4188148763046</v>
+        <v>607.8306805015958</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004736543310292274</v>
+        <v>0.006627401161499957</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9952634566897077</v>
+        <v>0.9933725988385</v>
       </c>
       <c r="F42" t="n">
-        <v>34.68117792562016</v>
+        <v>29.31769413259914</v>
       </c>
       <c r="G42" t="n">
-        <v>19499.30049947325</v>
+        <v>19103.18519632944</v>
       </c>
       <c r="H42" t="n">
-        <v>356224.5999371552</v>
+        <v>320869.6250420847</v>
       </c>
       <c r="I42" t="n">
-        <v>5249089.752980848</v>
+        <v>4273820.022895443</v>
       </c>
       <c r="J42" t="n">
-        <v>88.80700128476811</v>
+        <v>121.7350689985601</v>
       </c>
       <c r="K42" t="n">
-        <v>5798.354348044171</v>
+        <v>6762.045771633848</v>
       </c>
       <c r="L42" t="n">
-        <v>154336.5325148145</v>
+        <v>156491.9318537981</v>
       </c>
     </row>
     <row r="43">
@@ -2062,37 +2062,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>93173.12511343053</v>
+        <v>91106.95550637042</v>
       </c>
       <c r="C43" t="n">
-        <v>471.4835333505548</v>
+        <v>648.2474338598136</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005060295367108947</v>
+        <v>0.007115235387428642</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9949397046328911</v>
+        <v>0.9928847646125714</v>
       </c>
       <c r="F43" t="n">
-        <v>33.84384905410708</v>
+        <v>28.50995474034032</v>
       </c>
       <c r="G43" t="n">
-        <v>18660.5204020549</v>
+        <v>18246.71223516436</v>
       </c>
       <c r="H43" t="n">
-        <v>336725.2994376819</v>
+        <v>301766.4398457553</v>
       </c>
       <c r="I43" t="n">
-        <v>4892865.153043693</v>
+        <v>3952950.397853359</v>
       </c>
       <c r="J43" t="n">
-        <v>90.79590859457727</v>
+        <v>124.8362044229506</v>
       </c>
       <c r="K43" t="n">
-        <v>5709.547346759403</v>
+        <v>6640.310702635288</v>
       </c>
       <c r="L43" t="n">
-        <v>148538.1781667703</v>
+        <v>149729.8860821642</v>
       </c>
     </row>
     <row r="44">
@@ -2100,37 +2100,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92701.64158007997</v>
+        <v>90458.70807251061</v>
       </c>
       <c r="C44" t="n">
-        <v>501.2000871101878</v>
+        <v>691.049348795891</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00540659343855554</v>
+        <v>0.007639389988213785</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9945934065614445</v>
+        <v>0.9923606100117862</v>
       </c>
       <c r="F44" t="n">
-        <v>33.01343694380974</v>
+        <v>27.71068037162394</v>
       </c>
       <c r="G44" t="n">
-        <v>17852.01217030436</v>
+        <v>17420.07940631201</v>
       </c>
       <c r="H44" t="n">
-        <v>318064.779035627</v>
+        <v>283519.7276105909</v>
       </c>
       <c r="I44" t="n">
-        <v>4556139.853606012</v>
+        <v>3651183.958007602</v>
       </c>
       <c r="J44" t="n">
-        <v>92.80631910094344</v>
+        <v>127.9603655869895</v>
       </c>
       <c r="K44" t="n">
-        <v>5618.751438164827</v>
+        <v>6515.474498212337</v>
       </c>
       <c r="L44" t="n">
-        <v>142828.6308200108</v>
+        <v>143089.575379529</v>
       </c>
     </row>
     <row r="45">
@@ -2138,37 +2138,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92200.44149296978</v>
+        <v>89767.65872371472</v>
       </c>
       <c r="C45" t="n">
-        <v>532.6418484030771</v>
+        <v>736.3234912419982</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005776998892610408</v>
+        <v>0.008202547573489039</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9942230011073896</v>
+        <v>0.991797452426511</v>
       </c>
       <c r="F45" t="n">
-        <v>32.1901794535485</v>
+        <v>26.92015361865357</v>
       </c>
       <c r="G45" t="n">
-        <v>17072.5899984994</v>
+        <v>16622.1159866361</v>
       </c>
       <c r="H45" t="n">
-        <v>300212.7668653227</v>
+        <v>266099.6482042789</v>
       </c>
       <c r="I45" t="n">
-        <v>4238075.074570384</v>
+        <v>3367664.230397012</v>
       </c>
       <c r="J45" t="n">
-        <v>94.83493607242552</v>
+        <v>131.0997088004185</v>
       </c>
       <c r="K45" t="n">
-        <v>5525.945119063883</v>
+        <v>6387.514132625348</v>
       </c>
       <c r="L45" t="n">
-        <v>137209.879381846</v>
+        <v>136574.1008813166</v>
       </c>
     </row>
     <row r="46">
@@ -2176,37 +2176,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>91667.79964456671</v>
+        <v>89031.33523247272</v>
       </c>
       <c r="C46" t="n">
-        <v>565.8818238768519</v>
+        <v>784.1511010063172</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006173179961458719</v>
+        <v>0.008807585542312646</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9938268200385413</v>
+        <v>0.9911924144576874</v>
       </c>
       <c r="F46" t="n">
-        <v>31.37431734957974</v>
+        <v>26.13865848214731</v>
       </c>
       <c r="G46" t="n">
-        <v>16321.11698556161</v>
+        <v>15851.70412450352</v>
       </c>
       <c r="H46" t="n">
-        <v>283140.1768668232</v>
+        <v>249477.5322176428</v>
       </c>
       <c r="I46" t="n">
-        <v>3937862.307705061</v>
+        <v>3101564.582192733</v>
       </c>
       <c r="J46" t="n">
-        <v>96.87806954220427</v>
+        <v>134.2454231423028</v>
       </c>
       <c r="K46" t="n">
-        <v>5431.110182991457</v>
+        <v>6256.414423824929</v>
       </c>
       <c r="L46" t="n">
-        <v>131683.9342627822</v>
+        <v>130186.5867486913</v>
       </c>
     </row>
     <row r="47">
@@ -2214,37 +2214,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91101.91782068985</v>
+        <v>88247.18413146641</v>
       </c>
       <c r="C47" t="n">
-        <v>600.9919609467911</v>
+        <v>834.6056601295493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006596918872000979</v>
+        <v>0.009457589704915614</v>
       </c>
       <c r="E47" t="n">
-        <v>0.993403081127999</v>
+        <v>0.9905424102950844</v>
       </c>
       <c r="F47" t="n">
-        <v>30.56609393815958</v>
+        <v>25.36647971491491</v>
       </c>
       <c r="G47" t="n">
-        <v>15596.50364734396</v>
+        <v>15107.77777349569</v>
       </c>
       <c r="H47" t="n">
-        <v>266819.0598812617</v>
+        <v>233625.8280931393</v>
       </c>
       <c r="I47" t="n">
-        <v>3654722.130838238</v>
+        <v>2852087.04997509</v>
       </c>
       <c r="J47" t="n">
-        <v>98.93160504653407</v>
+        <v>137.3876572449672</v>
       </c>
       <c r="K47" t="n">
-        <v>5334.232113449252</v>
+        <v>6122.169000682627</v>
       </c>
       <c r="L47" t="n">
-        <v>126252.8240797907</v>
+        <v>123930.1723248663</v>
       </c>
     </row>
     <row r="48">
@@ -2252,37 +2252,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90500.92585974306</v>
+        <v>87412.57847133686</v>
       </c>
       <c r="C48" t="n">
-        <v>638.0423354123928</v>
+        <v>887.7506762133822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.007050119425310863</v>
+        <v>0.01015586877470365</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9929498805746891</v>
+        <v>0.9898441312252964</v>
       </c>
       <c r="F48" t="n">
-        <v>29.765754666293</v>
+        <v>24.6039021211693</v>
       </c>
       <c r="G48" t="n">
-        <v>14897.70651739958</v>
+        <v>14389.32174034705</v>
       </c>
       <c r="H48" t="n">
-        <v>251222.5562339178</v>
+        <v>218518.0503196436</v>
       </c>
       <c r="I48" t="n">
-        <v>3387903.070956977</v>
+        <v>2618461.221881951</v>
       </c>
       <c r="J48" t="n">
-        <v>100.9909712604798</v>
+        <v>140.5154455307259</v>
       </c>
       <c r="K48" t="n">
-        <v>5235.300508402719</v>
+        <v>5984.781343437659</v>
       </c>
       <c r="L48" t="n">
-        <v>120918.5919663415</v>
+        <v>117808.0033241837</v>
       </c>
     </row>
     <row r="49">
@@ -2290,37 +2290,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>89862.88352433067</v>
+        <v>86524.82779512348</v>
       </c>
       <c r="C49" t="n">
-        <v>677.1002071538452</v>
+        <v>943.6371565280082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007534815049313637</v>
+        <v>0.01090596977277303</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9924651849506864</v>
+        <v>0.989094030227227</v>
       </c>
       <c r="F49" t="n">
-        <v>28.97354669034742</v>
+        <v>23.85120981253064</v>
       </c>
       <c r="G49" t="n">
-        <v>14223.72683393142</v>
+        <v>13695.37084326451</v>
       </c>
       <c r="H49" t="n">
-        <v>236324.8497165182</v>
+        <v>204128.7285792966</v>
       </c>
       <c r="I49" t="n">
-        <v>3136680.514723059</v>
+        <v>2399943.171562308</v>
       </c>
       <c r="J49" t="n">
-        <v>103.0511067361852</v>
+        <v>143.6166350418844</v>
       </c>
       <c r="K49" t="n">
-        <v>5134.309537142238</v>
+        <v>5844.265897906934</v>
       </c>
       <c r="L49" t="n">
-        <v>115683.2914579387</v>
+        <v>111823.221980746</v>
       </c>
     </row>
     <row r="50">
@@ -2328,37 +2328,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>89185.78331717683</v>
+        <v>85581.19063859546</v>
       </c>
       <c r="C50" t="n">
-        <v>718.2289301203692</v>
+        <v>1002.300750028557</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008053177349646501</v>
+        <v>0.01171169438692687</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9919468226503535</v>
+        <v>0.9882883056130731</v>
       </c>
       <c r="F50" t="n">
-        <v>28.18971841240176</v>
+        <v>23.10868542211917</v>
       </c>
       <c r="G50" t="n">
-        <v>13573.60931050556</v>
+        <v>13025.00917578937</v>
       </c>
       <c r="H50" t="n">
-        <v>222101.1228825868</v>
+        <v>190433.357736032</v>
       </c>
       <c r="I50" t="n">
-        <v>2900355.665006541</v>
+        <v>2195814.442983011</v>
       </c>
       <c r="J50" t="n">
-        <v>105.1064260118406</v>
+        <v>146.6778142824649</v>
       </c>
       <c r="K50" t="n">
-        <v>5031.258430406053</v>
+        <v>5700.649262865049</v>
       </c>
       <c r="L50" t="n">
-        <v>110548.9819207965</v>
+        <v>105978.9560828391</v>
       </c>
     </row>
     <row r="51">
@@ -2366,37 +2366,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>88467.55438705646</v>
+        <v>84578.8898885669</v>
       </c>
       <c r="C51" t="n">
-        <v>761.4867023762833</v>
+        <v>1063.758536883758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00860752518425778</v>
+        <v>0.01257711632637015</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9913924748157422</v>
+        <v>0.9874228836736298</v>
       </c>
       <c r="F51" t="n">
-        <v>27.41451898441331</v>
+        <v>22.37660927859927</v>
       </c>
       <c r="G51" t="n">
-        <v>12946.44098793582</v>
+        <v>12377.36947013039</v>
       </c>
       <c r="H51" t="n">
-        <v>208527.5135720812</v>
+        <v>177408.3485602427</v>
       </c>
       <c r="I51" t="n">
-        <v>2678254.542123954</v>
+        <v>2005381.085246979</v>
       </c>
       <c r="J51" t="n">
-        <v>107.1507854328507</v>
+        <v>149.6842458079735</v>
       </c>
       <c r="K51" t="n">
-        <v>4926.152004394213</v>
+        <v>5553.971448582584</v>
       </c>
       <c r="L51" t="n">
-        <v>105517.7234903904</v>
+        <v>100278.3068199741</v>
       </c>
     </row>
     <row r="52">
@@ -2404,37 +2404,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>87706.06768468018</v>
+        <v>83515.13135168314</v>
       </c>
       <c r="C52" t="n">
-        <v>806.9251417656774</v>
+        <v>1128.005449047429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.009200334287779555</v>
+        <v>0.01350659971182211</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9907996657122204</v>
+        <v>0.9864934002881779</v>
       </c>
       <c r="F52" t="n">
-        <v>26.64819778051632</v>
+        <v>21.65525854252947</v>
       </c>
       <c r="G52" t="n">
-        <v>12341.35016450543</v>
+        <v>11751.63255239433</v>
       </c>
       <c r="H52" t="n">
-        <v>195581.0725841454</v>
+        <v>165030.9790901123</v>
       </c>
       <c r="I52" t="n">
-        <v>2469727.028551873</v>
+        <v>1827972.736686736</v>
       </c>
       <c r="J52" t="n">
-        <v>109.1774491115319</v>
+        <v>152.619804659239</v>
       </c>
       <c r="K52" t="n">
-        <v>4819.001218961363</v>
+        <v>5404.287202774611</v>
       </c>
       <c r="L52" t="n">
-        <v>100591.5714859962</v>
+        <v>94724.3353713915</v>
       </c>
     </row>
     <row r="53">
@@ -2442,37 +2442,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>86899.1425429145</v>
+        <v>82387.12590263571</v>
       </c>
       <c r="C53" t="n">
-        <v>854.5876728754076</v>
+        <v>1195.010311133158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009834247472043534</v>
+        <v>0.01450481853858343</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9901657525279565</v>
+        <v>0.9854951814614166</v>
       </c>
       <c r="F53" t="n">
-        <v>25.89100383801614</v>
+        <v>20.94490630788763</v>
       </c>
       <c r="G53" t="n">
-        <v>11757.50540137446</v>
+        <v>11147.0268803353</v>
       </c>
       <c r="H53" t="n">
-        <v>183239.72241964</v>
+        <v>153279.3465377179</v>
       </c>
       <c r="I53" t="n">
-        <v>2274145.955967728</v>
+        <v>1662941.757596624</v>
       </c>
       <c r="J53" t="n">
-        <v>111.1790555490433</v>
+        <v>155.4669251384379</v>
       </c>
       <c r="K53" t="n">
-        <v>4709.823769849831</v>
+        <v>5251.667398115372</v>
       </c>
       <c r="L53" t="n">
-        <v>95772.57026703484</v>
+        <v>89320.04816861688</v>
       </c>
     </row>
     <row r="54">
@@ -2480,37 +2480,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>86044.55487003909</v>
+        <v>81192.11559150256</v>
       </c>
       <c r="C54" t="n">
-        <v>904.5077115157237</v>
+        <v>1264.711498778952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01051208542925097</v>
+        <v>0.01557677724696849</v>
       </c>
       <c r="E54" t="n">
-        <v>0.989487914570749</v>
+        <v>0.9844232227530315</v>
       </c>
       <c r="F54" t="n">
-        <v>25.14318526791225</v>
+        <v>20.24582067217147</v>
       </c>
       <c r="G54" t="n">
-        <v>11194.11459961871</v>
+        <v>10562.82815210705</v>
       </c>
       <c r="H54" t="n">
-        <v>171482.2170182655</v>
+        <v>142132.3196573826</v>
       </c>
       <c r="I54" t="n">
-        <v>2090906.233548088</v>
+        <v>1509662.411058906</v>
       </c>
       <c r="J54" t="n">
-        <v>113.1475855538629</v>
+        <v>158.2065588686339</v>
       </c>
       <c r="K54" t="n">
-        <v>4598.644714300786</v>
+        <v>5096.200472976934</v>
       </c>
       <c r="L54" t="n">
-        <v>91062.74649718503</v>
+        <v>84068.38077050151</v>
       </c>
     </row>
     <row r="55">
@@ -2518,37 +2518,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>85140.04715852338</v>
+        <v>79927.40409272361</v>
       </c>
       <c r="C55" t="n">
-        <v>956.706634017176</v>
+        <v>1337.012222253824</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01123685816424169</v>
+        <v>0.01672783243032339</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9887631418357583</v>
+        <v>0.9832721675696766</v>
       </c>
       <c r="F55" t="n">
-        <v>24.40498863606915</v>
+        <v>19.55826377901818</v>
       </c>
       <c r="G55" t="n">
-        <v>10650.42414484874</v>
+        <v>9998.358972003527</v>
       </c>
       <c r="H55" t="n">
-        <v>160288.1024186468</v>
+        <v>131569.4915052756</v>
       </c>
       <c r="I55" t="n">
-        <v>1919424.016529822</v>
+        <v>1367530.091401523</v>
       </c>
       <c r="J55" t="n">
-        <v>115.0743322160388</v>
+        <v>160.8181475595148</v>
       </c>
       <c r="K55" t="n">
-        <v>4485.497128746923</v>
+        <v>4937.9939141083</v>
       </c>
       <c r="L55" t="n">
-        <v>86464.10178288425</v>
+        <v>78972.18029752457</v>
       </c>
     </row>
     <row r="56">
@@ -2556,37 +2556,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84183.3405245062</v>
+        <v>78590.39187046979</v>
       </c>
       <c r="C56" t="n">
-        <v>1011.191520394986</v>
+        <v>1411.775456734167</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01201177708195866</v>
+        <v>0.0179637157053627</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9879882229180413</v>
+        <v>0.9820362842946373</v>
       </c>
       <c r="F56" t="n">
-        <v>23.67665831645649</v>
+        <v>18.88249083783577</v>
       </c>
       <c r="G56" t="n">
-        <v>10125.7181147539</v>
+        <v>9452.988556290029</v>
       </c>
       <c r="H56" t="n">
-        <v>149637.6782737981</v>
+        <v>121571.1325332721</v>
       </c>
       <c r="I56" t="n">
-        <v>1759135.914111175</v>
+        <v>1235960.599896248</v>
       </c>
       <c r="J56" t="n">
-        <v>116.9498738357448</v>
+        <v>163.2796144146549</v>
       </c>
       <c r="K56" t="n">
-        <v>4370.422796530886</v>
+        <v>4777.175766548785</v>
       </c>
       <c r="L56" t="n">
-        <v>81978.60465413732</v>
+        <v>74034.18638341627</v>
       </c>
     </row>
     <row r="57">
@@ -2594,37 +2594,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83172.14900411121</v>
+        <v>77178.61641373562</v>
       </c>
       <c r="C57" t="n">
-        <v>1067.952663016599</v>
+        <v>1488.818557964678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0128402677555417</v>
+        <v>0.0192905577625736</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9871597322444583</v>
+        <v>0.9807094422374264</v>
       </c>
       <c r="F57" t="n">
-        <v>22.9584358181961</v>
+        <v>18.21874912548601</v>
       </c>
       <c r="G57" t="n">
-        <v>9619.317544196852</v>
+        <v>8926.132458941142</v>
       </c>
       <c r="H57" t="n">
-        <v>139511.9601590442</v>
+        <v>112118.143976982</v>
       </c>
       <c r="I57" t="n">
-        <v>1609498.235837377</v>
+        <v>1114389.467362976</v>
       </c>
       <c r="J57" t="n">
-        <v>118.7640508587187</v>
+        <v>165.5673786496031</v>
       </c>
       <c r="K57" t="n">
-        <v>4253.47292269514</v>
+        <v>4613.89615213413</v>
       </c>
       <c r="L57" t="n">
-        <v>77608.18185760644</v>
+        <v>69257.01061686748</v>
       </c>
     </row>
     <row r="58">
@@ -2632,37 +2632,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>82104.19634109462</v>
+        <v>75689.79785577094</v>
       </c>
       <c r="C58" t="n">
-        <v>1126.960836001979</v>
+        <v>1567.90762341504</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01372598339943698</v>
+        <v>0.02071491360569799</v>
       </c>
       <c r="E58" t="n">
-        <v>0.986274016600563</v>
+        <v>0.979285086394302</v>
       </c>
       <c r="F58" t="n">
-        <v>22.25055908848046</v>
+        <v>17.56727697559617</v>
       </c>
       <c r="G58" t="n">
-        <v>9130.579741638256</v>
+        <v>8417.252293409187</v>
       </c>
       <c r="H58" t="n">
-        <v>129892.6426148473</v>
+        <v>103192.0115180409</v>
       </c>
       <c r="I58" t="n">
-        <v>1469986.275678333</v>
+        <v>1002271.323385994</v>
       </c>
       <c r="J58" t="n">
-        <v>120.5059480393868</v>
+        <v>167.6563981301294</v>
       </c>
       <c r="K58" t="n">
-        <v>4134.708871836422</v>
+        <v>4448.328773484527</v>
       </c>
       <c r="L58" t="n">
-        <v>73354.70893491129</v>
+        <v>64643.11446473336</v>
       </c>
     </row>
     <row r="59">
@@ -2670,37 +2670,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>80977.23550509264</v>
+        <v>74121.8902323559</v>
       </c>
       <c r="C59" t="n">
-        <v>1188.164325387348</v>
+        <v>1648.751685016245</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01467281907039941</v>
+        <v>0.02224378897850243</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9853271809296006</v>
+        <v>0.9777562110214976</v>
       </c>
       <c r="F59" t="n">
-        <v>21.55326179376512</v>
+        <v>16.92830276159659</v>
       </c>
       <c r="G59" t="n">
-        <v>8658.897649689703</v>
+        <v>7925.855422455625</v>
       </c>
       <c r="H59" t="n">
-        <v>120762.062873209</v>
+        <v>94774.75922463171</v>
       </c>
       <c r="I59" t="n">
-        <v>1340093.633063486</v>
+        <v>899079.3118679527</v>
       </c>
       <c r="J59" t="n">
-        <v>122.1638832336574</v>
+        <v>169.5202456646367</v>
       </c>
       <c r="K59" t="n">
-        <v>4014.202923797036</v>
+        <v>4280.672375354397</v>
       </c>
       <c r="L59" t="n">
-        <v>69220.00006307487</v>
+        <v>60194.78569124884</v>
       </c>
     </row>
     <row r="60">
@@ -2708,37 +2708,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>79789.07117970529</v>
+        <v>72473.13854733965</v>
       </c>
       <c r="C60" t="n">
-        <v>1251.485726310962</v>
+        <v>1730.996850502635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01568492661723431</v>
+        <v>0.02388466796386834</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9843150733827657</v>
+        <v>0.9761153320361317</v>
       </c>
       <c r="F60" t="n">
-        <v>20.86677258197887</v>
+        <v>16.30204388007245</v>
       </c>
       <c r="G60" t="n">
-        <v>8203.699241467979</v>
+        <v>7451.494583619618</v>
       </c>
       <c r="H60" t="n">
-        <v>112103.1652235193</v>
+        <v>86848.90380217609</v>
       </c>
       <c r="I60" t="n">
-        <v>1219331.570190276</v>
+        <v>804304.552643321</v>
       </c>
       <c r="J60" t="n">
-        <v>123.7254044156596</v>
+        <v>171.1312249656903</v>
       </c>
       <c r="K60" t="n">
-        <v>3892.039040563379</v>
+        <v>4111.152129689761</v>
       </c>
       <c r="L60" t="n">
-        <v>65205.79713927782</v>
+        <v>55914.11331589443</v>
       </c>
     </row>
     <row r="61">
@@ -2746,37 +2746,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>78537.58545339433</v>
+        <v>70742.14169683702</v>
       </c>
       <c r="C61" t="n">
-        <v>1316.81852136393</v>
+        <v>1814.220546552639</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01676673039745225</v>
+        <v>0.02564554172430089</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9832332696025478</v>
+        <v>0.9743544582756991</v>
       </c>
       <c r="F61" t="n">
-        <v>20.19131432884086</v>
+        <v>15.68870574147229</v>
       </c>
       <c r="G61" t="n">
-        <v>7764.446943149705</v>
+        <v>6993.767413130095</v>
       </c>
       <c r="H61" t="n">
-        <v>103899.4659820514</v>
+        <v>79397.40921855645</v>
       </c>
       <c r="I61" t="n">
-        <v>1107228.404966757</v>
+        <v>717455.648841145</v>
       </c>
       <c r="J61" t="n">
-        <v>125.1772967126089</v>
+        <v>172.4605326956574</v>
       </c>
       <c r="K61" t="n">
-        <v>3768.313636147719</v>
+        <v>3940.020904724071</v>
       </c>
       <c r="L61" t="n">
-        <v>61313.75809871444</v>
+        <v>51802.96118620467</v>
       </c>
     </row>
     <row r="62">
@@ -2784,37 +2784,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77220.7669320304</v>
+        <v>68927.92115028438</v>
       </c>
       <c r="C62" t="n">
-        <v>1384.023464032941</v>
+        <v>1897.926058352906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01792294377561876</v>
+        <v>0.02753493833384058</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9820770562243812</v>
+        <v>0.9724650616661594</v>
       </c>
       <c r="F62" t="n">
-        <v>19.52710337171634</v>
+        <v>15.08848077562196</v>
       </c>
       <c r="G62" t="n">
-        <v>7340.637071700568</v>
+        <v>6552.31582608328</v>
       </c>
       <c r="H62" t="n">
-        <v>96135.01903890166</v>
+        <v>72403.64180542638</v>
       </c>
       <c r="I62" t="n">
-        <v>1003328.938984706</v>
+        <v>638058.2396225885</v>
       </c>
       <c r="J62" t="n">
-        <v>126.5056014551077</v>
+        <v>173.4784732837026</v>
       </c>
       <c r="K62" t="n">
-        <v>3643.136339435111</v>
+        <v>3767.560372028413</v>
       </c>
       <c r="L62" t="n">
-        <v>57545.44446256671</v>
+        <v>47862.9402814806</v>
       </c>
     </row>
     <row r="63">
@@ -2822,37 +2822,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>75836.74346799745</v>
+        <v>67029.99509193147</v>
       </c>
       <c r="C63" t="n">
-        <v>1452.924803082551</v>
+        <v>1981.537606632735</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01915858641392842</v>
+        <v>0.02956195362859659</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9808414135860716</v>
+        <v>0.9704380463714034</v>
       </c>
       <c r="F63" t="n">
-        <v>18.87434873477902</v>
+        <v>14.50154745984086</v>
       </c>
       <c r="G63" t="n">
-        <v>6931.799275180052</v>
+        <v>6126.825205642526</v>
       </c>
       <c r="H63" t="n">
-        <v>88794.3819672011</v>
+        <v>65851.32597934309</v>
       </c>
       <c r="I63" t="n">
-        <v>907193.9199458043</v>
+        <v>565654.5978171621</v>
       </c>
       <c r="J63" t="n">
-        <v>127.6956494399456</v>
+        <v>174.1547332881934</v>
       </c>
       <c r="K63" t="n">
-        <v>3516.630737980003</v>
+        <v>3594.081898744711</v>
       </c>
       <c r="L63" t="n">
-        <v>53902.3081231316</v>
+        <v>44095.37990945219</v>
       </c>
     </row>
     <row r="64">
@@ -2860,37 +2860,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>74383.8186649149</v>
+        <v>65048.45748529874</v>
       </c>
       <c r="C64" t="n">
-        <v>1523.306398007207</v>
+        <v>2064.396253917507</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02047900236030387</v>
+        <v>0.03173628297618081</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9795209976396961</v>
+        <v>0.9682637170238192</v>
       </c>
       <c r="F64" t="n">
-        <v>18.23325134957367</v>
+        <v>13.92806937773566</v>
       </c>
       <c r="G64" t="n">
-        <v>6537.495961310105</v>
+        <v>5717.02334906039</v>
       </c>
       <c r="H64" t="n">
-        <v>81862.58269202105</v>
+        <v>59724.50077370057</v>
       </c>
       <c r="I64" t="n">
-        <v>818399.5379786033</v>
+        <v>499803.271837819</v>
       </c>
       <c r="J64" t="n">
-        <v>128.7321107905256</v>
+        <v>174.4587219107821</v>
       </c>
       <c r="K64" t="n">
-        <v>3388.935088540057</v>
+        <v>3419.927165456516</v>
       </c>
       <c r="L64" t="n">
-        <v>50385.6773851516</v>
+        <v>40501.29801070748</v>
       </c>
     </row>
     <row r="65">
@@ -2898,37 +2898,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72860.5122669077</v>
+        <v>62984.06123138123</v>
       </c>
       <c r="C65" t="n">
-        <v>1594.907792515265</v>
+        <v>2145.756985439502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02188987893294914</v>
+        <v>0.03406825383261247</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9781101210670509</v>
+        <v>0.9659317461673875</v>
       </c>
       <c r="F65" t="n">
-        <v>17.60400327538114</v>
+        <v>13.36819431694695</v>
       </c>
       <c r="G65" t="n">
-        <v>6157.321698161498</v>
+        <v>5322.679113724208</v>
       </c>
       <c r="H65" t="n">
-        <v>75325.08673071094</v>
+        <v>54007.47742464016</v>
       </c>
       <c r="I65" t="n">
-        <v>736536.9552865821</v>
+        <v>440078.7710641185</v>
       </c>
       <c r="J65" t="n">
-        <v>129.5990639653615</v>
+        <v>174.3599837652895</v>
       </c>
       <c r="K65" t="n">
-        <v>3260.202977749531</v>
+        <v>3245.468443545735</v>
       </c>
       <c r="L65" t="n">
-        <v>46996.74229661154</v>
+        <v>37081.37084525097</v>
       </c>
     </row>
     <row r="66">
@@ -2936,37 +2936,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>71265.60447439243</v>
+        <v>60838.30424594173</v>
       </c>
       <c r="C66" t="n">
-        <v>1667.420332517737</v>
+        <v>2224.7873647892</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02339726639260997</v>
+        <v>0.03656885891814787</v>
       </c>
       <c r="E66" t="n">
-        <v>0.97660273360739</v>
+        <v>0.9634311410818521</v>
       </c>
       <c r="F66" t="n">
-        <v>16.98678692407543</v>
+        <v>12.82205341423472</v>
       </c>
       <c r="G66" t="n">
-        <v>5790.902568882231</v>
+        <v>4943.600702507986</v>
       </c>
       <c r="H66" t="n">
-        <v>69167.76503254943</v>
+        <v>48684.79831091596</v>
       </c>
       <c r="I66" t="n">
-        <v>661211.8685558712</v>
+        <v>386071.2936394783</v>
       </c>
       <c r="J66" t="n">
-        <v>130.2800865940259</v>
+        <v>173.8286890746839</v>
       </c>
       <c r="K66" t="n">
-        <v>3130.603913784169</v>
+        <v>3071.108459780445</v>
       </c>
       <c r="L66" t="n">
-        <v>43736.53931886201</v>
+        <v>33835.90240170523</v>
       </c>
     </row>
     <row r="67">
@@ -2974,37 +2974,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>69598.18414187469</v>
+        <v>58613.51688115253</v>
       </c>
       <c r="C67" t="n">
-        <v>1740.48343731896</v>
+        <v>2300.568217038743</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02500759838462185</v>
+        <v>0.03924978980025173</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9749924016153781</v>
+        <v>0.9607502101997483</v>
       </c>
       <c r="F67" t="n">
-        <v>16.38177429442193</v>
+        <v>12.28976035630122</v>
       </c>
       <c r="G67" t="n">
-        <v>5437.895460408119</v>
+        <v>4579.633524875302</v>
       </c>
       <c r="H67" t="n">
-        <v>63376.8624636672</v>
+        <v>43741.19760840798</v>
       </c>
       <c r="I67" t="n">
-        <v>592044.1035233218</v>
+        <v>337386.4953285623</v>
       </c>
       <c r="J67" t="n">
-        <v>130.7583708956198</v>
+        <v>172.8362050130207</v>
       </c>
       <c r="K67" t="n">
-        <v>3000.323827190144</v>
+        <v>2897.279770705762</v>
       </c>
       <c r="L67" t="n">
-        <v>40605.93540507785</v>
+        <v>30764.79394192479</v>
       </c>
     </row>
     <row r="68">
@@ -3012,37 +3012,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67857.70070455573</v>
+        <v>56312.94866411378</v>
       </c>
       <c r="C68" t="n">
-        <v>1813.68115754562</v>
+        <v>2372.096838679116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02672771312193689</v>
+        <v>0.04212347062178912</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9732722868780631</v>
+        <v>0.9578765293782109</v>
       </c>
       <c r="F68" t="n">
-        <v>15.78912622099292</v>
+        <v>11.77141064465656</v>
       </c>
       <c r="G68" t="n">
-        <v>5097.987264112186</v>
+        <v>4230.65756890554</v>
       </c>
       <c r="H68" t="n">
-        <v>57938.96700325909</v>
+        <v>39161.56408353268</v>
       </c>
       <c r="I68" t="n">
-        <v>528667.2410596545</v>
+        <v>293645.2977201543</v>
       </c>
       <c r="J68" t="n">
-        <v>131.0168664369985</v>
+        <v>171.3557498217714</v>
       </c>
       <c r="K68" t="n">
-        <v>2869.565456294524</v>
+        <v>2724.44356569274</v>
       </c>
       <c r="L68" t="n">
-        <v>37605.61157788771</v>
+        <v>27867.51417121902</v>
       </c>
     </row>
     <row r="69">
@@ -3050,37 +3050,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66044.0195470101</v>
+        <v>53940.85182543467</v>
       </c>
       <c r="C69" t="n">
-        <v>1886.539180523756</v>
+        <v>2438.293268995448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02856487526748608</v>
+        <v>0.04520309165465797</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9714351247325139</v>
+        <v>0.954796908345342</v>
       </c>
       <c r="F69" t="n">
-        <v>15.20899164306364</v>
+        <v>11.26708093262625</v>
       </c>
       <c r="G69" t="n">
-        <v>4770.893964440103</v>
+        <v>3896.584220279708</v>
       </c>
       <c r="H69" t="n">
-        <v>52840.9797391469</v>
+        <v>34930.90651462713</v>
       </c>
       <c r="I69" t="n">
-        <v>470728.2740563955</v>
+        <v>254483.7336366217</v>
       </c>
       <c r="J69" t="n">
-        <v>131.038452892917</v>
+        <v>169.3631285090362</v>
       </c>
       <c r="K69" t="n">
-        <v>2738.548589857525</v>
+        <v>2553.087815870969</v>
       </c>
       <c r="L69" t="n">
-        <v>34736.04612159319</v>
+        <v>25143.07060552629</v>
       </c>
     </row>
     <row r="70">
@@ -3088,37 +3088,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>64157.48036648634</v>
+        <v>51502.55855643922</v>
       </c>
       <c r="C70" t="n">
-        <v>1958.522472796522</v>
+        <v>2498.010174816019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03052679845917994</v>
+        <v>0.04850264229258761</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9694732015408201</v>
+        <v>0.9514973577074124</v>
       </c>
       <c r="F70" t="n">
-        <v>14.64150689899521</v>
+        <v>10.77682844227633</v>
       </c>
       <c r="G70" t="n">
-        <v>4456.359589837951</v>
+        <v>3577.35246791376</v>
       </c>
       <c r="H70" t="n">
-        <v>48070.08577470679</v>
+        <v>31034.32229434743</v>
       </c>
       <c r="I70" t="n">
-        <v>417887.2943172486</v>
+        <v>219552.8271219945</v>
       </c>
       <c r="J70" t="n">
-        <v>130.8061452505931</v>
+        <v>166.8375452939678</v>
       </c>
       <c r="K70" t="n">
-        <v>2607.510136964609</v>
+        <v>2383.724687361933</v>
       </c>
       <c r="L70" t="n">
-        <v>31997.49753173566</v>
+        <v>22589.98278965531</v>
       </c>
     </row>
     <row r="71">
@@ -3126,37 +3126,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62198.95789368982</v>
+        <v>49004.54838162321</v>
       </c>
       <c r="C71" t="n">
-        <v>2029.033779438385</v>
+        <v>2550.046891893148</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03262166840329384</v>
+        <v>0.05203694302077111</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9673783315967062</v>
+        <v>0.9479630569792289</v>
       </c>
       <c r="F71" t="n">
-        <v>14.08679505170394</v>
+        <v>10.30069046858717</v>
       </c>
       <c r="G71" t="n">
-        <v>4154.154998824359</v>
+        <v>3272.924443084647</v>
       </c>
       <c r="H71" t="n">
-        <v>43613.72618486884</v>
+        <v>27456.96982643367</v>
       </c>
       <c r="I71" t="n">
-        <v>369817.2085425417</v>
+        <v>188518.5048276471</v>
       </c>
       <c r="J71" t="n">
-        <v>130.3033335264747</v>
+        <v>163.7624834193123</v>
       </c>
       <c r="K71" t="n">
-        <v>2476.703991714016</v>
+        <v>2216.887142067965</v>
       </c>
       <c r="L71" t="n">
-        <v>29389.98739477105</v>
+        <v>20206.25810229338</v>
       </c>
     </row>
     <row r="72">
@@ -3164,37 +3164,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>60169.92411425144</v>
+        <v>46454.50148973006</v>
       </c>
       <c r="C72" t="n">
-        <v>2097.413229552878</v>
+        <v>2593.16812223235</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03485816644159767</v>
+        <v>0.05582167581338993</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9651418335584023</v>
+        <v>0.9441783241866101</v>
       </c>
       <c r="F72" t="n">
-        <v>13.54496525085306</v>
+        <v>9.838683977641459</v>
       </c>
       <c r="G72" t="n">
-        <v>3864.076473035409</v>
+        <v>2983.280250315926</v>
       </c>
       <c r="H72" t="n">
-        <v>39459.57118604448</v>
+        <v>24184.04538334902</v>
       </c>
       <c r="I72" t="n">
-        <v>326203.4823576729</v>
+        <v>161061.5350012134</v>
       </c>
       <c r="J72" t="n">
-        <v>129.5140585001249</v>
+        <v>160.1266374938695</v>
       </c>
       <c r="K72" t="n">
-        <v>2346.400658187541</v>
+        <v>2053.124658648653</v>
       </c>
       <c r="L72" t="n">
-        <v>26913.28340305704</v>
+        <v>17989.37096022542</v>
       </c>
     </row>
     <row r="73">
@@ -3202,37 +3202,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>58072.51088469856</v>
+        <v>43861.3333674977</v>
       </c>
       <c r="C73" t="n">
-        <v>2162.939325176322</v>
+        <v>2626.127697262551</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03724549347402561</v>
+        <v>0.05987341231191512</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9627545065259744</v>
+        <v>0.9401265876880849</v>
       </c>
       <c r="F73" t="n">
-        <v>13.01611213738119</v>
+        <v>9.390805304905237</v>
       </c>
       <c r="G73" t="n">
-        <v>3585.944088649306</v>
+        <v>2708.412064732981</v>
       </c>
       <c r="H73" t="n">
-        <v>35595.49471300907</v>
+        <v>21200.7651330331</v>
       </c>
       <c r="I73" t="n">
-        <v>286743.9111716285</v>
+        <v>136877.4896178644</v>
       </c>
       <c r="J73" t="n">
-        <v>128.4233241846235</v>
+        <v>155.9248771753107</v>
       </c>
       <c r="K73" t="n">
-        <v>2216.886599687416</v>
+        <v>1892.998021154783</v>
       </c>
       <c r="L73" t="n">
-        <v>24566.88274486949</v>
+        <v>15936.24630157676</v>
       </c>
     </row>
     <row r="74">
@@ -3240,37 +3240,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55909.57155952224</v>
+        <v>41235.20567023515</v>
       </c>
       <c r="C74" t="n">
-        <v>2224.831614558189</v>
+        <v>2647.697671263339</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03979339409155724</v>
+        <v>0.06420963902635579</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9602066059084428</v>
+        <v>0.9357903609736442</v>
       </c>
       <c r="F74" t="n">
-        <v>12.50031529589471</v>
+        <v>8.957029958879355</v>
       </c>
       <c r="G74" t="n">
-        <v>3319.59983797817</v>
+        <v>2448.317492760248</v>
       </c>
       <c r="H74" t="n">
-        <v>32009.55062435977</v>
+        <v>18492.35306830012</v>
       </c>
       <c r="I74" t="n">
-        <v>251148.4164586194</v>
+        <v>115676.7244848313</v>
       </c>
       <c r="J74" t="n">
-        <v>127.0174467105143</v>
+        <v>151.1592138769692</v>
       </c>
       <c r="K74" t="n">
-        <v>2088.463275502792</v>
+        <v>1737.073143979473</v>
       </c>
       <c r="L74" t="n">
-        <v>22349.99614518208</v>
+        <v>14043.24828042198</v>
       </c>
     </row>
     <row r="75">
@@ -3278,37 +3278,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53684.73994496404</v>
+        <v>38587.50799897181</v>
       </c>
       <c r="C75" t="n">
-        <v>2282.255367674975</v>
+        <v>2656.702797932547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04251218074288288</v>
+        <v>0.06884877867737238</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9574878192571171</v>
+        <v>0.9311512213226276</v>
       </c>
       <c r="F75" t="n">
-        <v>11.99763876029714</v>
+        <v>8.537312534487135</v>
       </c>
       <c r="G75" t="n">
-        <v>3064.905474422341</v>
+        <v>2202.992221469423</v>
       </c>
       <c r="H75" t="n">
-        <v>28689.9507863816</v>
+        <v>16044.03557553987</v>
       </c>
       <c r="I75" t="n">
-        <v>219138.8658342596</v>
+        <v>97184.37141653118</v>
       </c>
       <c r="J75" t="n">
-        <v>125.2844379697055</v>
+        <v>145.8397345037704</v>
       </c>
       <c r="K75" t="n">
-        <v>1961.445828792278</v>
+        <v>1585.913930102503</v>
       </c>
       <c r="L75" t="n">
-        <v>20261.53286967929</v>
+        <v>12306.17513644251</v>
       </c>
     </row>
     <row r="76">
@@ -3316,37 +3316,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51402.48457728907</v>
+        <v>35930.80520103926</v>
       </c>
       <c r="C76" t="n">
-        <v>2334.328578464405</v>
+        <v>2652.060157296962</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04541275772291697</v>
+        <v>0.0738102066585542</v>
       </c>
       <c r="E76" t="n">
-        <v>0.954587242277083</v>
+        <v>0.9261897933414458</v>
       </c>
       <c r="F76" t="n">
-        <v>11.50813057780491</v>
+        <v>8.131586739553173</v>
       </c>
       <c r="G76" t="n">
-        <v>2821.740056667161</v>
+        <v>1972.422016909136</v>
       </c>
       <c r="H76" t="n">
-        <v>25625.04531195926</v>
+        <v>13841.04335407045</v>
       </c>
       <c r="I76" t="n">
-        <v>190448.915047878</v>
+        <v>81140.33584099132</v>
       </c>
       <c r="J76" t="n">
-        <v>123.2144207216113</v>
+        <v>139.9854583518708</v>
       </c>
       <c r="K76" t="n">
-        <v>1836.161390822572</v>
+        <v>1440.074195598733</v>
       </c>
       <c r="L76" t="n">
-        <v>18300.08704088701</v>
+        <v>10720.26120634</v>
       </c>
     </row>
     <row r="77">
@@ -3354,37 +3354,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49068.15599882467</v>
+        <v>33278.7450437423</v>
       </c>
       <c r="C77" t="n">
-        <v>2380.131610631949</v>
+        <v>2632.823335931791</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04850664473083033</v>
+        <v>0.07911426144438893</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9514933552691697</v>
+        <v>0.9208857385556111</v>
       </c>
       <c r="F77" t="n">
-        <v>11.03182243620395</v>
+        <v>7.739765536629855</v>
       </c>
       <c r="G77" t="n">
-        <v>2589.997172227582</v>
+        <v>1756.574173291529</v>
       </c>
       <c r="H77" t="n">
-        <v>22803.3052552921</v>
+        <v>11868.62133716131</v>
       </c>
       <c r="I77" t="n">
-        <v>164823.8697359188</v>
+        <v>67299.29248692089</v>
       </c>
       <c r="J77" t="n">
-        <v>120.8000698914408</v>
+        <v>133.6250657617763</v>
       </c>
       <c r="K77" t="n">
-        <v>1712.946970100961</v>
+        <v>1300.088737246862</v>
       </c>
       <c r="L77" t="n">
-        <v>16463.92565006444</v>
+        <v>9280.187010741269</v>
       </c>
     </row>
     <row r="78">
@@ -3392,37 +3392,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46688.02438819272</v>
+        <v>30645.92170781051</v>
       </c>
       <c r="C78" t="n">
-        <v>2418.719777425104</v>
+        <v>2598.230122163598</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05180599969950306</v>
+        <v>0.08478224760005848</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9481940003004969</v>
+        <v>0.9152177523999415</v>
       </c>
       <c r="F78" t="n">
-        <v>10.56872935883465</v>
+        <v>7.361741401257085</v>
       </c>
       <c r="G78" t="n">
-        <v>2369.581826481234</v>
+        <v>1555.388562403155</v>
       </c>
       <c r="H78" t="n">
-        <v>20213.30808306452</v>
+        <v>10112.04716386978</v>
       </c>
       <c r="I78" t="n">
-        <v>142020.5644806267</v>
+        <v>55430.67114975958</v>
       </c>
       <c r="J78" t="n">
-        <v>118.0370724909949</v>
+        <v>126.7974405884263</v>
       </c>
       <c r="K78" t="n">
-        <v>1592.14690020952</v>
+        <v>1166.463671485086</v>
       </c>
       <c r="L78" t="n">
-        <v>14750.97867996348</v>
+        <v>7980.098273494406</v>
       </c>
     </row>
     <row r="79">
@@ -3430,37 +3430,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44269.30461076761</v>
+        <v>28047.69158564692</v>
       </c>
       <c r="C79" t="n">
-        <v>2449.13909553661</v>
+        <v>2547.75216956537</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05532364054665784</v>
+        <v>0.09083642986395191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9446763594533422</v>
+        <v>0.9091635701360481</v>
       </c>
       <c r="F79" t="n">
-        <v>10.11884947135683</v>
+        <v>6.997386696514349</v>
       </c>
       <c r="G79" t="n">
-        <v>2160.406991433268</v>
+        <v>1368.768484799223</v>
       </c>
       <c r="H79" t="n">
-        <v>17843.72625658329</v>
+        <v>8556.658601466625</v>
       </c>
       <c r="I79" t="n">
-        <v>121807.2563975622</v>
+        <v>45318.6239858898</v>
       </c>
       <c r="J79" t="n">
-        <v>114.9245959889814</v>
+        <v>119.5519639129349</v>
       </c>
       <c r="K79" t="n">
-        <v>1474.109827718525</v>
+        <v>1039.66623089666</v>
       </c>
       <c r="L79" t="n">
-        <v>13158.83177975396</v>
+        <v>6813.634602009321</v>
       </c>
     </row>
     <row r="80">
@@ -3468,37 +3468,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41820.165515231</v>
+        <v>25499.93941608155</v>
       </c>
       <c r="C80" t="n">
-        <v>2470.445374187933</v>
+        <v>2481.144527793682</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05907306543988189</v>
+        <v>0.0973000165729393</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9409269345601181</v>
+        <v>0.9026999834270607</v>
       </c>
       <c r="F80" t="n">
-        <v>9.68216384384065</v>
+        <v>6.646554162461738</v>
       </c>
       <c r="G80" t="n">
-        <v>1962.389818850699</v>
+        <v>1196.571579163241</v>
       </c>
       <c r="H80" t="n">
-        <v>15683.31926515001</v>
+        <v>7187.890116667401</v>
       </c>
       <c r="I80" t="n">
-        <v>103963.5301409789</v>
+        <v>36761.96538442317</v>
       </c>
       <c r="J80" t="n">
-        <v>111.4657521033897</v>
+        <v>111.9484946954726</v>
       </c>
       <c r="K80" t="n">
-        <v>1359.185231729543</v>
+        <v>920.1142669837247</v>
       </c>
       <c r="L80" t="n">
-        <v>11684.72195203543</v>
+        <v>5773.968371112661</v>
       </c>
     </row>
     <row r="81">
@@ -3506,37 +3506,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39349.72014104307</v>
+        <v>23018.79488828786</v>
       </c>
       <c r="C81" t="n">
-        <v>2481.726687618262</v>
+        <v>2398.492374577971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06306847110279035</v>
+        <v>0.1041971304848084</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9369315288972097</v>
+        <v>0.8958028695151916</v>
       </c>
       <c r="F81" t="n">
-        <v>9.258636411161191</v>
+        <v>6.309077517789042</v>
       </c>
       <c r="G81" t="n">
-        <v>1775.447535253052</v>
+        <v>1038.601100653797</v>
       </c>
       <c r="H81" t="n">
-        <v>13720.92944629931</v>
+        <v>5991.31853750416</v>
       </c>
       <c r="I81" t="n">
-        <v>88280.21087582884</v>
+        <v>29574.07526775577</v>
       </c>
       <c r="J81" t="n">
-        <v>107.6680399727187</v>
+        <v>104.0569753908551</v>
       </c>
       <c r="K81" t="n">
-        <v>1247.719479626154</v>
+        <v>808.1657722882524</v>
       </c>
       <c r="L81" t="n">
-        <v>10325.53672030589</v>
+        <v>4853.854104128936</v>
       </c>
     </row>
     <row r="82">
@@ -3544,37 +3544,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36867.99345342481</v>
+        <v>20620.30251370989</v>
       </c>
       <c r="C82" t="n">
-        <v>2482.129128633119</v>
+        <v>2300.251756899409</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06732476861722303</v>
+        <v>0.111552764823408</v>
       </c>
       <c r="E82" t="n">
-        <v>0.932675231382777</v>
+        <v>0.888447235176592</v>
       </c>
       <c r="F82" t="n">
-        <v>8.848213974046013</v>
+        <v>5.984772169721794</v>
       </c>
       <c r="G82" t="n">
-        <v>1599.493051616754</v>
+        <v>894.5979290839499</v>
       </c>
       <c r="H82" t="n">
-        <v>11945.48191104626</v>
+        <v>4952.717436850363</v>
       </c>
       <c r="I82" t="n">
-        <v>74559.28142952954</v>
+        <v>23582.75673025161</v>
       </c>
       <c r="J82" t="n">
-        <v>103.543749620148</v>
+        <v>95.95660807174011</v>
       </c>
       <c r="K82" t="n">
-        <v>1140.051439653435</v>
+        <v>704.1087968973972</v>
       </c>
       <c r="L82" t="n">
-        <v>9077.817240679735</v>
+        <v>4045.688331840684</v>
       </c>
     </row>
     <row r="83">
@@ -3582,37 +3582,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34385.86432479169</v>
+        <v>18320.05075681048</v>
       </c>
       <c r="C83" t="n">
-        <v>2470.885550067378</v>
+        <v>2187.280729461302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07185759609613496</v>
+        <v>0.1193927221325072</v>
       </c>
       <c r="E83" t="n">
-        <v>0.928142403903865</v>
+        <v>0.8806072778674928</v>
       </c>
       <c r="F83" t="n">
-        <v>8.450826282444552</v>
+        <v>5.673436026993337</v>
       </c>
       <c r="G83" t="n">
-        <v>1434.430338472885</v>
+        <v>764.2337083551348</v>
       </c>
       <c r="H83" t="n">
-        <v>10345.98885942951</v>
+        <v>4058.119507766412</v>
       </c>
       <c r="I83" t="n">
-        <v>62613.79951848328</v>
+        <v>18630.03929340125</v>
       </c>
       <c r="J83" t="n">
-        <v>99.11030374041027</v>
+        <v>87.73456037109629</v>
       </c>
       <c r="K83" t="n">
-        <v>1036.507690033287</v>
+        <v>608.152188825657</v>
       </c>
       <c r="L83" t="n">
-        <v>7937.765801026301</v>
+        <v>3341.579534943286</v>
       </c>
     </row>
     <row r="84">
@@ -3620,37 +3620,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31914.97877472431</v>
+        <v>16132.77002734918</v>
       </c>
       <c r="C84" t="n">
-        <v>2447.346769964409</v>
+        <v>2060.857044853963</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07668332751336915</v>
+        <v>0.1277435332779356</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9233166724866309</v>
+        <v>0.8722564667220644</v>
       </c>
       <c r="F84" t="n">
-        <v>8.066386202163097</v>
+        <v>5.374850409505469</v>
       </c>
       <c r="G84" t="n">
-        <v>1280.149637098902</v>
+        <v>647.1055438165333</v>
       </c>
       <c r="H84" t="n">
-        <v>8911.558520956625</v>
+        <v>3293.885799411278</v>
       </c>
       <c r="I84" t="n">
-        <v>52267.81065905377</v>
+        <v>14571.91978563483</v>
       </c>
       <c r="J84" t="n">
-        <v>94.39051335363051</v>
+        <v>79.48418131813843</v>
       </c>
       <c r="K84" t="n">
-        <v>937.3973862928767</v>
+        <v>520.4176284545608</v>
       </c>
       <c r="L84" t="n">
-        <v>6901.258110993013</v>
+        <v>2733.427346117629</v>
       </c>
     </row>
     <row r="85">
@@ -3658,37 +3658,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29467.6320047599</v>
+        <v>14071.91298249522</v>
       </c>
       <c r="C85" t="n">
-        <v>2411.014448453616</v>
+        <v>1922.678591712388</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08181907687947798</v>
+        <v>0.1366323536895167</v>
       </c>
       <c r="E85" t="n">
-        <v>0.918180923120522</v>
+        <v>0.8633676463104833</v>
       </c>
       <c r="F85" t="n">
-        <v>7.694789964948515</v>
+        <v>5.088781047190322</v>
       </c>
       <c r="G85" t="n">
-        <v>1136.522599241467</v>
+        <v>542.7326877362204</v>
       </c>
       <c r="H85" t="n">
-        <v>7631.408883857723</v>
+        <v>2646.780255594745</v>
       </c>
       <c r="I85" t="n">
-        <v>43356.25213809714</v>
+        <v>11278.03398622356</v>
       </c>
       <c r="J85" t="n">
-        <v>89.41272107942473</v>
+        <v>71.30273514388197</v>
       </c>
       <c r="K85" t="n">
-        <v>843.0068729392463</v>
+        <v>440.9334471364223</v>
       </c>
       <c r="L85" t="n">
-        <v>5963.860724700137</v>
+        <v>2213.009717663069</v>
       </c>
     </row>
     <row r="86">
@@ -3696,37 +3696,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27056.61755630629</v>
+        <v>12149.23439078283</v>
       </c>
       <c r="C86" t="n">
-        <v>2361.574547873419</v>
+        <v>1774.843183928566</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08728269684704137</v>
+        <v>0.1460868336917652</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9127173031529586</v>
+        <v>0.8539131663082348</v>
       </c>
       <c r="F86" t="n">
-        <v>7.335917501418305</v>
+        <v>4.81497915957359</v>
       </c>
       <c r="G86" t="n">
-        <v>1003.397470498909</v>
+        <v>450.5556184486376</v>
       </c>
       <c r="H86" t="n">
-        <v>6494.886284616255</v>
+        <v>2104.047567858524</v>
       </c>
       <c r="I86" t="n">
-        <v>35724.84325423942</v>
+        <v>8631.25373062881</v>
       </c>
       <c r="J86" t="n">
-        <v>84.21080503331191</v>
+        <v>63.28869586653514</v>
       </c>
       <c r="K86" t="n">
-        <v>753.5941518598214</v>
+        <v>369.6307119925404</v>
       </c>
       <c r="L86" t="n">
-        <v>5120.853851760892</v>
+        <v>1772.076270526647</v>
       </c>
     </row>
     <row r="87">
@@ -3734,37 +3734,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>24695.04300843287</v>
+        <v>10374.39120685426</v>
       </c>
       <c r="C87" t="n">
-        <v>2298.929976570143</v>
+        <v>1619.805151383193</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09309277071455613</v>
+        <v>0.1561349595447107</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9069072292854439</v>
+        <v>0.8438650404552893</v>
       </c>
       <c r="F87" t="n">
-        <v>6.989632855434868</v>
+        <v>4.553182606644601</v>
       </c>
       <c r="G87" t="n">
-        <v>880.5944550617927</v>
+        <v>369.9378603340779</v>
       </c>
       <c r="H87" t="n">
-        <v>5491.488814117346</v>
+        <v>1653.491949409887</v>
       </c>
       <c r="I87" t="n">
-        <v>29229.95696962317</v>
+        <v>6527.206162770287</v>
       </c>
       <c r="J87" t="n">
-        <v>78.82401701690091</v>
+        <v>55.53868543972892</v>
       </c>
       <c r="K87" t="n">
-        <v>669.3833468265096</v>
+        <v>306.3420161260053</v>
       </c>
       <c r="L87" t="n">
-        <v>4367.259699901071</v>
+        <v>1402.445558534106</v>
       </c>
     </row>
     <row r="88">
@@ -3772,37 +3772,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22396.11303186272</v>
+        <v>8754.586055471073</v>
       </c>
       <c r="C88" t="n">
-        <v>2223.230711652836</v>
+        <v>1460.307515484275</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09926859667522969</v>
+        <v>0.1668048616155499</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9007314033247703</v>
+        <v>0.8331951383844501</v>
       </c>
       <c r="F88" t="n">
-        <v>6.655784677720651</v>
+        <v>4.303117100878824</v>
       </c>
       <c r="G88" t="n">
-        <v>767.901420542515</v>
+        <v>300.1707956507306</v>
       </c>
       <c r="H88" t="n">
-        <v>4610.894359055554</v>
+        <v>1283.554089075809</v>
       </c>
       <c r="I88" t="n">
-        <v>23738.46815550582</v>
+        <v>4873.7142133604</v>
       </c>
       <c r="J88" t="n">
-        <v>73.29663115593351</v>
+        <v>48.14418079764386</v>
       </c>
       <c r="K88" t="n">
-        <v>590.5593298096087</v>
+        <v>250.8033306862764</v>
       </c>
       <c r="L88" t="n">
-        <v>3697.87635307456</v>
+        <v>1096.103542408101</v>
       </c>
     </row>
     <row r="89">
@@ -3810,37 +3810,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20172.88232020989</v>
+        <v>7294.278539986798</v>
       </c>
       <c r="C89" t="n">
-        <v>2134.899424662352</v>
+        <v>1299.290344690341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1058301630265069</v>
+        <v>0.1781245859433129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8941698369734931</v>
+        <v>0.8218754140566871</v>
       </c>
       <c r="F89" t="n">
-        <v>6.3342067957201</v>
+        <v>4.064497469647984</v>
       </c>
       <c r="G89" t="n">
-        <v>665.0701193657154</v>
+        <v>240.4815842511355</v>
       </c>
       <c r="H89" t="n">
-        <v>3842.99293851304</v>
+        <v>983.3832934250781</v>
       </c>
       <c r="I89" t="n">
-        <v>19127.57379645027</v>
+        <v>3590.160124284591</v>
       </c>
       <c r="J89" t="n">
-        <v>67.67738380435779</v>
+        <v>41.1881563670437</v>
       </c>
       <c r="K89" t="n">
-        <v>517.2626986536753</v>
+        <v>202.6591498886325</v>
       </c>
       <c r="L89" t="n">
-        <v>3107.317023264951</v>
+        <v>845.3002117218243</v>
       </c>
     </row>
     <row r="90">
@@ -3848,37 +3848,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18037.98289554754</v>
+        <v>5994.988195296456</v>
       </c>
       <c r="C90" t="n">
-        <v>2034.650431481878</v>
+        <v>1139.778098708036</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1127981129189399</v>
+        <v>0.1901218253611046</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8872018870810601</v>
+        <v>0.8098781746388954</v>
       </c>
       <c r="F90" t="n">
-        <v>6.024718855947106</v>
+        <v>3.837028956802607</v>
       </c>
       <c r="G90" t="n">
-        <v>571.8131155857533</v>
+        <v>190.0441361821251</v>
       </c>
       <c r="H90" t="n">
-        <v>3177.922819147324</v>
+        <v>742.9017091739427</v>
       </c>
       <c r="I90" t="n">
-        <v>15284.58085793723</v>
+        <v>2606.776830859513</v>
       </c>
       <c r="J90" t="n">
-        <v>62.01869267343523</v>
+        <v>34.7418635289615</v>
       </c>
       <c r="K90" t="n">
-        <v>449.5853148493175</v>
+        <v>161.4709935215888</v>
       </c>
       <c r="L90" t="n">
-        <v>2590.054324611276</v>
+        <v>642.6410618331919</v>
       </c>
     </row>
     <row r="91">
@@ -3886,37 +3886,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16003.33246406566</v>
+        <v>4855.21009658842</v>
       </c>
       <c r="C91" t="n">
-        <v>1923.49969446613</v>
+        <v>984.7512212632259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1201936970806057</v>
+        <v>0.2028236063265676</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8798063029193943</v>
+        <v>0.7971763936734324</v>
       </c>
       <c r="F91" t="n">
-        <v>5.727127034325541</v>
+        <v>3.620408551928818</v>
       </c>
       <c r="G91" t="n">
-        <v>487.8016107744044</v>
+        <v>147.9928828000049</v>
       </c>
       <c r="H91" t="n">
-        <v>2606.109703561571</v>
+        <v>552.8575729918175</v>
       </c>
       <c r="I91" t="n">
-        <v>12106.6580387899</v>
+        <v>1863.875121685571</v>
       </c>
       <c r="J91" t="n">
-        <v>56.37565292389449</v>
+        <v>28.86197134630966</v>
       </c>
       <c r="K91" t="n">
-        <v>387.5666221758823</v>
+        <v>126.7291299926273</v>
       </c>
       <c r="L91" t="n">
-        <v>2140.469009761958</v>
+        <v>481.1700683116031</v>
       </c>
     </row>
     <row r="92">
@@ -3924,37 +3924,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14079.83276959953</v>
+        <v>3870.458875325194</v>
       </c>
       <c r="C92" t="n">
-        <v>1802.763664369774</v>
+        <v>837.0096747404634</v>
       </c>
       <c r="D92" t="n">
-        <v>0.128038712807883</v>
+        <v>0.2162559277083491</v>
       </c>
       <c r="E92" t="n">
-        <v>0.871961287192117</v>
+        <v>0.7837440722916509</v>
       </c>
       <c r="F92" t="n">
-        <v>5.441224809348106</v>
+        <v>3.414326335668076</v>
       </c>
       <c r="G92" t="n">
-        <v>412.6643574361096</v>
+        <v>113.4388774998489</v>
       </c>
       <c r="H92" t="n">
-        <v>2118.308092787167</v>
+        <v>404.8646901918125</v>
       </c>
       <c r="I92" t="n">
-        <v>9500.54833522833</v>
+        <v>1311.017548693753</v>
       </c>
       <c r="J92" t="n">
-        <v>50.80482033443427</v>
+        <v>23.58829778069576</v>
       </c>
       <c r="K92" t="n">
-        <v>331.1909692519877</v>
+        <v>97.86715864631763</v>
       </c>
       <c r="L92" t="n">
-        <v>1752.902387586076</v>
+        <v>354.4409383189758</v>
       </c>
     </row>
     <row r="93">
@@ -3962,37 +3962,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12277.06910522975</v>
+        <v>3033.449200584731</v>
       </c>
       <c r="C93" t="n">
-        <v>1674.045004669849</v>
+        <v>699.0381898211847</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1363554273679818</v>
+        <v>0.2304433480166529</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8636445726320182</v>
+        <v>0.7695566519833471</v>
       </c>
       <c r="F93" t="n">
-        <v>5.166793792256307</v>
+        <v>3.218466829543793</v>
       </c>
       <c r="G93" t="n">
-        <v>345.9878310464404</v>
+        <v>85.48754596915894</v>
       </c>
       <c r="H93" t="n">
-        <v>1705.643735351057</v>
+        <v>291.4258126919637</v>
       </c>
       <c r="I93" t="n">
-        <v>7382.240242441165</v>
+        <v>906.1528585019407</v>
       </c>
       <c r="J93" t="n">
-        <v>45.36280631390236</v>
+        <v>18.94234260275049</v>
       </c>
       <c r="K93" t="n">
-        <v>280.3861489175535</v>
+        <v>74.27886086562187</v>
       </c>
       <c r="L93" t="n">
-        <v>1421.711418334088</v>
+        <v>256.5737796726582</v>
       </c>
     </row>
     <row r="94">
@@ -4000,37 +4000,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10603.02410055991</v>
+        <v>2334.411010763547</v>
       </c>
       <c r="C94" t="n">
-        <v>1539.203726505986</v>
+        <v>572.8843465232333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.145166483817075</v>
+        <v>0.2454085179866644</v>
       </c>
       <c r="E94" t="n">
-        <v>0.854833516182925</v>
+        <v>0.7545914820133356</v>
       </c>
       <c r="F94" t="n">
-        <v>4.903604607893176</v>
+        <v>3.032510338956332</v>
       </c>
       <c r="G94" t="n">
-        <v>287.3178004615211</v>
+        <v>63.25722082913312</v>
       </c>
       <c r="H94" t="n">
-        <v>1359.655904304616</v>
+        <v>205.9382667228047</v>
       </c>
       <c r="I94" t="n">
-        <v>5676.596507090108</v>
+        <v>614.727045809977</v>
       </c>
       <c r="J94" t="n">
-        <v>40.10472579909133</v>
+        <v>14.92678924580069</v>
       </c>
       <c r="K94" t="n">
-        <v>235.0233426036511</v>
+        <v>55.33651826287137</v>
       </c>
       <c r="L94" t="n">
-        <v>1141.325269416534</v>
+        <v>182.2949188070363</v>
       </c>
     </row>
     <row r="95">
@@ -4038,37 +4038,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9063.820374053919</v>
+        <v>1761.526664240313</v>
       </c>
       <c r="C95" t="n">
-        <v>1400.312999049603</v>
+        <v>460.0608361056541</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1544947871052407</v>
+        <v>0.2611716560669053</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8455052128947593</v>
+        <v>0.7388283439330947</v>
       </c>
       <c r="F95" t="n">
-        <v>4.651417819409474</v>
+        <v>2.856134278377099</v>
       </c>
       <c r="G95" t="n">
-        <v>236.1623900292943</v>
+        <v>45.89746155144269</v>
       </c>
       <c r="H95" t="n">
-        <v>1072.338103843095</v>
+        <v>142.6810458936716</v>
       </c>
       <c r="I95" t="n">
-        <v>4316.940602785493</v>
+        <v>408.7887790871722</v>
       </c>
       <c r="J95" t="n">
-        <v>35.08255593253907</v>
+        <v>11.52607311793981</v>
       </c>
       <c r="K95" t="n">
-        <v>194.9186168045598</v>
+        <v>40.40972901707068</v>
       </c>
       <c r="L95" t="n">
-        <v>906.3019268128836</v>
+        <v>126.958400544165</v>
       </c>
     </row>
     <row r="96">
@@ -4076,37 +4076,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7663.507375004317</v>
+        <v>1301.465828134659</v>
       </c>
       <c r="C96" t="n">
-        <v>1259.599884549784</v>
+        <v>361.4820885739402</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1643633682219917</v>
+        <v>0.2777499652772586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8356366317780083</v>
+        <v>0.7222500347227414</v>
       </c>
       <c r="F96" t="n">
-        <v>4.409984889621496</v>
+        <v>2.689014468278792</v>
       </c>
       <c r="G96" t="n">
-        <v>191.9966652494747</v>
+        <v>32.60610145075508</v>
       </c>
       <c r="H96" t="n">
-        <v>836.1757138138008</v>
+        <v>96.78358434222896</v>
       </c>
       <c r="I96" t="n">
-        <v>3244.602498942397</v>
+        <v>266.1077331935006</v>
       </c>
       <c r="J96" t="n">
-        <v>30.34347941134027</v>
+        <v>8.7080226401673</v>
       </c>
       <c r="K96" t="n">
-        <v>159.8360608720207</v>
+        <v>28.88365589913088</v>
       </c>
       <c r="L96" t="n">
-        <v>711.3833100083239</v>
+        <v>86.5486715270943</v>
       </c>
     </row>
     <row r="97">
@@ -4114,37 +4114,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6403.907490454533</v>
+        <v>939.983739560719</v>
       </c>
       <c r="C97" t="n">
-        <v>1119.372444536985</v>
+        <v>277.4427722837186</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1747952240418037</v>
+        <v>0.2951569911340971</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8252047759581963</v>
+        <v>0.7048430088659029</v>
       </c>
       <c r="F97" t="n">
-        <v>4.179049171530583</v>
+        <v>2.530826393963574</v>
       </c>
       <c r="G97" t="n">
-        <v>154.2686987131546</v>
+        <v>22.64399798555873</v>
       </c>
       <c r="H97" t="n">
-        <v>644.1790485643262</v>
+        <v>64.17748289147389</v>
       </c>
       <c r="I97" t="n">
-        <v>2408.426785128595</v>
+        <v>169.3241488512716</v>
       </c>
       <c r="J97" t="n">
-        <v>25.92829976365709</v>
+        <v>6.42647530063853</v>
       </c>
       <c r="K97" t="n">
-        <v>129.4925814606805</v>
+        <v>20.17563325896358</v>
       </c>
       <c r="L97" t="n">
-        <v>551.5472491363031</v>
+        <v>57.66501562796343</v>
       </c>
     </row>
     <row r="98">
@@ -4152,37 +4152,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5284.535045917548</v>
+        <v>662.5409672770004</v>
       </c>
       <c r="C98" t="n">
-        <v>981.9359999460876</v>
+        <v>207.641612512259</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1858131304672983</v>
+        <v>0.3134019219455249</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8141868695327017</v>
+        <v>0.6865980780544751</v>
       </c>
       <c r="F98" t="n">
-        <v>3.958346920324851</v>
+        <v>2.381246417171942</v>
       </c>
       <c r="G98" t="n">
-        <v>122.40698746053</v>
+        <v>15.34659968547563</v>
       </c>
       <c r="H98" t="n">
-        <v>489.9103498511716</v>
+        <v>41.53348490591516</v>
       </c>
       <c r="I98" t="n">
-        <v>1764.247736564269</v>
+        <v>105.1466659597977</v>
       </c>
       <c r="J98" t="n">
-        <v>21.87002454914655</v>
+        <v>4.624667150727548</v>
       </c>
       <c r="K98" t="n">
-        <v>103.5642816970234</v>
+        <v>13.74915795832505</v>
       </c>
       <c r="L98" t="n">
-        <v>422.0546676756227</v>
+        <v>37.48938236899985</v>
       </c>
     </row>
     <row r="99">
@@ -4190,37 +4190,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4302.59904597146</v>
+        <v>454.8993547647414</v>
       </c>
       <c r="C99" t="n">
-        <v>849.5026878814019</v>
+        <v>151.2489564220377</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1974394264501115</v>
+        <v>0.3324888348110728</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8025605735498885</v>
+        <v>0.6675111651889272</v>
       </c>
       <c r="F99" t="n">
-        <v>3.747608319094793</v>
+        <v>2.239952932147129</v>
       </c>
       <c r="G99" t="n">
-        <v>95.82900185520921</v>
+        <v>10.13167870069133</v>
       </c>
       <c r="H99" t="n">
-        <v>367.5033623906417</v>
+        <v>26.18688522043952</v>
       </c>
       <c r="I99" t="n">
-        <v>1274.337386713098</v>
+        <v>63.61318105388256</v>
       </c>
       <c r="J99" t="n">
-        <v>18.19271458036459</v>
+        <v>3.239105813339446</v>
       </c>
       <c r="K99" t="n">
-        <v>81.69425714787681</v>
+        <v>9.1244908075975</v>
       </c>
       <c r="L99" t="n">
-        <v>318.4903859785993</v>
+        <v>23.7402244106748</v>
       </c>
     </row>
     <row r="100">
@@ -4228,37 +4228,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3453.096358090058</v>
+        <v>303.6503983427037</v>
       </c>
       <c r="C100" t="n">
-        <v>724.0996876412266</v>
+        <v>107.0112263423681</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2096957665096069</v>
+        <v>0.3524158931666999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7903042334903931</v>
+        <v>0.6475841068333001</v>
       </c>
       <c r="F100" t="n">
-        <v>3.546558510505894</v>
+        <v>2.106627458665304</v>
       </c>
       <c r="G100" t="n">
-        <v>73.95055643425965</v>
+        <v>6.502892937325293</v>
       </c>
       <c r="H100" t="n">
-        <v>271.6743605354324</v>
+        <v>16.05520651974819</v>
       </c>
       <c r="I100" t="n">
-        <v>906.8340243224561</v>
+        <v>37.42629583344304</v>
       </c>
       <c r="J100" t="n">
-        <v>14.91069097624425</v>
+        <v>2.203579637187421</v>
       </c>
       <c r="K100" t="n">
-        <v>63.50154256751222</v>
+        <v>5.885384994258054</v>
       </c>
       <c r="L100" t="n">
-        <v>236.7961288307225</v>
+        <v>14.6157336030773</v>
       </c>
     </row>
     <row r="101">
@@ -4266,37 +4266,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2728.996670448832</v>
+        <v>196.6391720003356</v>
       </c>
       <c r="C101" t="n">
-        <v>607.4824077827107</v>
+        <v>73.38072562353391</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2226028394834206</v>
+        <v>0.3731745047391101</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7773971605165794</v>
+        <v>0.6268254952608899</v>
       </c>
       <c r="F101" t="n">
-        <v>3.354918626780868</v>
+        <v>1.980955665391087</v>
       </c>
       <c r="G101" t="n">
-        <v>56.19561328746695</v>
+        <v>4.049202033317669</v>
       </c>
       <c r="H101" t="n">
-        <v>197.7238041011728</v>
+        <v>9.552313582422899</v>
       </c>
       <c r="I101" t="n">
-        <v>635.1596637870236</v>
+        <v>21.37108931369485</v>
       </c>
       <c r="J101" t="n">
-        <v>12.02817604259845</v>
+        <v>1.452941310934537</v>
       </c>
       <c r="K101" t="n">
-        <v>48.59085159126798</v>
+        <v>3.681805357070633</v>
       </c>
       <c r="L101" t="n">
-        <v>173.2945862632103</v>
+        <v>8.730348608819249</v>
       </c>
     </row>
     <row r="102">
@@ -4304,37 +4304,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2121.514262666121</v>
+        <v>123.2584463768017</v>
       </c>
       <c r="C102" t="n">
-        <v>501.0593477077775</v>
+        <v>48.65608094513433</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2361800514497098</v>
+        <v>0.3947484523404786</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7638199485502902</v>
+        <v>0.6052515476595214</v>
       </c>
       <c r="F102" t="n">
-        <v>3.172406810546849</v>
+        <v>1.862628317750064</v>
       </c>
       <c r="G102" t="n">
-        <v>42.00606750304284</v>
+        <v>2.440522182640144</v>
       </c>
       <c r="H102" t="n">
-        <v>141.5281908137058</v>
+        <v>5.503111549105229</v>
       </c>
       <c r="I102" t="n">
-        <v>437.435859685851</v>
+        <v>11.81877573127195</v>
       </c>
       <c r="J102" t="n">
-        <v>9.539418446219846</v>
+        <v>0.9263388024036575</v>
       </c>
       <c r="K102" t="n">
-        <v>36.56267554866953</v>
+        <v>2.228864046136096</v>
       </c>
       <c r="L102" t="n">
-        <v>124.7037346719423</v>
+        <v>5.048543251748614</v>
       </c>
     </row>
     <row r="103">
@@ -4342,37 +4342,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1620.454914958343</v>
+        <v>74.60236543166734</v>
       </c>
       <c r="C103" t="n">
-        <v>405.835108403661</v>
+        <v>31.11761750054707</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2504451710796864</v>
+        <v>0.4171130140511364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7495548289203136</v>
+        <v>0.5828869859488636</v>
       </c>
       <c r="F103" t="n">
-        <v>2.998739219391961</v>
+        <v>1.75134214529361</v>
       </c>
       <c r="G103" t="n">
-        <v>30.85103107593673</v>
+        <v>1.420317142442635</v>
       </c>
       <c r="H103" t="n">
-        <v>99.52212331066299</v>
+        <v>3.062589366465085</v>
       </c>
       <c r="I103" t="n">
-        <v>295.9076688721452</v>
+        <v>6.315664182166719</v>
       </c>
       <c r="J103" t="n">
-        <v>7.429318995959322</v>
+        <v>0.5696468886468699</v>
       </c>
       <c r="K103" t="n">
-        <v>27.02325710244968</v>
+        <v>1.302525243732439</v>
       </c>
       <c r="L103" t="n">
-        <v>88.14105912327274</v>
+        <v>2.819679205612518</v>
       </c>
     </row>
     <row r="104">
@@ -4380,37 +4380,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1214.619806554682</v>
+        <v>43.48474793112027</v>
       </c>
       <c r="C104" t="n">
-        <v>322.3770237636083</v>
+        <v>19.14346860729952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2654139361336809</v>
+        <v>0.440234093977565</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7345860638663191</v>
+        <v>0.559765906022435</v>
       </c>
       <c r="F104" t="n">
-        <v>2.833631007342368</v>
+        <v>1.646800624235226</v>
       </c>
       <c r="G104" t="n">
-        <v>22.23513396167214</v>
+        <v>0.7960426713941251</v>
       </c>
       <c r="H104" t="n">
-        <v>68.67109223472625</v>
+        <v>1.64227222402245</v>
       </c>
       <c r="I104" t="n">
-        <v>196.3855455614822</v>
+        <v>3.253074815701634</v>
       </c>
       <c r="J104" t="n">
-        <v>5.674533101179895</v>
+        <v>0.3369664655852627</v>
       </c>
       <c r="K104" t="n">
-        <v>19.59393810649036</v>
+        <v>0.7328783550855693</v>
       </c>
       <c r="L104" t="n">
-        <v>61.11780202082309</v>
+        <v>1.51715396188008</v>
       </c>
     </row>
     <row r="105">
@@ -4418,37 +4418,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>892.242782791074</v>
+        <v>24.34127932382074</v>
       </c>
       <c r="C105" t="n">
-        <v>250.8091075737486</v>
+        <v>11.29599396184089</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2810996204297431</v>
+        <v>0.4640673898674859</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7189003795702569</v>
+        <v>0.5359326101325141</v>
       </c>
       <c r="F105" t="n">
-        <v>2.676797276904296</v>
+        <v>1.548714671431352</v>
       </c>
       <c r="G105" t="n">
-        <v>15.70540340042794</v>
+        <v>0.4284591799860115</v>
       </c>
       <c r="H105" t="n">
-        <v>46.43595827305411</v>
+        <v>0.8462295526283251</v>
       </c>
       <c r="I105" t="n">
-        <v>127.7144533267559</v>
+        <v>1.610802591679184</v>
       </c>
       <c r="J105" t="n">
-        <v>4.244983590919508</v>
+        <v>0.191186474346992</v>
       </c>
       <c r="K105" t="n">
-        <v>13.91940500531046</v>
+        <v>0.3959118895003066</v>
       </c>
       <c r="L105" t="n">
-        <v>41.52386391433273</v>
+        <v>0.7842756067945102</v>
       </c>
     </row>
     <row r="106">
@@ -4456,37 +4456,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>641.4336752173253</v>
+        <v>13.04528536197985</v>
       </c>
       <c r="C106" t="n">
-        <v>190.8345756932468</v>
+        <v>6.373373689843154</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2975125614173434</v>
+        <v>0.4885576292886769</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7024874385826566</v>
+        <v>0.5114423707113231</v>
       </c>
       <c r="F106" t="n">
-        <v>2.527953995803338</v>
+        <v>1.456803246535135</v>
       </c>
       <c r="G106" t="n">
-        <v>10.85636583256889</v>
+        <v>0.2207935064087882</v>
       </c>
       <c r="H106" t="n">
-        <v>30.73055487262619</v>
+        <v>0.4177703726423137</v>
       </c>
       <c r="I106" t="n">
-        <v>81.27849505370179</v>
+        <v>0.7645730390508588</v>
       </c>
       <c r="J106" t="n">
-        <v>3.105678083203173</v>
+        <v>0.1037214923590499</v>
       </c>
       <c r="K106" t="n">
-        <v>9.674421414390956</v>
+        <v>0.2047254151533146</v>
       </c>
       <c r="L106" t="n">
-        <v>27.60445890902226</v>
+        <v>0.3883637172942037</v>
       </c>
     </row>
     <row r="107">
@@ -4494,37 +4494,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>450.5990995240786</v>
+        <v>6.671911672136696</v>
       </c>
       <c r="C107" t="n">
-        <v>141.7853547246312</v>
+        <v>3.426946777922375</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3146596495074768</v>
+        <v>0.5136379116399313</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6853403504925232</v>
+        <v>0.4863620883600687</v>
       </c>
       <c r="F107" t="n">
-        <v>2.386818873081847</v>
+        <v>1.370793859344105</v>
       </c>
       <c r="G107" t="n">
-        <v>7.333135217343836</v>
+        <v>0.1085799561109388</v>
       </c>
       <c r="H107" t="n">
-        <v>19.87418904005729</v>
+        <v>0.1969768662335254</v>
       </c>
       <c r="I107" t="n">
-        <v>50.54794018107561</v>
+        <v>0.346802666408545</v>
       </c>
       <c r="J107" t="n">
-        <v>2.218693997384948</v>
+        <v>0.05362575182959425</v>
       </c>
       <c r="K107" t="n">
-        <v>6.568743331187783</v>
+        <v>0.1010039227942648</v>
       </c>
       <c r="L107" t="n">
-        <v>17.9300374946313</v>
+        <v>0.1836383021408891</v>
       </c>
     </row>
     <row r="108">
@@ -4532,37 +4532,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>308.8137447994473</v>
+        <v>3.244964894214321</v>
       </c>
       <c r="C108" t="n">
-        <v>102.694090496799</v>
+        <v>1.749779819667622</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3325437815712885</v>
+        <v>0.5392291986848392</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6674562184287115</v>
+        <v>0.4607708013151608</v>
       </c>
       <c r="F108" t="n">
-        <v>2.253112189769471</v>
+        <v>1.290422979472508</v>
       </c>
       <c r="G108" t="n">
-        <v>4.832397557753355</v>
+        <v>0.05077805212323154</v>
       </c>
       <c r="H108" t="n">
-        <v>12.54105382271346</v>
+        <v>0.08839691012258662</v>
       </c>
       <c r="I108" t="n">
-        <v>30.67375114101833</v>
+        <v>0.1498258001750196</v>
       </c>
       <c r="J108" t="n">
-        <v>1.545176690299192</v>
+        <v>0.02632789265114148</v>
       </c>
       <c r="K108" t="n">
-        <v>4.350049333802836</v>
+        <v>0.0473781709646705</v>
       </c>
       <c r="L108" t="n">
-        <v>11.36129416344352</v>
+        <v>0.08263437934662429</v>
       </c>
     </row>
     <row r="109">
@@ -4570,37 +4570,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>206.1196543026483</v>
+        <v>1.495185074546699</v>
       </c>
       <c r="C109" t="n">
-        <v>72.38165440235987</v>
+        <v>0.8451384133459581</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3511632825469467</v>
+        <v>0.5652400012100054</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6488367174530533</v>
+        <v>0.4347599987899946</v>
       </c>
       <c r="F109" t="n">
-        <v>2.126557579906215</v>
+        <v>1.215436345394354</v>
       </c>
       <c r="G109" t="n">
-        <v>3.101359422925187</v>
+        <v>0.02249715746735038</v>
       </c>
       <c r="H109" t="n">
-        <v>7.708656264960101</v>
+        <v>0.03761885799935507</v>
       </c>
       <c r="I109" t="n">
-        <v>18.13269731830487</v>
+        <v>0.06142889005243301</v>
       </c>
       <c r="J109" t="n">
-        <v>1.04719572626184</v>
+        <v>0.01222720510967963</v>
       </c>
       <c r="K109" t="n">
-        <v>2.804872643503644</v>
+        <v>0.02105027831352903</v>
       </c>
       <c r="L109" t="n">
-        <v>7.011244829640681</v>
+        <v>0.03525620838195379</v>
       </c>
     </row>
     <row r="110">
@@ -4608,37 +4608,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>133.7379999002884</v>
+        <v>0.6500466612007407</v>
       </c>
       <c r="C110" t="n">
-        <v>49.55144032404993</v>
+        <v>0.3845457068610646</v>
       </c>
       <c r="D110" t="n">
-        <v>0.370511300909197</v>
+        <v>0.5915663133331795</v>
       </c>
       <c r="E110" t="n">
-        <v>0.629488699090803</v>
+        <v>0.4084336866668205</v>
       </c>
       <c r="F110" t="n">
-        <v>2.006882758255593</v>
+        <v>1.14558916962353</v>
       </c>
       <c r="G110" t="n">
-        <v>1.934880641935456</v>
+        <v>0.009404677070464969</v>
       </c>
       <c r="H110" t="n">
-        <v>4.607296842034915</v>
+        <v>0.01512170053200469</v>
       </c>
       <c r="I110" t="n">
-        <v>10.42404105334477</v>
+        <v>0.02381003205307794</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6893222536033922</v>
+        <v>0.005349509752561586</v>
       </c>
       <c r="K110" t="n">
-        <v>1.757676917241805</v>
+        <v>0.008823073203849402</v>
       </c>
       <c r="L110" t="n">
-        <v>4.206372186137037</v>
+        <v>0.01420593006842476</v>
       </c>
     </row>
     <row r="111">
@@ -4646,37 +4646,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>84.18655957623849</v>
+        <v>0.2655009543396761</v>
       </c>
       <c r="C111" t="n">
-        <v>32.88118115431447</v>
+        <v>0.1641039756042438</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3905751858708231</v>
+        <v>0.6180918483415045</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6094248141291769</v>
+        <v>0.3819081516584955</v>
       </c>
       <c r="F111" t="n">
-        <v>1.893820191580956</v>
+        <v>1.080646236337918</v>
       </c>
       <c r="G111" t="n">
-        <v>1.171139902103776</v>
+        <v>0.003693448969039346</v>
       </c>
       <c r="H111" t="n">
-        <v>2.672416200099458</v>
+        <v>0.005717023461539718</v>
       </c>
       <c r="I111" t="n">
-        <v>5.816744211309853</v>
+        <v>0.008688331521073249</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4398251778316538</v>
+        <v>0.002195087211565917</v>
       </c>
       <c r="K111" t="n">
-        <v>1.068354663638412</v>
+        <v>0.003473563451287819</v>
       </c>
       <c r="L111" t="n">
-        <v>2.448695268895232</v>
+        <v>0.005382856864575362</v>
       </c>
     </row>
     <row r="112">
@@ -4684,37 +4684,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>51.30537842192403</v>
+        <v>0.1013969787354323</v>
       </c>
       <c r="C112" t="n">
-        <v>21.10374178148575</v>
+        <v>0.06536947931166227</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4113358566022702</v>
+        <v>0.6446886300451422</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5886641433977298</v>
+        <v>0.3553113699548578</v>
       </c>
       <c r="F112" t="n">
-        <v>1.787107710854574</v>
+        <v>1.020381887153683</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6862708818835158</v>
+        <v>0.001356306027894992</v>
       </c>
       <c r="H112" t="n">
-        <v>1.501276297995682</v>
+        <v>0.002023574492500371</v>
       </c>
       <c r="I112" t="n">
-        <v>3.144328011210395</v>
+        <v>0.002971308059533533</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2714305971737994</v>
+        <v>0.0008407644952361453</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6285294858067586</v>
+        <v>0.001278476239721901</v>
       </c>
       <c r="L112" t="n">
-        <v>1.38034060525682</v>
+        <v>0.001909293413287544</v>
       </c>
     </row>
     <row r="113">
@@ -4722,37 +4722,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.20163664043827</v>
+        <v>0.03602749942377004</v>
       </c>
       <c r="C113" t="n">
-        <v>13.07027701340797</v>
+        <v>0.02418230577424123</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4327671764618085</v>
+        <v>0.6712179907297799</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5672328235381915</v>
+        <v>0.3287820092702201</v>
       </c>
       <c r="F113" t="n">
-        <v>1.686489062210372</v>
+        <v>0.964579890082881</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3884452507911196</v>
+        <v>0.0004633759162013474</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8150054161121661</v>
+        <v>0.0006672684646053796</v>
       </c>
       <c r="I113" t="n">
-        <v>1.643051713214713</v>
+        <v>0.0009477335670331623</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1616407253796845</v>
+        <v>0.0002990637032934993</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3570988886329594</v>
+        <v>0.0004377117444857558</v>
       </c>
       <c r="L113" t="n">
-        <v>0.7518111194500617</v>
+        <v>0.0006308171735656426</v>
       </c>
     </row>
     <row r="114">
@@ -4760,37 +4760,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>17.1313596270303</v>
+        <v>0.01184519364952881</v>
       </c>
       <c r="C114" t="n">
-        <v>7.791947920935902</v>
+        <v>0.008262401854711613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4548353481904358</v>
+        <v>0.6975320200898771</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5451646518095642</v>
+        <v>0.3024679799101229</v>
       </c>
       <c r="F114" t="n">
-        <v>1.591714394822016</v>
+        <v>0.9130331860739102</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2118643234579305</v>
+        <v>0.0001464900622847193</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4265601653210466</v>
+        <v>0.0002038925484040322</v>
       </c>
       <c r="I114" t="n">
-        <v>0.8280462971025466</v>
+        <v>0.0002804651024277826</v>
       </c>
       <c r="J114" t="n">
-        <v>0.09265709935492203</v>
+        <v>9.825145102745402e-05</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1954581632532748</v>
+        <v>0.0001386480411922565</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3947122308171024</v>
+        <v>0.0001931054290798867</v>
       </c>
     </row>
     <row r="115">
@@ -4798,37 +4798,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.339411706094401</v>
+        <v>0.003582791794817194</v>
       </c>
       <c r="C115" t="n">
-        <v>4.459553672007787</v>
+        <v>0.002592062078908941</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4774983491837843</v>
+        <v>0.7234754982576922</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5225016508162157</v>
+        <v>0.2765245017423078</v>
       </c>
       <c r="F115" t="n">
-        <v>1.502540684173653</v>
+        <v>0.8655435071065744</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1110585962777034</v>
+        <v>4.260437809246839e-05</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2146958418631161</v>
+        <v>5.740248611931288e-05</v>
       </c>
       <c r="I115" t="n">
-        <v>0.4014861317815001</v>
+        <v>7.657255402375035e-05</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05099066960122282</v>
+        <v>2.963771506577661e-05</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1028010638983528</v>
+        <v>4.039659016480251e-05</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1992540675638276</v>
+        <v>5.445738788763017e-05</v>
       </c>
     </row>
     <row r="116">
@@ -4836,37 +4836,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.879858034086614</v>
+        <v>0.0009907297159082533</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44337141147017</v>
+        <v>0.0007419459219956255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5007054292159356</v>
+        <v>0.7488883295636743</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4992945707840644</v>
+        <v>0.2511116704363257</v>
       </c>
       <c r="F116" t="n">
-        <v>1.418732089377237</v>
+        <v>0.821920859827543</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0557964422042612</v>
+        <v>1.132803310005838e-05</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1036372455854127</v>
+        <v>1.479810802684449e-05</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1867902899183839</v>
+        <v>1.917006790443745e-05</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02686305917558341</v>
+        <v>8.157145947639164e-06</v>
       </c>
       <c r="K116" t="n">
-        <v>0.05181039429712994</v>
+        <v>1.07588750990259e-05</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09645300366547487</v>
+        <v>1.406079772282767e-05</v>
       </c>
     </row>
     <row r="117">
@@ -4874,37 +4874,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.436486622616444</v>
+        <v>0.0002487837939126278</v>
       </c>
       <c r="C117" t="n">
-        <v>1.277685535301723</v>
+        <v>0.00019246125055752</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5243966962271553</v>
+        <v>0.7736084715594932</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4756033037728447</v>
+        <v>0.2263915284405068</v>
       </c>
       <c r="F117" t="n">
-        <v>1.340060243263834</v>
+        <v>0.7819828694866351</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02678736602082158</v>
+        <v>2.735193571647738e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>0.04784080338115151</v>
+        <v>3.470074926786113e-06</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0831530443329712</v>
+        <v>4.371959877592959e-06</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01350692907879462</v>
+        <v>2.034585498443998e-06</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02494733512154652</v>
+        <v>2.601729151386734e-06</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04464260936834492</v>
+        <v>3.301922623801769e-06</v>
       </c>
     </row>
     <row r="118">
@@ -4912,37 +4912,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.158801087314721</v>
+        <v>5.632254335510787e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6356056628492537</v>
+        <v>4.491583862725805e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5485028188247016</v>
+        <v>0.7974753260709178</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4514971811752984</v>
+        <v>0.2025246739290822</v>
       </c>
       <c r="F118" t="n">
-        <v>1.26630447391732</v>
+        <v>0.7455539808802392</v>
       </c>
       <c r="G118" t="n">
-        <v>0.01225015363353383</v>
+        <v>5.95408320448058e-07</v>
       </c>
       <c r="H118" t="n">
-        <v>0.02105343736032993</v>
+        <v>7.348813551383756e-07</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0353122409518197</v>
+        <v>9.018849508068464e-07</v>
       </c>
       <c r="J118" t="n">
-        <v>0.00646081134522016</v>
+        <v>4.565610043217812e-07</v>
       </c>
       <c r="K118" t="n">
-        <v>0.01144040604275191</v>
+        <v>5.671436529427358e-07</v>
       </c>
       <c r="L118" t="n">
-        <v>0.01969527424679839</v>
+        <v>7.001934724150353e-07</v>
       </c>
     </row>
     <row r="119">
@@ -4950,37 +4950,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5231954244654673</v>
+        <v>1.140670472784982e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2997621379916046</v>
+        <v>9.357302310860072e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5729448767596972</v>
+        <v>0.8203335261246775</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4270551232403028</v>
+        <v>0.1796664738753225</v>
       </c>
       <c r="F119" t="n">
-        <v>1.197251956086509</v>
+        <v>0.7124645166258825</v>
       </c>
       <c r="G119" t="n">
-        <v>0.005318182533177752</v>
+        <v>1.159469961090437e-07</v>
       </c>
       <c r="H119" t="n">
-        <v>0.008803283726796094</v>
+        <v>1.394730346903175e-07</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01425880359148977</v>
+        <v>1.670035956684708e-07</v>
       </c>
       <c r="J119" t="n">
-        <v>0.002929832150054905</v>
+        <v>9.145693092470774e-08</v>
       </c>
       <c r="K119" t="n">
-        <v>0.004979594697531749</v>
+        <v>1.105826486209546e-07</v>
       </c>
       <c r="L119" t="n">
-        <v>0.008254868204046488</v>
+        <v>1.330498194722994e-07</v>
       </c>
     </row>
     <row r="120">
@@ -4988,37 +4988,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2234332864738627</v>
+        <v>2.049402416989748e-06</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1335314164392539</v>
+        <v>1.725672695183973e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5976343925589369</v>
+        <v>0.8420370157066159</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4023656074410631</v>
+        <v>0.1579629842933841</v>
       </c>
       <c r="F120" t="n">
-        <v>1.132697790383766</v>
+        <v>0.6825495989492163</v>
       </c>
       <c r="G120" t="n">
-        <v>0.002183804901077549</v>
+        <v>2.003056533398809e-08</v>
       </c>
       <c r="H120" t="n">
-        <v>0.003485101193618342</v>
+        <v>2.352603858127382e-08</v>
       </c>
       <c r="I120" t="n">
-        <v>0.00545551986469368</v>
+        <v>2.753056097815324e-08</v>
       </c>
       <c r="J120" t="n">
-        <v>0.001254920111079529</v>
+        <v>1.621776678533435e-08</v>
       </c>
       <c r="K120" t="n">
-        <v>0.002049762547476843</v>
+        <v>1.912571769624679e-08</v>
       </c>
       <c r="L120" t="n">
-        <v>0.003275273506514738</v>
+        <v>2.246717085134484e-08</v>
       </c>
     </row>
     <row r="121">
@@ -5026,37 +5026,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.08990187003460882</v>
+        <v>3.237297218057748e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05596153874382179</v>
+        <v>2.792017605610935e-07</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6224735783836166</v>
+        <v>0.8624532804825491</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3775264216163834</v>
+        <v>0.1375467195174509</v>
       </c>
       <c r="F121" t="n">
-        <v>1.072445006936736</v>
+        <v>0.6556479498397395</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0008448922938027294</v>
+        <v>3.042392189654197e-09</v>
       </c>
       <c r="H121" t="n">
-        <v>0.001301296292540793</v>
+        <v>3.495473247285721e-09</v>
       </c>
       <c r="I121" t="n">
-        <v>0.00197041867107534</v>
+        <v>4.004522396879428e-09</v>
       </c>
       <c r="J121" t="n">
-        <v>0.000505695316800122</v>
+        <v>2.523001081232449e-09</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0007948424363973141</v>
+        <v>2.907950910912438e-09</v>
       </c>
       <c r="L121" t="n">
-        <v>0.001225510959037895</v>
+        <v>3.341453155098051e-09</v>
       </c>
     </row>
     <row r="122">
@@ -5064,37 +5064,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03394033129078704</v>
+        <v>4.452796124468132e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.02197147139053067</v>
+        <v>3.924995289504024e-08</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6473558316885001</v>
+        <v>0.8814675497798249</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3526441683114999</v>
+        <v>0.1185324502201751</v>
       </c>
       <c r="F122" t="n">
-        <v>1.016304486678857</v>
+        <v>0.6316005964067504</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0003067011195486562</v>
+        <v>4.023760242042779e-10</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0004564039987380636</v>
+        <v>4.530810576315243e-10</v>
       </c>
       <c r="I122" t="n">
-        <v>0.000669122378534546</v>
+        <v>5.090491495937065e-10</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0001909084214665524</v>
+        <v>3.410398155245119e-10</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0002891471195971922</v>
+        <v>3.849498296799884e-10</v>
       </c>
       <c r="L122" t="n">
-        <v>0.000430668522640581</v>
+        <v>4.335022441856124e-10</v>
       </c>
     </row>
     <row r="123">
@@ -5102,37 +5102,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01196885990025637</v>
+        <v>5.278008349641075e-09</v>
       </c>
       <c r="C123" t="n">
-        <v>0.008045066799387993</v>
+        <v>4.74485961021082e-09</v>
       </c>
       <c r="D123" t="n">
-        <v>0.672166510965315</v>
+        <v>0.8989867571038398</v>
       </c>
       <c r="E123" t="n">
-        <v>0.327833489034685</v>
+        <v>0.1010132428961602</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9640947818617868</v>
+        <v>0.6102495237574267</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001039965011763863</v>
+        <v>4.586020774883226e-11</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0001497028791894074</v>
+        <v>5.070503342724635e-11</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0002127183797964825</v>
+        <v>5.59680919621822e-11</v>
       </c>
       <c r="J123" t="n">
-        <v>6.721438975801141e-05</v>
+        <v>3.964203792714528e-11</v>
       </c>
       <c r="K123" t="n">
-        <v>9.823869813063988e-05</v>
+        <v>4.391001415547663e-11</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0001415214030433888</v>
+        <v>4.855241450562398e-11</v>
       </c>
     </row>
     <row r="124">
@@ -5140,37 +5140,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.003923793100868378</v>
+        <v>5.331487394302556e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00273403632405266</v>
+        <v>4.878007192503324e-10</v>
       </c>
       <c r="D124" t="n">
-        <v>0.696784018364166</v>
+        <v>0.9149430227887552</v>
       </c>
       <c r="E124" t="n">
-        <v>0.303215981635834</v>
+        <v>0.08505697721124483</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9156417735977097</v>
+        <v>0.5914363364292858</v>
       </c>
       <c r="G124" t="n">
-        <v>3.278224598851389e-05</v>
+        <v>4.454315677501117e-12</v>
       </c>
       <c r="H124" t="n">
-        <v>4.570637801302106e-05</v>
+        <v>4.844825678414107e-12</v>
       </c>
       <c r="I124" t="n">
-        <v>6.301550060707506e-05</v>
+        <v>5.263058534935851e-12</v>
       </c>
       <c r="J124" t="n">
-        <v>2.196360104892237e-05</v>
+        <v>3.918697163873282e-12</v>
       </c>
       <c r="K124" t="n">
-        <v>3.102430837262845e-05</v>
+        <v>4.267976228331344e-12</v>
       </c>
       <c r="L124" t="n">
-        <v>4.328270491274892e-05</v>
+        <v>4.642400350147344e-12</v>
       </c>
     </row>
     <row r="125">
@@ -5178,37 +5178,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.001189756776815718</v>
+        <v>4.534802017992316e-11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.000857911254935346</v>
+        <v>4.214175248850279e-11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7210812089101706</v>
+        <v>0.929296412970199</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2789187910898294</v>
+        <v>0.07070358702980095</v>
       </c>
       <c r="F125" t="n">
-        <v>0.870777923232623</v>
+        <v>0.5750010102310288</v>
       </c>
       <c r="G125" t="n">
-        <v>9.557789324648672e-06</v>
+        <v>3.642986798777914e-13</v>
       </c>
       <c r="H125" t="n">
-        <v>1.292413202450717e-05</v>
+        <v>3.905100009129899e-13</v>
       </c>
       <c r="I125" t="n">
-        <v>1.7309122594054e-05</v>
+        <v>4.182328565217436e-13</v>
       </c>
       <c r="J125" t="n">
-        <v>6.626867577621525e-06</v>
+        <v>3.255206312117406e-13</v>
       </c>
       <c r="K125" t="n">
-        <v>9.060707323706087e-06</v>
+        <v>3.492790644580609e-13</v>
       </c>
       <c r="L125" t="n">
-        <v>1.225839654012047e-05</v>
+        <v>3.744241218159997e-13</v>
       </c>
     </row>
     <row r="126">
@@ -5216,37 +5216,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0003318455218803721</v>
+        <v>3.206267691420367e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0002472007342250149</v>
+        <v>3.020421959295569e-12</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7449271360489503</v>
+        <v>0.9420367386596877</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2550728639510497</v>
+        <v>0.05796326134031227</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8293400626894629</v>
+        <v>0.5607808370375398</v>
       </c>
       <c r="G126" t="n">
-        <v>2.563314465309889e-06</v>
+        <v>2.476656097844328e-14</v>
       </c>
       <c r="H126" t="n">
-        <v>3.366342699858495e-06</v>
+        <v>2.621132103519853e-14</v>
       </c>
       <c r="I126" t="n">
-        <v>4.384990569546831e-06</v>
+        <v>2.772285560875374e-14</v>
       </c>
       <c r="J126" t="n">
-        <v>1.836040868688598e-06</v>
+        <v>2.243366378072018e-14</v>
       </c>
       <c r="K126" t="n">
-        <v>2.433839746084562e-06</v>
+        <v>2.375843324632026e-14</v>
       </c>
       <c r="L126" t="n">
-        <v>3.197689216414385e-06</v>
+        <v>2.514505735793877e-14</v>
       </c>
     </row>
     <row r="127">
@@ -5254,37 +5254,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.464478765535722e-05</v>
+        <v>1.858457321247984e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>6.502320580192157e-05</v>
+        <v>1.771452138472278e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7681891301644279</v>
+        <v>0.9531841911132612</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2318108698355721</v>
+        <v>0.04681580888673875</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7911607200704253</v>
+        <v>0.5486096819274019</v>
       </c>
       <c r="G127" t="n">
-        <v>6.286845787247565e-07</v>
+        <v>1.380337160090661e-15</v>
       </c>
       <c r="H127" t="n">
-        <v>8.030282345486061e-07</v>
+        <v>1.444760056755247e-15</v>
       </c>
       <c r="I127" t="n">
-        <v>1.018647869688337e-06</v>
+        <v>1.511534573555215e-15</v>
       </c>
       <c r="J127" t="n">
-        <v>4.643737112291928e-07</v>
+        <v>1.265111114812109e-15</v>
       </c>
       <c r="K127" t="n">
-        <v>5.977988773959639e-07</v>
+        <v>1.324769465600075e-15</v>
       </c>
       <c r="L127" t="n">
-        <v>7.638494703298238e-07</v>
+        <v>1.386624111618508e-15</v>
       </c>
     </row>
     <row r="128">
@@ -5292,37 +5292,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.962158185343565e-05</v>
+        <v>8.700518277570608e-15</v>
       </c>
       <c r="C128" t="n">
-        <v>1.551547526482338e-05</v>
+        <v>8.376760394036744e-15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.790735190501814</v>
+        <v>0.962788666927062</v>
       </c>
       <c r="E128" t="n">
-        <v>0.209264809498186</v>
+        <v>0.037211333072938</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7560270373729719</v>
+        <v>0.5383176769412017</v>
       </c>
       <c r="G128" t="n">
-        <v>1.401306913907654e-07</v>
+        <v>6.213615450583473e-17</v>
       </c>
       <c r="H128" t="n">
-        <v>1.743436558238495e-07</v>
+        <v>6.442289666458596e-17</v>
       </c>
       <c r="I128" t="n">
-        <v>2.156196351397307e-07</v>
+        <v>6.677451679996701e-17</v>
       </c>
       <c r="J128" t="n">
-        <v>1.065444893769498e-07</v>
+        <v>5.75230628506217e-17</v>
       </c>
       <c r="K128" t="n">
-        <v>1.334251661667712e-07</v>
+        <v>5.965835078796602e-17</v>
       </c>
       <c r="L128" t="n">
-        <v>1.660505929338599e-07</v>
+        <v>6.185464601843338e-17</v>
       </c>
     </row>
     <row r="129">
@@ -5330,37 +5330,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.106106588612276e-06</v>
+        <v>3.237578835338647e-16</v>
       </c>
       <c r="C129" t="n">
-        <v>3.33595148895662e-06</v>
+        <v>3.143455029278178e-16</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8124366518415339</v>
+        <v>0.9709277176410056</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1875633481584661</v>
+        <v>0.02907228235899439</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7234595868599265</v>
+        <v>0.5297313688304368</v>
       </c>
       <c r="G129" t="n">
-        <v>2.819656003724771e-08</v>
+        <v>2.223239558834763e-18</v>
       </c>
       <c r="H129" t="n">
-        <v>3.421296443308413e-08</v>
+        <v>2.286742158751243e-18</v>
       </c>
       <c r="I129" t="n">
-        <v>4.127597931588113e-08</v>
+        <v>2.351620135381062e-18</v>
       </c>
       <c r="J129" t="n">
-        <v>2.202684502895224e-08</v>
+        <v>2.075581644835223e-18</v>
       </c>
       <c r="K129" t="n">
-        <v>2.68806767898214e-08</v>
+        <v>2.13528793734433e-18</v>
       </c>
       <c r="L129" t="n">
-        <v>3.26254267670887e-08</v>
+        <v>2.196295230467356e-18</v>
       </c>
     </row>
     <row r="130">
@@ -5368,37 +5368,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.701550996556558e-07</v>
+        <v>9.412380606046937e-18</v>
       </c>
       <c r="C130" t="n">
-        <v>6.416709452728503e-07</v>
+        <v>9.202514260500957e-18</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8331710658797791</v>
+        <v>0.9777031598774116</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1668289341202209</v>
+        <v>0.02229684012258837</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6913819467070551</v>
+        <v>0.5226706133114631</v>
       </c>
       <c r="G130" t="n">
-        <v>5.085231929939792e-09</v>
+        <v>6.214870019820225e-20</v>
       </c>
       <c r="H130" t="n">
-        <v>6.016404395836418e-09</v>
+        <v>6.350259991648012e-20</v>
       </c>
       <c r="I130" t="n">
-        <v>7.063014882797007e-09</v>
+        <v>6.487797662981855e-20</v>
       </c>
       <c r="J130" t="n">
-        <v>4.073911641647906e-09</v>
+        <v>5.842594285197717e-20</v>
       </c>
       <c r="K130" t="n">
-        <v>4.85383176086916e-09</v>
+        <v>5.970629250910686e-20</v>
       </c>
       <c r="L130" t="n">
-        <v>5.744749977267303e-09</v>
+        <v>6.100729312302555e-20</v>
       </c>
     </row>
     <row r="131">
@@ -5406,37 +5406,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.284841543828056e-07</v>
+        <v>2.0986634554598e-19</v>
       </c>
       <c r="C131" t="n">
-        <v>1.095745265271457e-07</v>
+        <v>2.063482500319547e-19</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8528252145449737</v>
+        <v>0.9832364950898975</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1471747854550263</v>
+        <v>0.01676350491010248</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6471747854550263</v>
+        <v>0.5167635049101025</v>
       </c>
       <c r="G131" t="n">
-        <v>8.157344448326628e-10</v>
+        <v>1.3324227232173e-21</v>
       </c>
       <c r="H131" t="n">
-        <v>9.311724658966264e-10</v>
+        <v>1.353899718277862e-21</v>
       </c>
       <c r="I131" t="n">
-        <v>1.04661048696059e-09</v>
+        <v>1.375376713338425e-21</v>
       </c>
       <c r="J131" t="n">
-        <v>6.689220220443659e-10</v>
+        <v>1.259698700340686e-21</v>
       </c>
       <c r="K131" t="n">
-        <v>7.79920119221254e-10</v>
+        <v>1.280349657129689e-21</v>
       </c>
       <c r="L131" t="n">
-        <v>8.90918216398142e-10</v>
+        <v>1.301000613918692e-21</v>
       </c>
     </row>
     <row r="132">
@@ -5444,10 +5444,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.890962785565988e-08</v>
+        <v>3.518095514025299e-21</v>
       </c>
       <c r="C132" t="n">
-        <v>1.890962785565988e-08</v>
+        <v>3.518095514025299e-21</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -5459,22 +5459,22 @@
         <v>0.5</v>
       </c>
       <c r="G132" t="n">
-        <v>1.154380210639635e-10</v>
+        <v>2.14769950605628e-23</v>
       </c>
       <c r="H132" t="n">
-        <v>1.154380210639635e-10</v>
+        <v>2.14769950605628e-23</v>
       </c>
       <c r="I132" t="n">
-        <v>1.154380210639635e-10</v>
+        <v>2.14769950605628e-23</v>
       </c>
       <c r="J132" t="n">
-        <v>1.10998097176888e-10</v>
+        <v>2.065095678900269e-23</v>
       </c>
       <c r="K132" t="n">
-        <v>1.10998097176888e-10</v>
+        <v>2.065095678900269e-23</v>
       </c>
       <c r="L132" t="n">
-        <v>1.10998097176888e-10</v>
+        <v>2.065095678900269e-23</v>
       </c>
     </row>
   </sheetData>

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -506,34 +506,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>93.8344674860092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.0009383446748600921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.9990616553251399</v>
       </c>
       <c r="F2" t="n">
-        <v>65.88495753533554</v>
+        <v>30.24862203728828</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2347241.692771086</v>
+        <v>2149290.857109989</v>
       </c>
       <c r="I2" t="n">
-        <v>48086747.08781919</v>
+        <v>30823327.25932608</v>
       </c>
       <c r="J2" t="n">
-        <v>44.50573651381598</v>
+        <v>91.54582193756997</v>
       </c>
       <c r="K2" t="n">
-        <v>9721.473354958018</v>
+        <v>47578.27177780536</v>
       </c>
       <c r="L2" t="n">
-        <v>497751.4201626523</v>
+        <v>1397502.387370332</v>
       </c>
     </row>
     <row r="3">
@@ -541,37 +541,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99906.16553251399</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>102.5052764550214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.001026015520750434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9989739844792496</v>
       </c>
       <c r="F3" t="n">
-        <v>64.9152356090316</v>
+        <v>29.27656271634881</v>
       </c>
       <c r="G3" t="n">
-        <v>96109.34041733232</v>
+        <v>97469.42978781853</v>
       </c>
       <c r="H3" t="n">
-        <v>2247241.692771087</v>
+        <v>2049290.857109989</v>
       </c>
       <c r="I3" t="n">
-        <v>45739505.3950481</v>
+        <v>28674036.40221609</v>
       </c>
       <c r="J3" t="n">
-        <v>45.2886803667075</v>
+        <v>97.56599781560635</v>
       </c>
       <c r="K3" t="n">
-        <v>9676.967618444203</v>
+        <v>47486.72595586779</v>
       </c>
       <c r="L3" t="n">
-        <v>488029.9468076944</v>
+        <v>1349924.115592526</v>
       </c>
     </row>
     <row r="4">
@@ -579,37 +579,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99803.66025605897</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>112.8989365030576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.001131210380595271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9988687896194047</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681901007346</v>
+        <v>28.30611824075639</v>
       </c>
       <c r="G4" t="n">
-        <v>92367.53864399128</v>
+        <v>94994.56062444639</v>
       </c>
       <c r="H4" t="n">
-        <v>2151132.352353754</v>
+        <v>1951821.42732217</v>
       </c>
       <c r="I4" t="n">
-        <v>43492263.70227701</v>
+        <v>26624745.5451061</v>
       </c>
       <c r="J4" t="n">
-        <v>46.12325347580202</v>
+        <v>104.8378859302054</v>
       </c>
       <c r="K4" t="n">
-        <v>9631.678938077495</v>
+        <v>47389.15995805219</v>
       </c>
       <c r="L4" t="n">
-        <v>478352.9791892501</v>
+        <v>1302437.389636659</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99690.76131955591</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>125.3541131770946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.001257429590443948</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9987425704095561</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978524517265</v>
+        <v>27.33760843238605</v>
       </c>
       <c r="G5" t="n">
-        <v>88768.81775036197</v>
+        <v>92572.78223548092</v>
       </c>
       <c r="H5" t="n">
-        <v>2058764.813709763</v>
+        <v>1856826.866697724</v>
       </c>
       <c r="I5" t="n">
-        <v>41341131.34992326</v>
+        <v>24672924.11778393</v>
       </c>
       <c r="J5" t="n">
-        <v>47.00998669895239</v>
+        <v>113.5646396610903</v>
       </c>
       <c r="K5" t="n">
-        <v>9585.555684601692</v>
+        <v>47284.32207212198</v>
       </c>
       <c r="L5" t="n">
-        <v>468721.3002511726</v>
+        <v>1255048.229678606</v>
       </c>
     </row>
     <row r="6">
@@ -655,37 +655,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99565.40720637882</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>140.2748734924218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.001408871589322791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9985911284106772</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421562534781</v>
+        <v>26.37139732251595</v>
       </c>
       <c r="G6" t="n">
-        <v>85307.62246557216</v>
+        <v>90201.34485836908</v>
       </c>
       <c r="H6" t="n">
-        <v>1969995.995959401</v>
+        <v>1764254.084462243</v>
       </c>
       <c r="I6" t="n">
-        <v>39282366.53621349</v>
+        <v>22816097.25108621</v>
       </c>
       <c r="J6" t="n">
-        <v>47.9494504710756</v>
+        <v>123.9825483801596</v>
       </c>
       <c r="K6" t="n">
-        <v>9538.54569790274</v>
+        <v>47170.75743246089</v>
       </c>
       <c r="L6" t="n">
-        <v>459135.744566571</v>
+        <v>1207763.907606484</v>
       </c>
     </row>
     <row r="7">
@@ -693,37 +693,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99425.13233288639</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>158.142799410247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.001590571676392316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9984094283236077</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019541096938</v>
+        <v>25.40789822426319</v>
       </c>
       <c r="G7" t="n">
-        <v>81978.61061257907</v>
+        <v>87877.32950856529</v>
       </c>
       <c r="H7" t="n">
-        <v>1884688.373493829</v>
+        <v>1674052.739603874</v>
       </c>
       <c r="I7" t="n">
-        <v>37312370.5402541</v>
+        <v>21051843.16662396</v>
       </c>
       <c r="J7" t="n">
-        <v>48.94225261692339</v>
+        <v>136.3660403056768</v>
       </c>
       <c r="K7" t="n">
-        <v>9490.596247431664</v>
+        <v>47046.77488408073</v>
       </c>
       <c r="L7" t="n">
-        <v>449597.1988686682</v>
+        <v>1160593.150174024</v>
       </c>
     </row>
     <row r="8">
@@ -731,37 +731,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99266.98953347615</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>179.5311146461952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.001808568140224009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.998191431859776</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781395850355</v>
+        <v>24.4475791370331</v>
       </c>
       <c r="G8" t="n">
-        <v>78776.64487486295</v>
+        <v>85597.61396805072</v>
       </c>
       <c r="H8" t="n">
-        <v>1802709.76288125</v>
+        <v>1586175.410095309</v>
       </c>
       <c r="I8" t="n">
-        <v>35427682.16676027</v>
+        <v>19377790.42702009</v>
       </c>
       <c r="J8" t="n">
-        <v>49.98903593867161</v>
+        <v>151.0332853676197</v>
       </c>
       <c r="K8" t="n">
-        <v>9441.65399481474</v>
+        <v>46910.40884377505</v>
       </c>
       <c r="L8" t="n">
-        <v>440106.6026212365</v>
+        <v>1113546.375289943</v>
       </c>
     </row>
     <row r="9">
@@ -769,37 +769,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99087.45841882996</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>205.1210535137463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.002070101068156638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9979298989318434</v>
       </c>
       <c r="F9" t="n">
-        <v>59.12716486856021</v>
+        <v>23.49096843820356</v>
       </c>
       <c r="G9" t="n">
-        <v>75696.78488219877</v>
+        <v>83358.83400053553</v>
       </c>
       <c r="H9" t="n">
-        <v>1723933.118006387</v>
+        <v>1500577.796127258</v>
       </c>
       <c r="I9" t="n">
-        <v>33624972.40387902</v>
+        <v>17791615.01692478</v>
       </c>
       <c r="J9" t="n">
-        <v>51.090475546775</v>
+        <v>168.3524012729761</v>
       </c>
       <c r="K9" t="n">
-        <v>9391.66495887607</v>
+        <v>46759.37555840744</v>
       </c>
       <c r="L9" t="n">
-        <v>430664.9486264217</v>
+        <v>1066635.966446168</v>
       </c>
     </row>
     <row r="10">
@@ -807,37 +807,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>98882.33736531621</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>235.7206730169548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.002383850132365861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9976161498676341</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834613479978</v>
+        <v>22.5386607945232</v>
       </c>
       <c r="G10" t="n">
-        <v>72734.2796034905</v>
+        <v>81157.33930656657</v>
       </c>
       <c r="H10" t="n">
-        <v>1648236.333124188</v>
+        <v>1417218.962126723</v>
       </c>
       <c r="I10" t="n">
-        <v>31901039.28587263</v>
+        <v>16291037.22079752</v>
       </c>
       <c r="J10" t="n">
-        <v>52.24727589903479</v>
+        <v>188.7482283399218</v>
       </c>
       <c r="K10" t="n">
-        <v>9340.574483329294</v>
+        <v>46591.02315713445</v>
       </c>
       <c r="L10" t="n">
-        <v>421273.2836675458</v>
+        <v>1019876.59088776</v>
       </c>
     </row>
     <row r="11">
@@ -845,37 +845,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>98646.61669229926</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>272.2862463267434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.002760218803814274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9972397811961857</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146029320087</v>
+        <v>21.5913231982535</v>
       </c>
       <c r="G11" t="n">
-        <v>69884.56003514952</v>
+        <v>78989.14377806649</v>
       </c>
       <c r="H11" t="n">
-        <v>1575502.053520698</v>
+        <v>1336061.622820156</v>
       </c>
       <c r="I11" t="n">
-        <v>30252802.95274844</v>
+        <v>14873818.2586708</v>
       </c>
       <c r="J11" t="n">
-        <v>53.46016750995081</v>
+        <v>212.7095804423496</v>
       </c>
       <c r="K11" t="n">
-        <v>9288.327207430259</v>
+        <v>46402.27492879453</v>
       </c>
       <c r="L11" t="n">
-        <v>411932.7091842164</v>
+        <v>973285.5677306259</v>
       </c>
     </row>
     <row r="12">
@@ -883,37 +883,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>98374.33044597252</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>315.946258210856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.003211673785006086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9967883262149939</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661457113542</v>
+        <v>20.64970100065054</v>
       </c>
       <c r="G12" t="n">
-        <v>67143.23217397997</v>
+        <v>76849.86971523229</v>
       </c>
       <c r="H12" t="n">
-        <v>1505617.493485548</v>
+        <v>1257072.47904209</v>
       </c>
       <c r="I12" t="n">
-        <v>28677300.89922775</v>
+        <v>13537756.63585064</v>
       </c>
       <c r="J12" t="n">
-        <v>54.729903288226</v>
+        <v>240.7967921419948</v>
       </c>
       <c r="K12" t="n">
-        <v>9234.867039920307</v>
+        <v>46189.56534835219</v>
       </c>
       <c r="L12" t="n">
-        <v>402644.3819767862</v>
+        <v>926883.2928018313</v>
       </c>
     </row>
     <row r="13">
@@ -921,37 +921,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>98058.38418776167</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>368.0278240873595</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.003753149994626281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9962468500053737</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392103563819</v>
+        <v>19.71462377791182</v>
       </c>
       <c r="G13" t="n">
-        <v>64506.0702640002</v>
+        <v>74734.68585686512</v>
       </c>
       <c r="H13" t="n">
-        <v>1438474.261311568</v>
+        <v>1180222.609326857</v>
       </c>
       <c r="I13" t="n">
-        <v>27171683.4057422</v>
+        <v>12280684.15680856</v>
       </c>
       <c r="J13" t="n">
-        <v>56.05725445674857</v>
+        <v>273.6492544605758</v>
       </c>
       <c r="K13" t="n">
-        <v>9180.137136632084</v>
+        <v>45948.76855621019</v>
       </c>
       <c r="L13" t="n">
-        <v>393409.5149368659</v>
+        <v>880693.7274534792</v>
       </c>
     </row>
     <row r="14">
@@ -959,37 +959,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>97690.35636367431</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>430.0850366137429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.00440253319388717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9955974668061128</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349674019598</v>
+        <v>18.78701082247656</v>
       </c>
       <c r="G14" t="n">
-        <v>61969.01030708191</v>
+        <v>72638.23938638346</v>
       </c>
       <c r="H14" t="n">
-        <v>1373968.191047568</v>
+        <v>1105487.923469992</v>
       </c>
       <c r="I14" t="n">
-        <v>25733209.14443063</v>
+        <v>11100461.5474817</v>
       </c>
       <c r="J14" t="n">
-        <v>57.4430060046629</v>
+        <v>311.9924488234884</v>
       </c>
       <c r="K14" t="n">
-        <v>9124.079882175334</v>
+        <v>45675.11930174961</v>
       </c>
       <c r="L14" t="n">
-        <v>384229.3778002338</v>
+        <v>834744.9588972689</v>
       </c>
     </row>
     <row r="15">
@@ -997,37 +997,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>97260.27132706056</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>503.9282555952391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.005181234318179739</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9948187656818203</v>
       </c>
       <c r="F15" t="n">
-        <v>53.4054638693168</v>
+        <v>17.86787600629548</v>
       </c>
       <c r="G15" t="n">
-        <v>59528.14382772793</v>
+        <v>70554.58256228232</v>
       </c>
       <c r="H15" t="n">
-        <v>1311999.180740486</v>
+        <v>1032849.684083609</v>
       </c>
       <c r="I15" t="n">
-        <v>24359240.95338306</v>
+        <v>9994973.624011705</v>
       </c>
       <c r="J15" t="n">
-        <v>58.88795161657098</v>
+        <v>356.6437311966274</v>
       </c>
       <c r="K15" t="n">
-        <v>9066.636876170673</v>
+        <v>45363.12685292613</v>
       </c>
       <c r="L15" t="n">
-        <v>375105.2979180584</v>
+        <v>789069.8395955194</v>
       </c>
     </row>
     <row r="16">
@@ -1035,37 +1035,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>96756.34307146532</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>591.6526292909978</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.006114871754237305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9938851282457627</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994988007141</v>
+        <v>16.95833171370871</v>
       </c>
       <c r="G16" t="n">
-        <v>57179.7118827372</v>
+        <v>68477.09535395687</v>
       </c>
       <c r="H16" t="n">
-        <v>1252471.036912758</v>
+        <v>962295.1015213262</v>
       </c>
       <c r="I16" t="n">
-        <v>23047241.77264258</v>
+        <v>8962123.939928096</v>
       </c>
       <c r="J16" t="n">
-        <v>60.39288801893232</v>
+        <v>408.5157621386591</v>
       </c>
       <c r="K16" t="n">
-        <v>9007.7489245541</v>
+        <v>45006.4831217295</v>
       </c>
       <c r="L16" t="n">
-        <v>366038.6610418877</v>
+        <v>743706.7127425931</v>
       </c>
     </row>
     <row r="17">
@@ -1073,37 +1073,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>96164.69044217432</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>695.6630774052869</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.007234080141126253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9927659198588737</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708763972911</v>
+        <v>16.05959149198476</v>
       </c>
       <c r="G17" t="n">
-        <v>54920.09930692069</v>
+        <v>66398.40653440464</v>
       </c>
       <c r="H17" t="n">
-        <v>1195291.325030021</v>
+        <v>893818.0061673695</v>
       </c>
       <c r="I17" t="n">
-        <v>21794770.73572982</v>
+        <v>7999828.83840677</v>
       </c>
       <c r="J17" t="n">
-        <v>61.9586086779823</v>
+        <v>468.6159942565505</v>
       </c>
       <c r="K17" t="n">
-        <v>8947.356036535168</v>
+        <v>44597.96735959084</v>
       </c>
       <c r="L17" t="n">
-        <v>357030.9121173337</v>
+        <v>698700.2296208637</v>
       </c>
     </row>
     <row r="18">
@@ -1111,37 +1111,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>95469.02736476903</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>818.6914640147862</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.008575466689177857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9914245333108221</v>
       </c>
       <c r="F18" t="n">
-        <v>50.5770155585374</v>
+        <v>15.17297102039585</v>
       </c>
       <c r="G18" t="n">
-        <v>52745.82918643805</v>
+        <v>64310.31721004065</v>
       </c>
       <c r="H18" t="n">
-        <v>1140371.2257231</v>
+        <v>827419.5996329648</v>
       </c>
       <c r="I18" t="n">
-        <v>20599479.4106998</v>
+        <v>7106010.8322394</v>
       </c>
       <c r="J18" t="n">
-        <v>63.58589677804864</v>
+        <v>538.0399834196734</v>
       </c>
       <c r="K18" t="n">
-        <v>8885.397427857184</v>
+        <v>44129.35136533429</v>
       </c>
       <c r="L18" t="n">
-        <v>348083.5560807985</v>
+        <v>654102.2622612729</v>
       </c>
     </row>
     <row r="19">
@@ -1149,37 +1149,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>94650.33590075425</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>963.7996057801263</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.01018273835594963</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9898172616440504</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987771661991</v>
+        <v>14.29988695800785</v>
       </c>
       <c r="G19" t="n">
-        <v>50653.55755172009</v>
+        <v>62203.73290442488</v>
       </c>
       <c r="H19" t="n">
-        <v>1087625.396536662</v>
+        <v>763109.2824229242</v>
       </c>
       <c r="I19" t="n">
-        <v>19459108.1849767</v>
+        <v>6278591.232606435</v>
       </c>
       <c r="J19" t="n">
-        <v>65.27551740245292</v>
+        <v>617.955450662569</v>
       </c>
       <c r="K19" t="n">
-        <v>8821.811531079136</v>
+        <v>43591.31138191461</v>
       </c>
       <c r="L19" t="n">
-        <v>339198.1586529413</v>
+        <v>609972.9108959385</v>
       </c>
     </row>
     <row r="20">
@@ -1187,37 +1187,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>93686.53629497412</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>1134.35894680672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.01210802524746102</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.987891974752539</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582398389132</v>
+        <v>13.44185320135429</v>
       </c>
       <c r="G20" t="n">
-        <v>48640.06828232839</v>
+        <v>60068.61323658122</v>
       </c>
       <c r="H20" t="n">
-        <v>1036971.838984942</v>
+        <v>700905.5495184993</v>
       </c>
       <c r="I20" t="n">
-        <v>18371482.78844003</v>
+        <v>5515481.950183511</v>
       </c>
       <c r="J20" t="n">
-        <v>67.02820883300322</v>
+        <v>709.5729616082893</v>
       </c>
       <c r="K20" t="n">
-        <v>8756.536013676683</v>
+        <v>42973.35593125204</v>
       </c>
       <c r="L20" t="n">
-        <v>330376.3471218622</v>
+        <v>566381.599514024</v>
       </c>
     </row>
     <row r="21">
@@ -1225,37 +1225,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>92552.1773481674</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>1333.99404633952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.01441342693993286</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9855865730600671</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77501013180991</v>
+        <v>12.60047407217388</v>
       </c>
       <c r="G21" t="n">
-        <v>46702.26821648275</v>
+        <v>57893.95214725144</v>
       </c>
       <c r="H21" t="n">
-        <v>988331.7707026136</v>
+        <v>640836.9362819181</v>
       </c>
       <c r="I21" t="n">
-        <v>17334510.94945509</v>
+        <v>4814576.400665011</v>
       </c>
       <c r="J21" t="n">
-        <v>68.84467287669793</v>
+        <v>814.0978044276857</v>
       </c>
       <c r="K21" t="n">
-        <v>8689.507804843681</v>
+        <v>42263.78296964375</v>
       </c>
       <c r="L21" t="n">
-        <v>321619.8111081855</v>
+        <v>523408.2435827719</v>
       </c>
     </row>
     <row r="22">
@@ -1263,37 +1263,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>91218.18330182788</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>1566.472389184285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.01717280845202818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9828271915479718</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759793571106</v>
+        <v>11.7774339697061</v>
       </c>
       <c r="G22" t="n">
-        <v>44837.18245835671</v>
+        <v>55667.80672947616</v>
       </c>
       <c r="H22" t="n">
-        <v>941629.5024861309</v>
+        <v>582942.9841346666</v>
       </c>
       <c r="I22" t="n">
-        <v>16346179.17875248</v>
+        <v>4173739.464383093</v>
       </c>
       <c r="J22" t="n">
-        <v>70.72556412136574</v>
+        <v>932.6561774729946</v>
       </c>
       <c r="K22" t="n">
-        <v>8620.663131966983</v>
+        <v>41449.68516521607</v>
       </c>
       <c r="L22" t="n">
-        <v>312930.3033033418</v>
+        <v>481144.4606131281</v>
       </c>
     </row>
     <row r="23">
@@ -1301,37 +1301,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>89651.7109126436</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>1835.517515841515</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.02047387046110072</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9795261295388993</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375526638661</v>
+        <v>10.97448306954544</v>
       </c>
       <c r="G23" t="n">
-        <v>43041.94987660623</v>
+        <v>53377.39916835742</v>
       </c>
       <c r="H23" t="n">
-        <v>896792.3200277742</v>
+        <v>527275.1774051904</v>
       </c>
       <c r="I23" t="n">
-        <v>15404549.67626635</v>
+        <v>3590796.480248427</v>
       </c>
       <c r="J23" t="n">
-        <v>72.671478013947</v>
+        <v>1066.187274266746</v>
       </c>
       <c r="K23" t="n">
-        <v>8549.937567845616</v>
+        <v>40517.02898774308</v>
       </c>
       <c r="L23" t="n">
-        <v>304309.6401713748</v>
+        <v>439694.7754479121</v>
       </c>
     </row>
     <row r="24">
@@ -1339,37 +1339,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>87816.19339680209</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>2144.516471989392</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.02442051276692536</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9755794872330746</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365616949835</v>
+        <v>10.19341873960645</v>
       </c>
       <c r="G24" t="n">
-        <v>41313.81878795358</v>
+        <v>51009.3241094966</v>
       </c>
       <c r="H24" t="n">
-        <v>853750.3701511679</v>
+        <v>473897.7782368331</v>
       </c>
       <c r="I24" t="n">
-        <v>14507757.35623857</v>
+        <v>3063521.302843236</v>
       </c>
       <c r="J24" t="n">
-        <v>74.68293764755215</v>
+        <v>1215.291561607995</v>
       </c>
       <c r="K24" t="n">
-        <v>8477.26608983167</v>
+        <v>39450.84171347633</v>
       </c>
       <c r="L24" t="n">
-        <v>295759.7026035292</v>
+        <v>399177.746460169</v>
       </c>
     </row>
     <row r="25">
@@ -1377,37 +1377,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>85671.67692481269</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>2496.087068354437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.02913549912820146</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9708645008717985</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748093133801</v>
+        <v>9.436062480258572</v>
       </c>
       <c r="G25" t="n">
-        <v>39650.14282000012</v>
+        <v>48549.90269155942</v>
       </c>
       <c r="H25" t="n">
-        <v>812436.5513632144</v>
+        <v>422888.4541273364</v>
       </c>
       <c r="I25" t="n">
-        <v>13654006.98608741</v>
+        <v>2589623.524606403</v>
       </c>
       <c r="J25" t="n">
-        <v>76.76037913536791</v>
+        <v>1380.025021994337</v>
       </c>
       <c r="K25" t="n">
-        <v>8402.583152184119</v>
+        <v>38235.55015186833</v>
       </c>
       <c r="L25" t="n">
-        <v>287282.4365136976</v>
+        <v>359726.9047466927</v>
       </c>
     </row>
     <row r="26">
@@ -1415,37 +1415,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>83175.58985645826</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>2891.467369732959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.03476341285613915</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9652365871438608</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541612937381</v>
+        <v>8.704232384884127</v>
       </c>
       <c r="G26" t="n">
-        <v>38048.37694778782</v>
+        <v>45985.73370147827</v>
       </c>
       <c r="H26" t="n">
-        <v>772786.4085432142</v>
+        <v>374338.551435777</v>
       </c>
       <c r="I26" t="n">
-        <v>12841570.43472419</v>
+        <v>2166735.070479067</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90413544137041</v>
+        <v>1559.630288933621</v>
       </c>
       <c r="K26" t="n">
-        <v>8325.822773048751</v>
+        <v>36855.525129874</v>
       </c>
       <c r="L26" t="n">
-        <v>278879.8533615135</v>
+        <v>321491.3545948244</v>
       </c>
     </row>
     <row r="27">
@@ -1453,37 +1453,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>80284.1224867253</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>3329.692649481226</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.04147386240700057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9585261375929994</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2676546659542</v>
+        <v>7.999711360051617</v>
       </c>
       <c r="G27" t="n">
-        <v>36506.07369896999</v>
+        <v>43304.50015153299</v>
       </c>
       <c r="H27" t="n">
-        <v>734738.0315954264</v>
+        <v>328352.8177342987</v>
       </c>
       <c r="I27" t="n">
-        <v>12068784.02618098</v>
+        <v>1792396.51904329</v>
       </c>
       <c r="J27" t="n">
-        <v>81.11441853002313</v>
+        <v>1752.199883793771</v>
       </c>
       <c r="K27" t="n">
-        <v>8246.918637607381</v>
+        <v>35295.89484094037</v>
       </c>
       <c r="L27" t="n">
-        <v>270554.0305884647</v>
+        <v>284635.8294649504</v>
       </c>
     </row>
     <row r="28">
@@ -1491,37 +1491,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>76954.42983724408</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>3806.539322875836</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.04946484992386446</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9505351500761355</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439578347488</v>
+        <v>7.324211636924683</v>
       </c>
       <c r="G28" t="n">
-        <v>35020.87952278727</v>
+        <v>40496.09294697013</v>
       </c>
       <c r="H28" t="n">
-        <v>698231.9578964564</v>
+        <v>285048.3175827657</v>
       </c>
       <c r="I28" t="n">
-        <v>11334045.99458555</v>
+        <v>1464043.701308991</v>
       </c>
       <c r="J28" t="n">
-        <v>83.39129968940415</v>
+        <v>1954.276253780238</v>
       </c>
       <c r="K28" t="n">
-        <v>8165.804219077357</v>
+        <v>33543.69495714661</v>
       </c>
       <c r="L28" t="n">
-        <v>262307.1119508573</v>
+        <v>249339.93462401</v>
       </c>
     </row>
     <row r="29">
@@ -1529,37 +1529,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>73147.89051436825</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>4313.249268869029</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.05896614705548875</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9410338529445113</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584505925761</v>
+        <v>6.679336436299152</v>
       </c>
       <c r="G29" t="n">
-        <v>33590.53131837528</v>
+        <v>37554.10710911745</v>
       </c>
       <c r="H29" t="n">
-        <v>663211.0783736692</v>
+        <v>244552.2246357956</v>
       </c>
       <c r="I29" t="n">
-        <v>10635814.0366891</v>
+        <v>1178995.383726226</v>
       </c>
       <c r="J29" t="n">
-        <v>85.73468787514788</v>
+        <v>2160.410733984191</v>
       </c>
       <c r="K29" t="n">
-        <v>8082.412919387953</v>
+        <v>31589.41870336637</v>
       </c>
       <c r="L29" t="n">
-        <v>254141.30773178</v>
+        <v>215796.2396668633</v>
       </c>
     </row>
     <row r="30">
@@ -1567,37 +1567,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>68834.64124549922</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>4835.112035181354</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.07024242369386213</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9297575763061379</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221437833789</v>
+        <v>6.06653999955889</v>
       </c>
       <c r="G30" t="n">
-        <v>32212.85311825492</v>
+        <v>34477.74254320357</v>
       </c>
       <c r="H30" t="n">
-        <v>629620.5470552939</v>
+        <v>206998.1175266782</v>
       </c>
       <c r="I30" t="n">
-        <v>9972602.958315426</v>
+        <v>934443.15909043</v>
       </c>
       <c r="J30" t="n">
-        <v>88.14430591630118</v>
+        <v>2362.73190217327</v>
       </c>
       <c r="K30" t="n">
-        <v>7996.678231512806</v>
+        <v>29429.00796938218</v>
       </c>
       <c r="L30" t="n">
-        <v>246058.894812392</v>
+        <v>184206.820963497</v>
       </c>
     </row>
     <row r="31">
@@ -1605,37 +1605,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>63999.52921031787</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>5350.087837196452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.08359573739386073</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9164042626061393</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372188231741</v>
+        <v>5.487087539178079</v>
       </c>
       <c r="G31" t="n">
-        <v>30885.75292317496</v>
+        <v>31274.09009119608</v>
       </c>
       <c r="H31" t="n">
-        <v>597407.6939370389</v>
+        <v>172520.3749834746</v>
       </c>
       <c r="I31" t="n">
-        <v>9342982.411260132</v>
+        <v>727445.0415637519</v>
       </c>
       <c r="J31" t="n">
-        <v>90.61966441911822</v>
+        <v>2550.615241459092</v>
       </c>
       <c r="K31" t="n">
-        <v>7908.533925596505</v>
+        <v>27066.27606720891</v>
       </c>
       <c r="L31" t="n">
-        <v>238062.2165808792</v>
+        <v>154777.8129941148</v>
       </c>
     </row>
     <row r="32">
@@ -1643,37 +1643,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>58649.44137312142</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>5827.807567333106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.09936680437000622</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9006331956299938</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059189240575</v>
+        <v>4.942016959846327</v>
       </c>
       <c r="G32" t="n">
-        <v>29607.21968478758</v>
+        <v>27960.69216458586</v>
       </c>
       <c r="H32" t="n">
-        <v>566521.941013864</v>
+        <v>141246.2848922785</v>
       </c>
       <c r="I32" t="n">
-        <v>8745574.717323095</v>
+        <v>554924.6665802773</v>
       </c>
       <c r="J32" t="n">
-        <v>93.16003320125762</v>
+        <v>2710.599637432556</v>
       </c>
       <c r="K32" t="n">
-        <v>7817.914261177386</v>
+        <v>24515.66082574982</v>
       </c>
       <c r="L32" t="n">
-        <v>230153.6826552827</v>
+        <v>127711.5369269059</v>
       </c>
     </row>
     <row r="33">
@@ -1681,37 +1681,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>52821.63380578832</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>6229.478626633726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.1179342284174308</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.8820657715825692</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305480475717</v>
+        <v>4.43210441431612</v>
       </c>
       <c r="G33" t="n">
-        <v>28375.32043294065</v>
+        <v>24568.12442557805</v>
       </c>
       <c r="H33" t="n">
-        <v>536914.7213290763</v>
+        <v>113285.5927276926</v>
       </c>
       <c r="I33" t="n">
-        <v>8179052.776309229</v>
+        <v>413678.3816879988</v>
       </c>
       <c r="J33" t="n">
-        <v>95.76441008763737</v>
+        <v>2826.753949067301</v>
       </c>
       <c r="K33" t="n">
-        <v>7724.754227976128</v>
+        <v>21805.06118831726</v>
       </c>
       <c r="L33" t="n">
-        <v>222335.7683941053</v>
+        <v>103195.8761011561</v>
       </c>
     </row>
     <row r="34">
@@ -1719,37 +1719,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>46592.15517915459</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>6509.415993177554</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.1397105578857163</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.8602894421142837</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134695620404</v>
+        <v>3.957835845122169</v>
       </c>
       <c r="G34" t="n">
-        <v>27188.19754466298</v>
+        <v>21142.14792954543</v>
       </c>
       <c r="H34" t="n">
-        <v>508539.4008961358</v>
+        <v>88717.46830211459</v>
       </c>
       <c r="I34" t="n">
-        <v>7642138.054980153</v>
+        <v>300392.7889603062</v>
       </c>
       <c r="J34" t="n">
-        <v>98.43148690042986</v>
+        <v>2881.737836233301</v>
       </c>
       <c r="K34" t="n">
-        <v>7628.989817888491</v>
+        <v>18978.30723924996</v>
       </c>
       <c r="L34" t="n">
-        <v>214611.0141661292</v>
+        <v>81390.81491283883</v>
       </c>
     </row>
     <row r="35">
@@ -1757,37 +1757,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>40082.73918597704</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>6619.010231484434</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.1651336801303265</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.8348663198696735</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571045849905</v>
+        <v>3.519386587639675</v>
       </c>
       <c r="G35" t="n">
-        <v>26044.06615219859</v>
+        <v>17744.74794868907</v>
       </c>
       <c r="H35" t="n">
-        <v>481351.2033514727</v>
+        <v>67575.32037256914</v>
       </c>
       <c r="I35" t="n">
-        <v>7133598.654084018</v>
+        <v>211675.3206581916</v>
       </c>
       <c r="J35" t="n">
-        <v>101.1596124808627</v>
+        <v>2858.785884636183</v>
       </c>
       <c r="K35" t="n">
-        <v>7530.558330988061</v>
+        <v>16096.56940301666</v>
       </c>
       <c r="L35" t="n">
-        <v>206982.0243482407</v>
+        <v>62412.50767358888</v>
       </c>
     </row>
     <row r="36">
@@ -1795,37 +1795,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>33463.7289544926</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>6513.770952197436</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.1946516767768328</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.8053483232231672</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639299920874</v>
+        <v>3.116610846286163</v>
       </c>
       <c r="G36" t="n">
-        <v>24941.21168771009</v>
+        <v>14453.16333359706</v>
       </c>
       <c r="H36" t="n">
-        <v>455307.1371992741</v>
+        <v>49830.57242388008</v>
       </c>
       <c r="I36" t="n">
-        <v>6652247.450732546</v>
+        <v>144100.0002856225</v>
       </c>
       <c r="J36" t="n">
-        <v>103.946752589791</v>
+        <v>2744.714612306445</v>
       </c>
       <c r="K36" t="n">
-        <v>7429.398718507198</v>
+        <v>13237.78351838047</v>
       </c>
       <c r="L36" t="n">
-        <v>199451.4660172526</v>
+        <v>46315.93827057223</v>
       </c>
     </row>
     <row r="37">
@@ -1833,37 +1833,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>26949.95800229517</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>6163.426263897315</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.2286989190622268</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.7713010809377732</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364760744941</v>
+        <v>2.749042396728357</v>
       </c>
       <c r="G37" t="n">
-        <v>23877.98756251606</v>
+        <v>11355.93254242239</v>
       </c>
       <c r="H37" t="n">
-        <v>430365.925511564</v>
+        <v>35377.40909028302</v>
       </c>
       <c r="I37" t="n">
-        <v>6196940.313533271</v>
+        <v>94269.42786174238</v>
       </c>
       <c r="J37" t="n">
-        <v>106.7904465489235</v>
+        <v>2533.745851117626</v>
       </c>
       <c r="K37" t="n">
-        <v>7325.451965917408</v>
+        <v>10493.06890607403</v>
       </c>
       <c r="L37" t="n">
-        <v>192022.0672987454</v>
+        <v>33078.15475219176</v>
       </c>
     </row>
     <row r="38">
@@ -1871,37 +1871,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>20786.53173839785</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>5563.74405493625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.2676610088184477</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.7323389911815523</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773238272807</v>
+        <v>2.415907227815495</v>
       </c>
       <c r="G38" t="n">
-        <v>22852.81297894728</v>
+        <v>8545.21272685544</v>
       </c>
       <c r="H38" t="n">
-        <v>406487.9379490479</v>
+        <v>24021.47654786063</v>
       </c>
       <c r="I38" t="n">
-        <v>5766574.388021707</v>
+        <v>58892.01877145937</v>
       </c>
       <c r="J38" t="n">
-        <v>109.6877605062445</v>
+        <v>2231.43439906182</v>
       </c>
       <c r="K38" t="n">
-        <v>7218.661519368484</v>
+        <v>7959.323054956402</v>
       </c>
       <c r="L38" t="n">
-        <v>184696.615332828</v>
+        <v>22585.08584611773</v>
       </c>
     </row>
     <row r="39">
@@ -1909,37 +1909,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>15222.7876834616</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>4746.866831124355</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.3118263835658343</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.6881736164341657</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891018524613</v>
+        <v>2.11614805559428</v>
       </c>
       <c r="G39" t="n">
-        <v>21864.17087309691</v>
+        <v>6105.358505187391</v>
       </c>
       <c r="H39" t="n">
-        <v>383635.1249701007</v>
+        <v>15476.26382100519</v>
       </c>
       <c r="I39" t="n">
-        <v>5360086.450072659</v>
+        <v>34870.54222359874</v>
       </c>
       <c r="J39" t="n">
-        <v>112.6352372390121</v>
+        <v>1857.377427361455</v>
       </c>
       <c r="K39" t="n">
-        <v>7108.973758862239</v>
+        <v>5727.888655894582</v>
       </c>
       <c r="L39" t="n">
-        <v>177477.9538134595</v>
+        <v>14625.76279116133</v>
       </c>
     </row>
     <row r="40">
@@ -1947,37 +1947,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>10475.92085233725</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>3785.194618527108</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.3613233310828809</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.6386766689171191</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744828614452</v>
+        <v>1.848459773811874</v>
       </c>
       <c r="G40" t="n">
-        <v>20910.60598689263</v>
+        <v>4099.069894772585</v>
       </c>
       <c r="H40" t="n">
-        <v>361770.9540970038</v>
+        <v>9370.905315817801</v>
       </c>
       <c r="I40" t="n">
-        <v>4976451.325102558</v>
+        <v>19394.27840259355</v>
       </c>
       <c r="J40" t="n">
-        <v>115.6288424472523</v>
+        <v>1444.965452410522</v>
       </c>
       <c r="K40" t="n">
-        <v>6996.338521623227</v>
+        <v>3870.511228533128</v>
       </c>
       <c r="L40" t="n">
-        <v>170368.9800545973</v>
+        <v>8897.874135266742</v>
       </c>
     </row>
     <row r="41">
@@ -1985,37 +1985,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>6690.72623381014</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>2783.631411386757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.4160432386726984</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.5839567613273016</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1336179763173</v>
+        <v>1.611334012088147</v>
       </c>
       <c r="G41" t="n">
-        <v>19990.72306802643</v>
+        <v>2554.127127855415</v>
       </c>
       <c r="H41" t="n">
-        <v>340860.3481101111</v>
+        <v>5271.835421045215</v>
       </c>
       <c r="I41" t="n">
-        <v>4614680.371005554</v>
+        <v>10023.37308677574</v>
       </c>
       <c r="J41" t="n">
-        <v>118.6639075421271</v>
+        <v>1036.709582687575</v>
       </c>
       <c r="K41" t="n">
-        <v>6880.709679175975</v>
+        <v>2425.545776122606</v>
       </c>
       <c r="L41" t="n">
-        <v>163372.6415329741</v>
+        <v>5027.362906733613</v>
       </c>
     </row>
     <row r="42">
@@ -2023,37 +2023,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>3907.094822423383</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>1858.037016980936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.4755546259889554</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.5244453740110446</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769413259914</v>
+        <v>1.403110102813342</v>
       </c>
       <c r="G42" t="n">
-        <v>19103.18519632944</v>
+        <v>1455.121761561611</v>
       </c>
       <c r="H42" t="n">
-        <v>320869.6250420847</v>
+        <v>2717.7082931898</v>
       </c>
       <c r="I42" t="n">
-        <v>4273820.022895443</v>
+        <v>4751.537665730529</v>
       </c>
       <c r="J42" t="n">
-        <v>121.7350689985601</v>
+        <v>675.1120830125091</v>
       </c>
       <c r="K42" t="n">
-        <v>6762.045771633848</v>
+        <v>1388.836193435031</v>
       </c>
       <c r="L42" t="n">
-        <v>156491.9318537981</v>
+        <v>2601.817130611008</v>
       </c>
     </row>
     <row r="43">
@@ -2061,37 +2061,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>2049.057805442447</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>1104.479535145434</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.539018241560514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.460981758439486</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995474034032</v>
+        <v>1.222028923443841</v>
       </c>
       <c r="G43" t="n">
-        <v>18246.71223516436</v>
+        <v>744.5189038768675</v>
       </c>
       <c r="H43" t="n">
-        <v>301766.4398457553</v>
+        <v>1262.58653162819</v>
       </c>
       <c r="I43" t="n">
-        <v>3952950.397853359</v>
+        <v>2033.829372540729</v>
       </c>
       <c r="J43" t="n">
-        <v>124.8362044229506</v>
+        <v>391.5212393914834</v>
       </c>
       <c r="K43" t="n">
-        <v>6640.310702635288</v>
+        <v>713.7241104225214</v>
       </c>
       <c r="L43" t="n">
-        <v>149729.8860821642</v>
+        <v>1212.980937175977</v>
       </c>
     </row>
     <row r="44">
@@ -2099,37 +2099,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>944.5782702970134</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>571.5842509889001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.6051211095605353</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.3948788904394647</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068037162394</v>
+        <v>1.066285238461607</v>
       </c>
       <c r="G44" t="n">
-        <v>17420.07940631201</v>
+        <v>334.8386668298508</v>
       </c>
       <c r="H44" t="n">
-        <v>283519.7276105909</v>
+        <v>518.0676277513224</v>
       </c>
       <c r="I44" t="n">
-        <v>3651183.958007602</v>
+        <v>771.2428409125392</v>
       </c>
       <c r="J44" t="n">
-        <v>127.9603655869895</v>
+        <v>197.6760444837559</v>
       </c>
       <c r="K44" t="n">
-        <v>6515.474498212337</v>
+        <v>322.2028710310381</v>
       </c>
       <c r="L44" t="n">
-        <v>143089.575379529</v>
+        <v>499.2568267534558</v>
       </c>
     </row>
     <row r="45">
@@ -2137,37 +2137,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>372.9940193081134</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>250.6727443875281</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.6720556668777542</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.3279443331222458</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015361865357</v>
+        <v>0.9340732112354306</v>
       </c>
       <c r="G45" t="n">
-        <v>16622.1159866361</v>
+        <v>128.9958255941474</v>
       </c>
       <c r="H45" t="n">
-        <v>266099.6482042789</v>
+        <v>183.2289609214717</v>
       </c>
       <c r="I45" t="n">
-        <v>3367664.230397012</v>
+        <v>253.1752131612168</v>
       </c>
       <c r="J45" t="n">
-        <v>131.0997088004185</v>
+        <v>84.57792740889873</v>
       </c>
       <c r="K45" t="n">
-        <v>6387.514132625348</v>
+        <v>124.5268265472822</v>
       </c>
       <c r="L45" t="n">
-        <v>136574.1008813166</v>
+        <v>177.0539557224177</v>
       </c>
     </row>
     <row r="46">
@@ -2175,37 +2175,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>122.3212749205853</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>90.22123405885964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.7375759786466745</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.2624240213533255</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865848214731</v>
+        <v>0.8236185760637121</v>
       </c>
       <c r="G46" t="n">
-        <v>15851.70412450352</v>
+        <v>41.27165853661092</v>
       </c>
       <c r="H46" t="n">
-        <v>249477.5322176428</v>
+        <v>54.23313532732433</v>
       </c>
       <c r="I46" t="n">
-        <v>3101564.582192733</v>
+        <v>69.94625223974505</v>
       </c>
       <c r="J46" t="n">
-        <v>134.2454231423028</v>
+        <v>29.69852091269481</v>
       </c>
       <c r="K46" t="n">
-        <v>6256.414423824929</v>
+        <v>39.9488991383835</v>
       </c>
       <c r="L46" t="n">
-        <v>130186.5867486913</v>
+        <v>52.52712917513544</v>
       </c>
     </row>
     <row r="47">
@@ -2213,37 +2213,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>32.10004086172569</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>25.65310546559636</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.799161146744324</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.200838853255676</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647971491491</v>
+        <v>0.7331896081570778</v>
       </c>
       <c r="G47" t="n">
-        <v>15107.77777349569</v>
+        <v>10.56651180594999</v>
       </c>
       <c r="H47" t="n">
-        <v>233625.8280931393</v>
+        <v>12.96147679071341</v>
       </c>
       <c r="I47" t="n">
-        <v>2852087.04997509</v>
+        <v>15.71311691242072</v>
       </c>
       <c r="J47" t="n">
-        <v>137.3876572449672</v>
+        <v>8.238386040907745</v>
       </c>
       <c r="K47" t="n">
-        <v>6122.169000682627</v>
+        <v>10.2503782256887</v>
       </c>
       <c r="L47" t="n">
-        <v>123930.1723248663</v>
+        <v>12.57823003675194</v>
       </c>
     </row>
     <row r="48">
@@ -2251,37 +2251,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>6.446935396129327</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>5.507614405913793</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.8542996117535949</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.1457003882464051</v>
       </c>
       <c r="F48" t="n">
-        <v>24.6039021211693</v>
+        <v>0.661078169771354</v>
       </c>
       <c r="G48" t="n">
-        <v>14389.32174034705</v>
+        <v>2.070405964897131</v>
       </c>
       <c r="H48" t="n">
-        <v>218518.0503196436</v>
+        <v>2.394964984763418</v>
       </c>
       <c r="I48" t="n">
-        <v>2618461.221881951</v>
+        <v>2.751640121707306</v>
       </c>
       <c r="J48" t="n">
-        <v>140.5154455307259</v>
+        <v>1.725606840959947</v>
       </c>
       <c r="K48" t="n">
-        <v>5984.781343437659</v>
+        <v>2.01199218478095</v>
       </c>
       <c r="L48" t="n">
-        <v>117808.0033241837</v>
+        <v>2.327851811063241</v>
       </c>
     </row>
     <row r="49">
@@ -2289,37 +2289,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>0.9393209902155343</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>0.8462079927512287</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.9008720145357977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.09912798546420232</v>
       </c>
       <c r="F49" t="n">
-        <v>23.85120981253064</v>
+        <v>0.6055438610015398</v>
       </c>
       <c r="G49" t="n">
-        <v>13695.37084326451</v>
+        <v>0.2943014174762779</v>
       </c>
       <c r="H49" t="n">
-        <v>204128.7285792966</v>
+        <v>0.3245590198662874</v>
       </c>
       <c r="I49" t="n">
-        <v>2399943.171562308</v>
+        <v>0.3566751369438868</v>
       </c>
       <c r="J49" t="n">
-        <v>143.6166350418844</v>
+        <v>0.2586613764318004</v>
       </c>
       <c r="K49" t="n">
-        <v>5844.265897906934</v>
+        <v>0.2863853438210027</v>
       </c>
       <c r="L49" t="n">
-        <v>111823.221980746</v>
+        <v>0.3158596262822903</v>
       </c>
     </row>
     <row r="50">
@@ -2327,37 +2327,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>0.09311299746430561</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>0.0872988067480146</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.9375576893170059</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.06244231068299411</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868542211917</v>
+        <v>0.5647231506551131</v>
       </c>
       <c r="G50" t="n">
-        <v>13025.00917578937</v>
+        <v>0.02846195769139768</v>
       </c>
       <c r="H50" t="n">
-        <v>190433.357736032</v>
+        <v>0.03025760239000948</v>
       </c>
       <c r="I50" t="n">
-        <v>2195814.442983011</v>
+        <v>0.03211611707759943</v>
       </c>
       <c r="J50" t="n">
-        <v>146.6778142824649</v>
+        <v>0.02603388027959531</v>
       </c>
       <c r="K50" t="n">
-        <v>5700.649262865049</v>
+        <v>0.02772396738920233</v>
       </c>
       <c r="L50" t="n">
-        <v>105978.9560828391</v>
+        <v>0.02947428246128755</v>
       </c>
     </row>
     <row r="51">
@@ -2365,37 +2365,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>0.005814190716291014</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>0.00560569004300111</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.9641393474235893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.03586065257641069</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660927859927</v>
+        <v>0.5365271551800566</v>
       </c>
       <c r="G51" t="n">
-        <v>12377.36947013039</v>
+        <v>0.001733883321768281</v>
       </c>
       <c r="H51" t="n">
-        <v>177408.3485602427</v>
+        <v>0.001795644698611806</v>
       </c>
       <c r="I51" t="n">
-        <v>2005381.085246979</v>
+        <v>0.001858514687589946</v>
       </c>
       <c r="J51" t="n">
-        <v>149.6842458079735</v>
+        <v>0.001630931838398357</v>
       </c>
       <c r="K51" t="n">
-        <v>5553.971448582584</v>
+        <v>0.001690087109607018</v>
       </c>
       <c r="L51" t="n">
-        <v>100278.3068199741</v>
+        <v>0.001750315072085222</v>
       </c>
     </row>
     <row r="52">
@@ -2403,37 +2403,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>0.0002085006732899045</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>0.0002046574756656011</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.9815674570078742</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.01843254299212582</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525854252947</v>
+        <v>0.5185859028143912</v>
       </c>
       <c r="G52" t="n">
-        <v>11751.63255239433</v>
+        <v>6.066164625362461e-05</v>
       </c>
       <c r="H52" t="n">
-        <v>165030.9790901123</v>
+        <v>6.176137684352491e-05</v>
       </c>
       <c r="I52" t="n">
-        <v>1827972.736686736</v>
+        <v>6.286998897814052e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>152.619804659239</v>
+        <v>5.809121741568932e-05</v>
       </c>
       <c r="K52" t="n">
-        <v>5404.287202774611</v>
+        <v>5.91552712086606e-05</v>
       </c>
       <c r="L52" t="n">
-        <v>94724.3353713915</v>
+        <v>6.022796247820442e-05</v>
       </c>
     </row>
     <row r="53">
@@ -2441,37 +2441,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>3.843197624303344e-06</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>3.811323485955256e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.9917063493829917</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.008293650617008264</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490630788763</v>
+        <v>0.5083200577549666</v>
       </c>
       <c r="G53" t="n">
-        <v>11147.0268803353</v>
+        <v>1.090876490285916e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>153279.3465377179</v>
+        <v>1.099730589900305e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>1662941.757596624</v>
+        <v>1.108612134615617e-06</v>
       </c>
       <c r="J53" t="n">
-        <v>155.4669251384379</v>
+        <v>1.055443065179684e-06</v>
       </c>
       <c r="K53" t="n">
-        <v>5251.667398115372</v>
+        <v>1.064053792971275e-06</v>
       </c>
       <c r="L53" t="n">
-        <v>89320.04816861688</v>
+        <v>1.072691269543826e-06</v>
       </c>
     </row>
     <row r="54">
@@ -2479,37 +2479,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>3.187413834808813e-08</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>3.177275263359934e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.996819185717851</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.003180814282149003</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582067217147</v>
+        <v>0.5031840186159053</v>
       </c>
       <c r="G54" t="n">
-        <v>10562.82815210705</v>
+        <v>8.82668144072156e-09</v>
       </c>
       <c r="H54" t="n">
-        <v>142132.3196573826</v>
+        <v>8.8540996143886e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>1509662.411058906</v>
+        <v>8.881544715312078e-09</v>
       </c>
       <c r="J54" t="n">
-        <v>158.2065588686339</v>
+        <v>8.584005274469204e-09</v>
       </c>
       <c r="K54" t="n">
-        <v>5096.200472976934</v>
+        <v>8.610727791590132e-09</v>
       </c>
       <c r="L54" t="n">
-        <v>84068.38077050151</v>
+        <v>8.63747657255172e-09</v>
       </c>
     </row>
     <row r="55">
@@ -2517,37 +2517,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>1.013857144887919e-10</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>1.012836049837982e-10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.9989928610208196</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.001007138979180366</v>
       </c>
       <c r="F55" t="n">
-        <v>19.55826377901818</v>
+        <v>0.5010073941676955</v>
       </c>
       <c r="G55" t="n">
-        <v>9998.358972003527</v>
+        <v>2.739125306402602e-11</v>
       </c>
       <c r="H55" t="n">
-        <v>131569.4915052756</v>
+        <v>2.741817366703905e-11</v>
       </c>
       <c r="I55" t="n">
-        <v>1367530.091401523</v>
+        <v>2.74451009234772e-11</v>
       </c>
       <c r="J55" t="n">
-        <v>160.8181475595148</v>
+        <v>2.669625977109918e-11</v>
       </c>
       <c r="K55" t="n">
-        <v>4937.9939141083</v>
+        <v>2.672251712092752e-11</v>
       </c>
       <c r="L55" t="n">
-        <v>78972.18029752457</v>
+        <v>2.674878096158839e-11</v>
       </c>
     </row>
     <row r="56">
@@ -2555,37 +2555,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>1.02109504993714e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>1.020836337750906e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.9997466326114793</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.0002533673885206644</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249083783577</v>
+        <v>0.5002533796430851</v>
       </c>
       <c r="G56" t="n">
-        <v>9452.988556290029</v>
+        <v>2.691394990182855e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>121571.1325332721</v>
+        <v>2.692060301302438e-14</v>
       </c>
       <c r="I56" t="n">
-        <v>1235960.599896248</v>
+        <v>2.692725643814841e-14</v>
       </c>
       <c r="J56" t="n">
-        <v>163.2796144146549</v>
+        <v>2.625085930207526e-14</v>
       </c>
       <c r="K56" t="n">
-        <v>4777.175766548785</v>
+        <v>2.625734982834015e-14</v>
       </c>
       <c r="L56" t="n">
-        <v>74034.18638341627</v>
+        <v>2.626384066087441e-14</v>
       </c>
     </row>
     <row r="57">
@@ -2593,37 +2593,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>2.587121862339506e-17</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>2.586996732417584e-17</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.9999516335416034</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>4.836645839656484e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874912548601</v>
+        <v>0.5000483667790538</v>
       </c>
       <c r="G57" t="n">
-        <v>8926.132458941142</v>
+        <v>6.652797269660773e-18</v>
       </c>
       <c r="H57" t="n">
-        <v>112118.143976982</v>
+        <v>6.653111195830139e-18</v>
       </c>
       <c r="I57" t="n">
-        <v>1114389.467362976</v>
+        <v>6.653425124029982e-18</v>
       </c>
       <c r="J57" t="n">
-        <v>165.5673786496031</v>
+        <v>6.490219997481376e-18</v>
       </c>
       <c r="K57" t="n">
-        <v>4613.89615213413</v>
+        <v>6.490526264884429e-18</v>
       </c>
       <c r="L57" t="n">
-        <v>69257.01061686748</v>
+        <v>6.490832534268433e-18</v>
       </c>
     </row>
     <row r="58">
@@ -2631,37 +2631,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>1.25129921921687e-21</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>1.251290923426901e-21</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.9999933702588143</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>6.629741185704141e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727697559617</v>
+        <v>0.5000066297452346</v>
       </c>
       <c r="G58" t="n">
-        <v>8417.252293409187</v>
+        <v>3.139241388915395e-22</v>
       </c>
       <c r="H58" t="n">
-        <v>103192.0115180409</v>
+        <v>3.139261693666935e-22</v>
       </c>
       <c r="I58" t="n">
-        <v>1002271.323385994</v>
+        <v>3.139281998430573e-22</v>
       </c>
       <c r="J58" t="n">
-        <v>167.6563981301294</v>
+        <v>3.062654221031675e-22</v>
       </c>
       <c r="K58" t="n">
-        <v>4448.328773484527</v>
+        <v>3.062674030533275e-22</v>
       </c>
       <c r="L58" t="n">
-        <v>64643.11446473336</v>
+        <v>3.062693840046677e-22</v>
       </c>
     </row>
     <row r="59">
@@ -2669,37 +2669,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>8.295789969281521e-27</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>8.29578490290961e-27</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.9999993892839707</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>6.107160293034042e-07</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830276159659</v>
+        <v>0.5000006107160506</v>
       </c>
       <c r="G59" t="n">
-        <v>7925.855422455625</v>
+        <v>2.030473944191167e-27</v>
       </c>
       <c r="H59" t="n">
-        <v>94774.75922463171</v>
+        <v>2.030475153989243e-27</v>
       </c>
       <c r="I59" t="n">
-        <v>899079.3118679527</v>
+        <v>2.030476363787359e-27</v>
       </c>
       <c r="J59" t="n">
-        <v>169.5202456646367</v>
+        <v>1.980948979656763e-27</v>
       </c>
       <c r="K59" t="n">
-        <v>4280.672375354397</v>
+        <v>1.980950159947527e-27</v>
       </c>
       <c r="L59" t="n">
-        <v>60194.78569124884</v>
+        <v>1.980951340238331e-27</v>
       </c>
     </row>
     <row r="60">
@@ -2707,37 +2707,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>5.066371909974619e-33</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>5.066371733066535e-33</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.9999999650818994</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>3.491810063316336e-08</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204388007245</v>
+        <v>0.5000000349181006</v>
       </c>
       <c r="G60" t="n">
-        <v>7451.494583619618</v>
+        <v>1.20979803395166e-33</v>
       </c>
       <c r="H60" t="n">
-        <v>86848.90380217609</v>
+        <v>1.209798075165172e-33</v>
       </c>
       <c r="I60" t="n">
-        <v>804304.552643321</v>
+        <v>1.209798116378684e-33</v>
       </c>
       <c r="J60" t="n">
-        <v>171.1312249656903</v>
+        <v>1.180290723617376e-33</v>
       </c>
       <c r="K60" t="n">
-        <v>4111.152129689761</v>
+        <v>1.18029076382568e-33</v>
       </c>
       <c r="L60" t="n">
-        <v>55914.11331589443</v>
+        <v>1.180290804033984e-33</v>
       </c>
     </row>
     <row r="61">
@@ -2745,37 +2745,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>1.769080841975258e-40</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>1.769080839982513e-40</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.9999999988735702</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>1.12642983829403e-09</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870574147229</v>
+        <v>0.5000000011264298</v>
       </c>
       <c r="G61" t="n">
-        <v>6993.767413130095</v>
+        <v>4.12135117027583e-41</v>
       </c>
       <c r="H61" t="n">
-        <v>79397.40921855645</v>
+        <v>4.121351174805014e-41</v>
       </c>
       <c r="I61" t="n">
-        <v>717455.648841145</v>
+        <v>4.121351179334197e-41</v>
       </c>
       <c r="J61" t="n">
-        <v>172.4605326956574</v>
+        <v>4.020830405496017e-41</v>
       </c>
       <c r="K61" t="n">
-        <v>3940.020904724071</v>
+        <v>4.020830409914732e-41</v>
       </c>
       <c r="L61" t="n">
-        <v>51802.96118620467</v>
+        <v>4.020830414333448e-41</v>
       </c>
     </row>
     <row r="62">
@@ -2783,37 +2783,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>1.992745446755256e-49</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>1.992745446718819e-49</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.9999999999817153</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>1.828470708176155e-11</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848077562196</v>
+        <v>0.5000000000182847</v>
       </c>
       <c r="G62" t="n">
-        <v>6552.31582608328</v>
+        <v>4.529183348572404e-50</v>
       </c>
       <c r="H62" t="n">
-        <v>72403.64180542638</v>
+        <v>4.529183348653199e-50</v>
       </c>
       <c r="I62" t="n">
-        <v>638058.2396225885</v>
+        <v>4.529183348733994e-50</v>
       </c>
       <c r="J62" t="n">
-        <v>173.4784732837026</v>
+        <v>4.418715461941063e-50</v>
       </c>
       <c r="K62" t="n">
-        <v>3767.560372028413</v>
+        <v>4.418715462019887e-50</v>
       </c>
       <c r="L62" t="n">
-        <v>47862.9402814806</v>
+        <v>4.418715462098712e-50</v>
       </c>
     </row>
     <row r="63">
@@ -2821,37 +2821,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>3.643676678243392e-60</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>3.643676678242917e-60</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.9999999999998698</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>1.302291607885309e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154745984086</v>
+        <v>0.5000000000001302</v>
       </c>
       <c r="G63" t="n">
-        <v>6126.825205642526</v>
+        <v>8.079491790072034e-61</v>
       </c>
       <c r="H63" t="n">
-        <v>65851.32597934309</v>
+        <v>8.07949179007306e-61</v>
       </c>
       <c r="I63" t="n">
-        <v>565654.5978171621</v>
+        <v>8.079491790074087e-61</v>
       </c>
       <c r="J63" t="n">
-        <v>174.1547332881934</v>
+        <v>7.882431014703396e-61</v>
       </c>
       <c r="K63" t="n">
-        <v>3594.081898744711</v>
+        <v>7.882431014704398e-61</v>
       </c>
       <c r="L63" t="n">
-        <v>44095.37990945219</v>
+        <v>7.8824310147054e-61</v>
       </c>
     </row>
     <row r="64">
@@ -2859,37 +2859,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>4.745129559923788e-73</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>4.745129559923786e-73</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806937773566</v>
+        <v>0.5000000000000003</v>
       </c>
       <c r="G64" t="n">
-        <v>5717.02334906039</v>
+        <v>1.026522376018445e-73</v>
       </c>
       <c r="H64" t="n">
-        <v>59724.50077370057</v>
+        <v>1.026522376018445e-73</v>
       </c>
       <c r="I64" t="n">
-        <v>499803.271837819</v>
+        <v>1.026522376018445e-73</v>
       </c>
       <c r="J64" t="n">
-        <v>174.4587219107821</v>
+        <v>1.001485244896044e-73</v>
       </c>
       <c r="K64" t="n">
-        <v>3419.927165456516</v>
+        <v>1.001485244896044e-73</v>
       </c>
       <c r="L64" t="n">
-        <v>40501.29801070748</v>
+        <v>1.001485244896044e-73</v>
       </c>
     </row>
     <row r="65">
@@ -2897,37 +2897,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>1.580445627677048e-88</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>1.580445627677048e-88</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819431694695</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="n">
-        <v>5322.679113724208</v>
+        <v>3.335615933117855e-89</v>
       </c>
       <c r="H65" t="n">
-        <v>54007.47742464016</v>
+        <v>3.335615933117855e-89</v>
       </c>
       <c r="I65" t="n">
-        <v>440078.7710641185</v>
+        <v>3.335615933117855e-89</v>
       </c>
       <c r="J65" t="n">
-        <v>174.3599837652895</v>
+        <v>3.254259446944248e-89</v>
       </c>
       <c r="K65" t="n">
-        <v>3245.468443545735</v>
+        <v>3.254259446944248e-89</v>
       </c>
       <c r="L65" t="n">
-        <v>37081.37084525097</v>
+        <v>3.254259446944248e-89</v>
       </c>
     </row>
     <row r="66">
@@ -2935,37 +2935,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
-      </c>
-      <c r="F66" t="n">
-        <v>12.82205341423472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>4943.600702507986</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>48684.79831091596</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>386071.2936394783</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>173.8286890746839</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>3071.108459780445</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>33835.90240170523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2973,37 +2971,35 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
-      </c>
-      <c r="F67" t="n">
-        <v>12.28976035630122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>4579.633524875302</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>43741.19760840798</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>337386.4953285623</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>172.8362050130207</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2897.279770705762</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>30764.79394192479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3011,37 +3007,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
-      </c>
-      <c r="F68" t="n">
-        <v>11.77141064465656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>4230.65756890554</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>39161.56408353268</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>293645.2977201543</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>171.3557498217714</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2724.44356569274</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>27867.51417121902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3049,37 +3043,35 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11.26708093262625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>3896.584220279708</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>34930.90651462713</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>254483.7336366217</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>169.3631285090362</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2553.087815870969</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>25143.07060552629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3087,37 +3079,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10.77682844227633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>3577.35246791376</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>31034.32229434743</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>219552.8271219945</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>166.8375452939678</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2383.724687361933</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>22589.98278965531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3125,37 +3115,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10.30069046858717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>3272.924443084647</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>27456.96982643367</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>188518.5048276471</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>163.7624834193123</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2216.887142067965</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>20206.25810229338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3163,37 +3151,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9.838683977641459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>2983.280250315926</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>24184.04538334902</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>161061.5350012134</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>160.1266374938695</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>2053.124658648653</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>17989.37096022542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3201,37 +3187,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9.390805304905237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>2708.412064732981</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>21200.7651330331</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>136877.4896178644</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>155.9248771753107</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1892.998021154783</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>15936.24630157676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3239,37 +3223,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8.957029958879355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>2448.317492760248</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>18492.35306830012</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>115676.7244848313</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>151.1592138769692</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1737.073143979473</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>14043.24828042198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3277,37 +3259,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8.537312534487135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>2202.992221469423</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>16044.03557553987</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>97184.37141653118</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>145.8397345037704</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1585.913930102503</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>12306.17513644251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3315,37 +3295,35 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
-      </c>
-      <c r="F76" t="n">
-        <v>8.131586739553173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>1972.422016909136</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>13841.04335407045</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>81140.33584099132</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>139.9854583518708</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1440.074195598733</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>10720.26120634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3353,37 +3331,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.739765536629855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>1756.574173291529</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>11868.62133716131</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>67299.29248692089</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>133.6250657617763</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1300.088737246862</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>9280.187010741269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3391,37 +3367,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.361741401257085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>1555.388562403155</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>10112.04716386978</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>55430.67114975958</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>126.7974405884263</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1166.463671485086</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>7980.098273494406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3429,37 +3403,35 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6.997386696514349</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>1368.768484799223</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>8556.658601466625</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>45318.6239858898</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>119.5519639129349</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1039.66623089666</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>6813.634602009321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3467,37 +3439,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
-      </c>
-      <c r="F80" t="n">
-        <v>6.646554162461738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>1196.571579163241</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>7187.890116667401</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>36761.96538442317</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>111.9484946954726</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>920.1142669837247</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>5773.968371112661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3505,37 +3475,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
-      </c>
-      <c r="F81" t="n">
-        <v>6.309077517789042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>1038.601100653797</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>5991.31853750416</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>29574.07526775577</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>104.0569753908551</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>808.1657722882524</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>4853.854104128936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3543,37 +3511,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
-      </c>
-      <c r="F82" t="n">
-        <v>5.984772169721794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>894.5979290839499</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>4952.717436850363</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>23582.75673025161</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>95.95660807174011</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>704.1087968973972</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>4045.688331840684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3581,37 +3547,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
-      </c>
-      <c r="F83" t="n">
-        <v>5.673436026993337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>764.2337083551348</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>4058.119507766412</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>18630.03929340125</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>87.73456037109629</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>608.152188825657</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>3341.579534943286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3619,37 +3583,35 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5.374850409505469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>647.1055438165333</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>3293.885799411278</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>14571.91978563483</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>79.48418131813843</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>520.4176284545608</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>2733.427346117629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3657,37 +3619,35 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5.088781047190322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>542.7326877362204</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>2646.780255594745</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>11278.03398622356</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>71.30273514388197</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>440.9334471364223</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2213.009717663069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3695,37 +3655,35 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.81497915957359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>450.5556184486376</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2104.047567858524</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>8631.25373062881</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>63.28869586653514</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>369.6307119925404</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1772.076270526647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3733,37 +3691,35 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4.553182606644601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>369.9378603340779</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1653.491949409887</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>6527.206162770287</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>55.53868543972892</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>306.3420161260053</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1402.445558534106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3771,37 +3727,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4.303117100878824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>300.1707956507306</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1283.554089075809</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>4873.7142133604</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>48.14418079764386</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>250.8033306862764</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1096.103542408101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3809,37 +3763,35 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
-      </c>
-      <c r="F89" t="n">
-        <v>4.064497469647984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>240.4815842511355</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>983.3832934250781</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3590.160124284591</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>41.1881563670437</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>202.6591498886325</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>845.3002117218243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3847,37 +3799,35 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3.837028956802607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>190.0441361821251</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>742.9017091739427</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2606.776830859513</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>34.7418635289615</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>161.4709935215888</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>642.6410618331919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3885,37 +3835,35 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3.620408551928818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>147.9928828000049</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>552.8575729918175</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1863.875121685571</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>28.86197134630966</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>126.7291299926273</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>481.1700683116031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3923,37 +3871,35 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3.414326335668076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>113.4388774998489</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>404.8646901918125</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1311.017548693753</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>23.58829778069576</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>97.86715864631763</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>354.4409383189758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3961,37 +3907,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3.218466829543793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>85.48754596915894</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>291.4258126919637</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>906.1528585019407</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>18.94234260275049</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>74.27886086562187</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>256.5737796726582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3999,37 +3943,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3.032510338956332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>63.25722082913312</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>205.9382667228047</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>614.727045809977</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>14.92678924580069</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>55.33651826287137</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>182.2949188070363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4037,37 +3979,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2.856134278377099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>45.89746155144269</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>142.6810458936716</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>408.7887790871722</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>11.52607311793981</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>40.40972901707068</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>126.958400544165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4075,37 +4015,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2.689014468278792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>32.60610145075508</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>96.78358434222896</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>266.1077331935006</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>8.7080226401673</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>28.88365589913088</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>86.5486715270943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4113,37 +4051,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2.530826393963574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>22.64399798555873</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>64.17748289147389</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>169.3241488512716</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>6.42647530063853</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>20.17563325896358</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>57.66501562796343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4151,37 +4087,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2.381246417171942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>15.34659968547563</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>41.53348490591516</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>105.1466659597977</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.624667150727548</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>13.74915795832505</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>37.48938236899985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4189,37 +4123,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2.239952932147129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>10.13167870069133</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>26.18688522043952</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>63.61318105388256</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.239105813339446</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>9.1244908075975</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>23.7402244106748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4227,37 +4159,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.106627458665304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>6.502892937325293</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>16.05520651974819</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>37.42629583344304</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.203579637187421</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>5.885384994258054</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>14.6157336030773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4265,37 +4195,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.980955665391087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>4.049202033317669</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>9.552313582422899</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>21.37108931369485</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.452941310934537</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>3.681805357070633</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>8.730348608819249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4303,37 +4231,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.862628317750064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>2.440522182640144</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.503111549105229</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>11.81877573127195</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9263388024036575</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>2.228864046136096</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>5.048543251748614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4341,37 +4267,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.75134214529361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>1.420317142442635</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>3.062589366465085</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>6.315664182166719</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5696468886468699</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1.302525243732439</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>2.819679205612518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4379,37 +4303,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.646800624235226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>0.7960426713941251</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1.64227222402245</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.253074815701634</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3369664655852627</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7328783550855693</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>1.51715396188008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4417,37 +4339,35 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.548714671431352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>0.4284591799860115</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8462295526283251</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1.610802591679184</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0.191186474346992</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3959118895003066</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.7842756067945102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4455,37 +4375,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1.456803246535135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>0.2207935064087882</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4177703726423137</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7645730390508588</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1037214923590499</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2047254151533146</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3883637172942037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4493,37 +4411,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.370793859344105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>0.1085799561109388</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1969768662335254</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.346802666408545</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05362575182959425</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1010039227942648</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1836383021408891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4531,37 +4447,35 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.290422979472508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>0.05077805212323154</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.08839691012258662</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1498258001750196</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02632789265114148</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0473781709646705</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08263437934662429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4569,37 +4483,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.215436345394354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>0.02249715746735038</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03761885799935507</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.06142889005243301</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01222720510967963</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02105027831352903</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.03525620838195379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4607,37 +4519,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.14558916962353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>0.009404677070464969</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.01512170053200469</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02381003205307794</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005349509752561586</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.008823073203849402</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.01420593006842476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4645,37 +4555,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1.080646236337918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>0.003693448969039346</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.005717023461539718</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.008688331521073249</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.002195087211565917</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.003473563451287819</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.005382856864575362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4683,37 +4591,35 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1.020381887153683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>0.001356306027894992</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.002023574492500371</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.002971308059533533</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0008407644952361453</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.001278476239721901</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.001909293413287544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4721,37 +4627,35 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03602749942377004</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02418230577424123</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6712179907297799</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3287820092702201</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.964579890082881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>0.0004633759162013474</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0006672684646053796</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0009477335670331623</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0002990637032934993</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0004377117444857558</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0006308171735656426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4759,37 +4663,35 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01184519364952881</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008262401854711613</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6975320200898771</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3024679799101229</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9130331860739102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>0.0001464900622847193</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0002038925484040322</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0002804651024277826</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>9.825145102745402e-05</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0001386480411922565</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0001931054290798867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4797,37 +4699,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.003582791794817194</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002592062078908941</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7234754982576922</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2765245017423078</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.8655435071065744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>4.260437809246839e-05</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>5.740248611931288e-05</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>7.657255402375035e-05</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.963771506577661e-05</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>4.039659016480251e-05</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>5.445738788763017e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4835,37 +4735,35 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0009907297159082533</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0007419459219956255</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7488883295636743</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2511116704363257</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.821920859827543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>1.132803310005838e-05</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1.479810802684449e-05</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.917006790443745e-05</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>8.157145947639164e-06</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>1.07588750990259e-05</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>1.406079772282767e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4873,37 +4771,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0002487837939126278</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00019246125055752</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7736084715594932</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2263915284405068</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.7819828694866351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>2.735193571647738e-06</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>3.470074926786113e-06</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>4.371959877592959e-06</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.034585498443998e-06</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>2.601729151386734e-06</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>3.301922623801769e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4911,37 +4807,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.632254335510787e-05</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>4.491583862725805e-05</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7974753260709178</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2025246739290822</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.7455539808802392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>5.95408320448058e-07</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>7.348813551383756e-07</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>9.018849508068464e-07</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>4.565610043217812e-07</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>5.671436529427358e-07</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>7.001934724150353e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4949,37 +4843,35 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.140670472784982e-05</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>9.357302310860072e-06</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8203335261246775</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1796664738753225</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.7124645166258825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>1.159469961090437e-07</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1.394730346903175e-07</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.670035956684708e-07</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>9.145693092470774e-08</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1.105826486209546e-07</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1.330498194722994e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4987,37 +4879,35 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.049402416989748e-06</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.725672695183973e-06</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8420370157066159</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1579629842933841</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.6825495989492163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>2.003056533398809e-08</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2.352603858127382e-08</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>2.753056097815324e-08</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.621776678533435e-08</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1.912571769624679e-08</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>2.246717085134484e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5025,37 +4915,35 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.237297218057748e-07</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2.792017605610935e-07</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8624532804825491</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1375467195174509</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.6556479498397395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>3.042392189654197e-09</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>3.495473247285721e-09</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>4.004522396879428e-09</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.523001081232449e-09</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>2.907950910912438e-09</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>3.341453155098051e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5063,37 +4951,35 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.452796124468132e-08</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>3.924995289504024e-08</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8814675497798249</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1185324502201751</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.6316005964067504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>4.023760242042779e-10</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.530810576315243e-10</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>5.090491495937065e-10</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>3.410398155245119e-10</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>3.849498296799884e-10</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>4.335022441856124e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5101,37 +4987,35 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.278008349641075e-09</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>4.74485961021082e-09</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8989867571038398</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1010132428961602</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.6102495237574267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>4.586020774883226e-11</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>5.070503342724635e-11</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>5.59680919621822e-11</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>3.964203792714528e-11</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>4.391001415547663e-11</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>4.855241450562398e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5139,37 +5023,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.331487394302556e-10</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>4.878007192503324e-10</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9149430227887552</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08505697721124483</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.5914363364292858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>4.454315677501117e-12</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>4.844825678414107e-12</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>5.263058534935851e-12</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>3.918697163873282e-12</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>4.267976228331344e-12</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>4.642400350147344e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5177,37 +5059,35 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.534802017992316e-11</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>4.214175248850279e-11</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.929296412970199</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07070358702980095</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.5750010102310288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>3.642986798777914e-13</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>3.905100009129899e-13</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>4.182328565217436e-13</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>3.255206312117406e-13</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>3.492790644580609e-13</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>3.744241218159997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5215,37 +5095,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.206267691420367e-12</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>3.020421959295569e-12</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9420367386596877</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05796326134031227</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.5607808370375398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>2.476656097844328e-14</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2.621132103519853e-14</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>2.772285560875374e-14</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.243366378072018e-14</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>2.375843324632026e-14</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>2.514505735793877e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5253,37 +5131,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1.771452138472278e-13</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9531841911132612</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04681580888673875</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.5486096819274019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>1.380337160090661e-15</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.444760056755247e-15</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.511534573555215e-15</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.265111114812109e-15</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.324769465600075e-15</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>1.386624111618508e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5291,37 +5167,35 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.700518277570608e-15</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>8.376760394036744e-15</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962788666927062</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0.037211333072938</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.5383176769412017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>6.213615450583473e-17</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>6.442289666458596e-17</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>6.677451679996701e-17</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>5.75230628506217e-17</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>5.965835078796602e-17</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>6.185464601843338e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5329,37 +5203,35 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.237578835338647e-16</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>3.143455029278178e-16</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9709277176410056</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02907228235899439</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.5297313688304368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>2.223239558834763e-18</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>2.286742158751243e-18</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>2.351620135381062e-18</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.075581644835223e-18</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>2.13528793734433e-18</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>2.196295230467356e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5367,37 +5239,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.412380606046937e-18</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>9.202514260500957e-18</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9777031598774116</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02229684012258837</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.5226706133114631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>6.214870019820225e-20</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>6.350259991648012e-20</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>6.487797662981855e-20</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>5.842594285197717e-20</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>5.970629250910686e-20</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>6.100729312302555e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5405,75 +5275,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.0986634554598e-19</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>2.063482500319547e-19</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9832364950898975</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01676350491010248</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5167635049101025</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="n">
-        <v>1.3324227232173e-21</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1.353899718277862e-21</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.375376713338425e-21</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.259698700340686e-21</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1.280349657129689e-21</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>1.301000613918692e-21</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3.518095514025299e-21</v>
-      </c>
-      <c r="C132" t="n">
-        <v>3.518095514025299e-21</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.14769950605628e-23</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2.14769950605628e-23</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.14769950605628e-23</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.065095678900269e-23</v>
-      </c>
-      <c r="K132" t="n">
-        <v>2.065095678900269e-23</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2.065095678900269e-23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
